--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>240800</v>
+        <v>230000</v>
       </c>
       <c r="E8" s="3">
+        <v>237700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>235100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>222600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>226300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>232000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>234300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>232600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>241100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>230100</v>
+      </c>
+      <c r="N8" s="3">
         <v>227900</v>
       </c>
-      <c r="F8" s="3">
-        <v>231700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>237600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>239900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>232600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>241100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>230100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>227900</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>222100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>224300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>229300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>237200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200500</v>
+        <v>186700</v>
       </c>
       <c r="E9" s="3">
-        <v>189700</v>
+        <v>197500</v>
       </c>
       <c r="F9" s="3">
-        <v>197600</v>
+        <v>195800</v>
       </c>
       <c r="G9" s="3">
-        <v>202500</v>
+        <v>185200</v>
       </c>
       <c r="H9" s="3">
-        <v>191700</v>
+        <v>192900</v>
       </c>
       <c r="I9" s="3">
+        <v>197800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>187200</v>
+      </c>
+      <c r="K9" s="3">
         <v>192900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>196200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>172400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>175700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>182700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>197200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>39300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>33300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>34200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>39700</v>
+      </c>
+      <c r="L10" s="3">
         <v>40300</v>
       </c>
-      <c r="E10" s="3">
-        <v>38200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>34100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>48200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>39700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>40300</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>33900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>55500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>46400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>41600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>32100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>233200</v>
+        <v>219700</v>
       </c>
       <c r="E17" s="3">
-        <v>221500</v>
+        <v>229100</v>
       </c>
       <c r="F17" s="3">
-        <v>229100</v>
+        <v>227700</v>
       </c>
       <c r="G17" s="3">
-        <v>233500</v>
+        <v>216300</v>
       </c>
       <c r="H17" s="3">
-        <v>225900</v>
+        <v>223700</v>
       </c>
       <c r="I17" s="3">
+        <v>228000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K17" s="3">
         <v>226200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>231700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>230100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>202500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>189500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>195000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>227100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7600</v>
+        <v>10300</v>
       </c>
       <c r="E18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K18" s="3">
         <v>6400</v>
       </c>
-      <c r="F18" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>14000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>9300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>25400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>32600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>29300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="M20" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-14900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>57200</v>
+        <v>52400</v>
       </c>
       <c r="E21" s="3">
-        <v>54600</v>
+        <v>53300</v>
       </c>
       <c r="F21" s="3">
-        <v>50200</v>
+        <v>55900</v>
       </c>
       <c r="G21" s="3">
-        <v>41100</v>
+        <v>53300</v>
       </c>
       <c r="H21" s="3">
-        <v>51700</v>
+        <v>49000</v>
       </c>
       <c r="I21" s="3">
+        <v>40200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>50400</v>
+      </c>
+      <c r="K21" s="3">
         <v>42000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>42600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>14600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>58200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>53800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>60300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>34400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1500</v>
-      </c>
       <c r="G23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>11100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-24300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>21200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>17700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>22900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
         <v>900</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>900</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3500</v>
-      </c>
       <c r="I24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-10500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>7600</v>
-      </c>
       <c r="I26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-13800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>17900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>7600</v>
-      </c>
       <c r="I27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>12700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>17900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="M32" s="3">
+        <v>24300</v>
+      </c>
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>24300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>14900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>7600</v>
-      </c>
       <c r="I33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>12700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>17900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>7600</v>
-      </c>
       <c r="I35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>12700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>17900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>149100</v>
+        <v>97500</v>
       </c>
       <c r="E41" s="3">
-        <v>124600</v>
+        <v>85200</v>
       </c>
       <c r="F41" s="3">
-        <v>86100</v>
+        <v>145600</v>
       </c>
       <c r="G41" s="3">
-        <v>121400</v>
+        <v>121700</v>
       </c>
       <c r="H41" s="3">
-        <v>105400</v>
+        <v>84100</v>
       </c>
       <c r="I41" s="3">
+        <v>118600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K41" s="3">
         <v>106800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>117600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>239200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>278700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>247500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>284100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>318700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45500</v>
+        <v>226000</v>
       </c>
       <c r="E42" s="3">
-        <v>70300</v>
+        <v>157300</v>
       </c>
       <c r="F42" s="3">
-        <v>88400</v>
-      </c>
-      <c r="G42" s="3" t="s">
+        <v>44500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>68700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>86400</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K42" s="3">
         <v>84900</v>
       </c>
-      <c r="I42" s="3">
-        <v>84900</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>87600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>41400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>41400</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>69800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>126300</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>184700</v>
+        <v>174400</v>
       </c>
       <c r="E43" s="3">
-        <v>183300</v>
+        <v>188900</v>
       </c>
       <c r="F43" s="3">
-        <v>201700</v>
+        <v>180400</v>
       </c>
       <c r="G43" s="3">
-        <v>201100</v>
+        <v>179000</v>
       </c>
       <c r="H43" s="3">
-        <v>212500</v>
+        <v>196900</v>
       </c>
       <c r="I43" s="3">
+        <v>196400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K43" s="3">
         <v>226200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>239300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>236200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>243100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>253000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>274000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>292500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29200</v>
+        <v>40500</v>
       </c>
       <c r="E44" s="3">
-        <v>29200</v>
+        <v>35300</v>
       </c>
       <c r="F44" s="3">
-        <v>29200</v>
+        <v>28500</v>
       </c>
       <c r="G44" s="3">
-        <v>28600</v>
+        <v>28500</v>
       </c>
       <c r="H44" s="3">
-        <v>23300</v>
+        <v>28500</v>
       </c>
       <c r="I44" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K44" s="3">
         <v>21600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>31200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>25700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>24800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>26500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>26300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>26800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="E45" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="F45" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="G45" s="3">
-        <v>14900</v>
+        <v>7400</v>
       </c>
       <c r="H45" s="3">
-        <v>13400</v>
+        <v>7400</v>
       </c>
       <c r="I45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J45" s="3">
         <v>13100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L45" s="3">
         <v>12300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>11000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>13700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>415900</v>
+        <v>546000</v>
       </c>
       <c r="E46" s="3">
-        <v>415000</v>
+        <v>474200</v>
       </c>
       <c r="F46" s="3">
-        <v>413000</v>
+        <v>406100</v>
       </c>
       <c r="G46" s="3">
-        <v>366000</v>
+        <v>405300</v>
       </c>
       <c r="H46" s="3">
-        <v>439500</v>
+        <v>403300</v>
       </c>
       <c r="I46" s="3">
+        <v>357400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>429200</v>
+      </c>
+      <c r="K46" s="3">
         <v>452600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>488000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>554300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>599000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>537200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>667900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>653400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>647800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73000</v>
+        <v>69800</v>
       </c>
       <c r="E47" s="3">
-        <v>73300</v>
+        <v>71200</v>
       </c>
       <c r="F47" s="3">
-        <v>76200</v>
+        <v>71200</v>
       </c>
       <c r="G47" s="3">
-        <v>75900</v>
+        <v>71500</v>
       </c>
       <c r="H47" s="3">
-        <v>73300</v>
+        <v>74400</v>
       </c>
       <c r="I47" s="3">
+        <v>74100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K47" s="3">
         <v>68600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>68900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>64000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>62900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>67600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>79900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>93000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>593600</v>
+        <v>575100</v>
       </c>
       <c r="E48" s="3">
-        <v>589200</v>
+        <v>573400</v>
       </c>
       <c r="F48" s="3">
-        <v>583700</v>
+        <v>579700</v>
       </c>
       <c r="G48" s="3">
-        <v>353400</v>
+        <v>575400</v>
       </c>
       <c r="H48" s="3">
-        <v>337700</v>
+        <v>570000</v>
       </c>
       <c r="I48" s="3">
+        <v>345100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>329700</v>
+      </c>
+      <c r="K48" s="3">
         <v>340000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>343500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>325600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>311200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>310400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>323500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>337200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>278400</v>
+        <v>266200</v>
       </c>
       <c r="E49" s="3">
-        <v>284300</v>
+        <v>269300</v>
       </c>
       <c r="F49" s="3">
-        <v>293000</v>
+        <v>271900</v>
       </c>
       <c r="G49" s="3">
-        <v>298800</v>
+        <v>277600</v>
       </c>
       <c r="H49" s="3">
-        <v>304400</v>
+        <v>286100</v>
       </c>
       <c r="I49" s="3">
+        <v>291800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>297200</v>
+      </c>
+      <c r="K49" s="3">
         <v>310200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>316600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>304600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>309800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>308500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>322900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>335200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>343300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42000</v>
+        <v>39900</v>
       </c>
       <c r="E52" s="3">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="F52" s="3">
-        <v>38500</v>
+        <v>41000</v>
       </c>
       <c r="G52" s="3">
-        <v>66200</v>
+        <v>39000</v>
       </c>
       <c r="H52" s="3">
-        <v>63900</v>
+        <v>37600</v>
       </c>
       <c r="I52" s="3">
+        <v>64700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K52" s="3">
         <v>61600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>61000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>53200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>41400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>43000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>36000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>33000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1402900</v>
+        <v>1497100</v>
       </c>
       <c r="E54" s="3">
-        <v>1401700</v>
+        <v>1429200</v>
       </c>
       <c r="F54" s="3">
-        <v>1404300</v>
+        <v>1369900</v>
       </c>
       <c r="G54" s="3">
-        <v>1160400</v>
+        <v>1368800</v>
       </c>
       <c r="H54" s="3">
-        <v>1218700</v>
+        <v>1371400</v>
       </c>
       <c r="I54" s="3">
+        <v>1133100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1190100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1233000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1278000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1301700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1324300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1266700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1430200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1451700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1467600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,140 +2878,160 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>198500</v>
+        <v>190100</v>
       </c>
       <c r="E57" s="3">
-        <v>197600</v>
+        <v>204100</v>
       </c>
       <c r="F57" s="3">
-        <v>211000</v>
+        <v>193800</v>
       </c>
       <c r="G57" s="3">
-        <v>207500</v>
+        <v>192900</v>
       </c>
       <c r="H57" s="3">
         <v>206000</v>
       </c>
       <c r="I57" s="3">
+        <v>202600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K57" s="3">
         <v>203100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>219500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>217100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>193700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>177400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>184100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>190200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>133700</v>
+        <v>141900</v>
       </c>
       <c r="E58" s="3">
-        <v>133100</v>
+        <v>141900</v>
       </c>
       <c r="F58" s="3">
-        <v>88100</v>
+        <v>130500</v>
       </c>
       <c r="G58" s="3">
-        <v>47300</v>
+        <v>130000</v>
       </c>
       <c r="H58" s="3">
-        <v>108300</v>
+        <v>86100</v>
       </c>
       <c r="I58" s="3">
+        <v>46200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K58" s="3">
         <v>104500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>121700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>194500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>153700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>192900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>148300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>139100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>134600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81400</v>
+        <v>81500</v>
       </c>
       <c r="E59" s="3">
-        <v>77600</v>
+        <v>78400</v>
       </c>
       <c r="F59" s="3">
-        <v>80000</v>
+        <v>79500</v>
       </c>
       <c r="G59" s="3">
-        <v>80800</v>
+        <v>75800</v>
       </c>
       <c r="H59" s="3">
-        <v>84600</v>
+        <v>78100</v>
       </c>
       <c r="I59" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K59" s="3">
         <v>88700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>91100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>88000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>86400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>85300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>95500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>119600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,131 +3039,149 @@
         <v>413500</v>
       </c>
       <c r="E60" s="3">
-        <v>408300</v>
+        <v>424400</v>
       </c>
       <c r="F60" s="3">
-        <v>379100</v>
+        <v>403800</v>
       </c>
       <c r="G60" s="3">
-        <v>335600</v>
+        <v>398700</v>
       </c>
       <c r="H60" s="3">
-        <v>398900</v>
+        <v>370200</v>
       </c>
       <c r="I60" s="3">
+        <v>327700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>389600</v>
+      </c>
+      <c r="K60" s="3">
         <v>396300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>432200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>499700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>433700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>455500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>427900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>448900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>449400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>519200</v>
+        <v>539800</v>
       </c>
       <c r="E61" s="3">
-        <v>513600</v>
+        <v>541200</v>
       </c>
       <c r="F61" s="3">
-        <v>566200</v>
+        <v>507000</v>
       </c>
       <c r="G61" s="3">
-        <v>351400</v>
+        <v>501600</v>
       </c>
       <c r="H61" s="3">
-        <v>344100</v>
+        <v>552900</v>
       </c>
       <c r="I61" s="3">
+        <v>343100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>336000</v>
+      </c>
+      <c r="K61" s="3">
         <v>347900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>351700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>336000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>411100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>352900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>600800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>613400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>677900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59500</v>
+        <v>56700</v>
       </c>
       <c r="E62" s="3">
-        <v>72700</v>
+        <v>59800</v>
       </c>
       <c r="F62" s="3">
-        <v>53100</v>
+        <v>58100</v>
       </c>
       <c r="G62" s="3">
-        <v>63000</v>
+        <v>71000</v>
       </c>
       <c r="H62" s="3">
-        <v>66800</v>
+        <v>51900</v>
       </c>
       <c r="I62" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K62" s="3">
         <v>69200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>71800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>70400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>70900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>72800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>75700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>79100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>992300</v>
+        <v>1010000</v>
       </c>
       <c r="E66" s="3">
-        <v>994600</v>
+        <v>1025400</v>
       </c>
       <c r="F66" s="3">
-        <v>998400</v>
+        <v>969000</v>
       </c>
       <c r="G66" s="3">
-        <v>750000</v>
+        <v>971200</v>
       </c>
       <c r="H66" s="3">
-        <v>810100</v>
+        <v>975000</v>
       </c>
       <c r="I66" s="3">
+        <v>732400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>791100</v>
+      </c>
+      <c r="K66" s="3">
         <v>813400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>855700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>906100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>915700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>881200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1104500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1141300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1156100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>165500</v>
+        <v>168700</v>
       </c>
       <c r="E72" s="3">
-        <v>162000</v>
+        <v>164200</v>
       </c>
       <c r="F72" s="3">
-        <v>159900</v>
+        <v>161600</v>
       </c>
       <c r="G72" s="3">
-        <v>164300</v>
+        <v>158200</v>
       </c>
       <c r="H72" s="3">
-        <v>157300</v>
+        <v>156200</v>
       </c>
       <c r="I72" s="3">
+        <v>160400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>153600</v>
+      </c>
+      <c r="K72" s="3">
         <v>148800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>147100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>135500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>148400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>125300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>115400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>100000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>410600</v>
+        <v>487000</v>
       </c>
       <c r="E76" s="3">
-        <v>407100</v>
+        <v>403800</v>
       </c>
       <c r="F76" s="3">
-        <v>405900</v>
+        <v>401000</v>
       </c>
       <c r="G76" s="3">
-        <v>410300</v>
+        <v>397600</v>
       </c>
       <c r="H76" s="3">
+        <v>396400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>400700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>399000</v>
+      </c>
+      <c r="K76" s="3">
+        <v>419700</v>
+      </c>
+      <c r="L76" s="3">
+        <v>422300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>395600</v>
+      </c>
+      <c r="N76" s="3">
         <v>408600</v>
       </c>
-      <c r="I76" s="3">
-        <v>419700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>422300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>395600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>408600</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>385400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>325700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>310300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>7600</v>
-      </c>
       <c r="I81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>12700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>17900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54900</v>
+        <v>47600</v>
       </c>
       <c r="E83" s="3">
-        <v>52800</v>
+        <v>50400</v>
       </c>
       <c r="F83" s="3">
-        <v>51700</v>
+        <v>53600</v>
       </c>
       <c r="G83" s="3">
-        <v>40600</v>
+        <v>51600</v>
       </c>
       <c r="H83" s="3">
-        <v>40600</v>
+        <v>50400</v>
       </c>
       <c r="I83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K83" s="3">
         <v>39400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>38500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>38900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>37000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>36100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>37400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>38500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>67100</v>
+        <v>58100</v>
       </c>
       <c r="E89" s="3">
-        <v>63000</v>
+        <v>50700</v>
       </c>
       <c r="F89" s="3">
-        <v>62200</v>
+        <v>65500</v>
       </c>
       <c r="G89" s="3">
-        <v>35300</v>
+        <v>61600</v>
       </c>
       <c r="H89" s="3">
-        <v>54900</v>
+        <v>60700</v>
       </c>
       <c r="I89" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K89" s="3">
         <v>46400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>45800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>48600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>92400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>70400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>57800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>87400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38200</v>
+        <v>-31300</v>
       </c>
       <c r="E91" s="3">
-        <v>-30600</v>
+        <v>-23900</v>
       </c>
       <c r="F91" s="3">
-        <v>-41400</v>
+        <v>-37300</v>
       </c>
       <c r="G91" s="3">
-        <v>-29800</v>
+        <v>-29900</v>
       </c>
       <c r="H91" s="3">
-        <v>-21600</v>
+        <v>-40500</v>
       </c>
       <c r="I91" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-28600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-16600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-42200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-13100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26300</v>
+        <v>-111700</v>
       </c>
       <c r="E94" s="3">
-        <v>-23300</v>
+        <v>-149000</v>
       </c>
       <c r="F94" s="3">
-        <v>-142400</v>
+        <v>-25600</v>
       </c>
       <c r="G94" s="3">
-        <v>43200</v>
+        <v>-22800</v>
       </c>
       <c r="H94" s="3">
-        <v>-34400</v>
+        <v>-139100</v>
       </c>
       <c r="I94" s="3">
+        <v>42200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-83500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-31200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-78100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>52400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>37400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-138500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16300</v>
+        <v>65800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1200</v>
+        <v>37900</v>
       </c>
       <c r="F100" s="3">
-        <v>44900</v>
+        <v>-16000</v>
       </c>
       <c r="G100" s="3">
-        <v>-62500</v>
+        <v>-1100</v>
       </c>
       <c r="H100" s="3">
-        <v>-21900</v>
+        <v>43900</v>
       </c>
       <c r="I100" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-29500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-97800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-56800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>16800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-159500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-67600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24500</v>
+        <v>12300</v>
       </c>
       <c r="E102" s="3">
-        <v>38500</v>
+        <v>-60400</v>
       </c>
       <c r="F102" s="3">
-        <v>-35300</v>
+        <v>23900</v>
       </c>
       <c r="G102" s="3">
-        <v>16100</v>
+        <v>37600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1500</v>
+        <v>-34500</v>
       </c>
       <c r="I102" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-10800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-135400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-39500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>31200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-33100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>84100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-118700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>62800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>230000</v>
+        <v>227700</v>
       </c>
       <c r="E8" s="3">
-        <v>237700</v>
+        <v>237400</v>
       </c>
       <c r="F8" s="3">
-        <v>235100</v>
+        <v>245400</v>
       </c>
       <c r="G8" s="3">
-        <v>222600</v>
+        <v>242700</v>
       </c>
       <c r="H8" s="3">
-        <v>226300</v>
+        <v>229800</v>
       </c>
       <c r="I8" s="3">
-        <v>232000</v>
+        <v>233600</v>
       </c>
       <c r="J8" s="3">
+        <v>239500</v>
+      </c>
+      <c r="K8" s="3">
         <v>234300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>232600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>241100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>230100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>227900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>222100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>224300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>237200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>186700</v>
+        <v>192100</v>
       </c>
       <c r="E9" s="3">
-        <v>197500</v>
+        <v>192700</v>
       </c>
       <c r="F9" s="3">
-        <v>195800</v>
+        <v>203900</v>
       </c>
       <c r="G9" s="3">
-        <v>185200</v>
+        <v>202100</v>
       </c>
       <c r="H9" s="3">
+        <v>191200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>199200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K9" s="3">
+        <v>187200</v>
+      </c>
+      <c r="L9" s="3">
         <v>192900</v>
       </c>
-      <c r="I9" s="3">
-        <v>197800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>187200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>192900</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>196200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>172400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>175700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>182700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>197200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43300</v>
+        <v>35600</v>
       </c>
       <c r="E10" s="3">
-        <v>40200</v>
+        <v>44700</v>
       </c>
       <c r="F10" s="3">
-        <v>39300</v>
+        <v>41500</v>
       </c>
       <c r="G10" s="3">
-        <v>37300</v>
+        <v>40600</v>
       </c>
       <c r="H10" s="3">
-        <v>33300</v>
+        <v>38500</v>
       </c>
       <c r="I10" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="J10" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K10" s="3">
         <v>47000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>46400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>219700</v>
+        <v>221800</v>
       </c>
       <c r="E17" s="3">
-        <v>229100</v>
+        <v>226800</v>
       </c>
       <c r="F17" s="3">
-        <v>227700</v>
+        <v>236600</v>
       </c>
       <c r="G17" s="3">
-        <v>216300</v>
+        <v>235100</v>
       </c>
       <c r="H17" s="3">
-        <v>223700</v>
+        <v>223300</v>
       </c>
       <c r="I17" s="3">
-        <v>228000</v>
+        <v>231000</v>
       </c>
       <c r="J17" s="3">
+        <v>235400</v>
+      </c>
+      <c r="K17" s="3">
         <v>220600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>226200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>231700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>230100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>202500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>189500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>195000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>227100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10300</v>
+        <v>5900</v>
       </c>
       <c r="E18" s="3">
-        <v>8500</v>
+        <v>10600</v>
       </c>
       <c r="F18" s="3">
-        <v>7400</v>
+        <v>8800</v>
       </c>
       <c r="G18" s="3">
-        <v>6300</v>
+        <v>7600</v>
       </c>
       <c r="H18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I18" s="3">
         <v>2600</v>
       </c>
-      <c r="I18" s="3">
-        <v>4000</v>
-      </c>
       <c r="J18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K18" s="3">
         <v>13700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>25400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5400</v>
+        <v>-3800</v>
       </c>
       <c r="E20" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="F20" s="3">
-        <v>-5100</v>
+        <v>-5900</v>
       </c>
       <c r="G20" s="3">
-        <v>-4600</v>
+        <v>-5300</v>
       </c>
       <c r="H20" s="3">
-        <v>-4000</v>
+        <v>-4700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3400</v>
+        <v>-4100</v>
       </c>
       <c r="J20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-6400</v>
       </c>
       <c r="Q20" s="3">
         <v>-6400</v>
       </c>
       <c r="R20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>52400</v>
       </c>
       <c r="E21" s="3">
-        <v>53300</v>
+        <v>54100</v>
       </c>
       <c r="F21" s="3">
-        <v>55900</v>
+        <v>55000</v>
       </c>
       <c r="G21" s="3">
-        <v>53300</v>
+        <v>57700</v>
       </c>
       <c r="H21" s="3">
-        <v>49000</v>
+        <v>55000</v>
       </c>
       <c r="I21" s="3">
-        <v>40200</v>
+        <v>50600</v>
       </c>
       <c r="J21" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K21" s="3">
         <v>50400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>58200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>53800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>60300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4800</v>
+        <v>2100</v>
       </c>
       <c r="E23" s="3">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="F23" s="3">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="G23" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="H23" s="3">
-        <v>-1400</v>
+        <v>1800</v>
       </c>
       <c r="I23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
-        <v>900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>5000</v>
       </c>
       <c r="P24" s="3">
         <v>5000</v>
       </c>
       <c r="Q24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R24" s="3">
         <v>-2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E26" s="3">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="F26" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
-        <v>5400</v>
-      </c>
       <c r="J26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E27" s="3">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="F27" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
-        <v>5400</v>
-      </c>
       <c r="J27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="E32" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F32" s="3">
-        <v>5100</v>
+        <v>5900</v>
       </c>
       <c r="G32" s="3">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="H32" s="3">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="I32" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="J32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>6400</v>
       </c>
       <c r="Q32" s="3">
         <v>6400</v>
       </c>
       <c r="R32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="S32" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E33" s="3">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="F33" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
-        <v>5400</v>
-      </c>
       <c r="J33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E35" s="3">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="F35" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
-        <v>5400</v>
-      </c>
       <c r="J35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97500</v>
+        <v>120300</v>
       </c>
       <c r="E41" s="3">
-        <v>85200</v>
+        <v>100600</v>
       </c>
       <c r="F41" s="3">
-        <v>145600</v>
+        <v>88000</v>
       </c>
       <c r="G41" s="3">
-        <v>121700</v>
+        <v>150300</v>
       </c>
       <c r="H41" s="3">
-        <v>84100</v>
+        <v>125600</v>
       </c>
       <c r="I41" s="3">
-        <v>118600</v>
+        <v>86800</v>
       </c>
       <c r="J41" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K41" s="3">
         <v>102900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>106800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>239200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>278700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>247500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>284100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>318700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>226000</v>
+        <v>178600</v>
       </c>
       <c r="E42" s="3">
-        <v>157300</v>
+        <v>233300</v>
       </c>
       <c r="F42" s="3">
-        <v>44500</v>
+        <v>162400</v>
       </c>
       <c r="G42" s="3">
-        <v>68700</v>
+        <v>45900</v>
       </c>
       <c r="H42" s="3">
-        <v>86400</v>
-      </c>
-      <c r="I42" s="3" t="s">
+        <v>70900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>89100</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>82900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>84900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>87600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>41400</v>
       </c>
       <c r="N42" s="3">
         <v>41400</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3">
+        <v>41400</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>69800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>126300</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>174400</v>
+        <v>175100</v>
       </c>
       <c r="E43" s="3">
-        <v>188900</v>
+        <v>180100</v>
       </c>
       <c r="F43" s="3">
-        <v>180400</v>
+        <v>195100</v>
       </c>
       <c r="G43" s="3">
-        <v>179000</v>
+        <v>186200</v>
       </c>
       <c r="H43" s="3">
-        <v>196900</v>
+        <v>184800</v>
       </c>
       <c r="I43" s="3">
-        <v>196400</v>
+        <v>203300</v>
       </c>
       <c r="J43" s="3">
+        <v>202700</v>
+      </c>
+      <c r="K43" s="3">
         <v>207500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>226200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>239300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>236200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>243100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>253000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>274000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>292500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40500</v>
+        <v>38800</v>
       </c>
       <c r="E44" s="3">
-        <v>35300</v>
+        <v>41800</v>
       </c>
       <c r="F44" s="3">
-        <v>28500</v>
+        <v>36500</v>
       </c>
       <c r="G44" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="H44" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="I44" s="3">
-        <v>27900</v>
+        <v>29400</v>
       </c>
       <c r="J44" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K44" s="3">
         <v>22800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>25700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>24800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="E45" s="3">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
+        <v>7600</v>
       </c>
       <c r="G45" s="3">
         <v>7400</v>
       </c>
       <c r="H45" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="I45" s="3">
-        <v>14500</v>
+        <v>7600</v>
       </c>
       <c r="J45" s="3">
-        <v>13100</v>
+        <v>15000</v>
       </c>
       <c r="K45" s="3">
         <v>13100</v>
       </c>
       <c r="L45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="M45" s="3">
         <v>12300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>546000</v>
+        <v>521100</v>
       </c>
       <c r="E46" s="3">
-        <v>474200</v>
+        <v>563700</v>
       </c>
       <c r="F46" s="3">
-        <v>406100</v>
+        <v>489600</v>
       </c>
       <c r="G46" s="3">
-        <v>405300</v>
+        <v>419300</v>
       </c>
       <c r="H46" s="3">
-        <v>403300</v>
+        <v>418400</v>
       </c>
       <c r="I46" s="3">
-        <v>357400</v>
+        <v>416300</v>
       </c>
       <c r="J46" s="3">
+        <v>369000</v>
+      </c>
+      <c r="K46" s="3">
         <v>429200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>452600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>488000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>554300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>599000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>537200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>667900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>653400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>647800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69800</v>
+        <v>67700</v>
       </c>
       <c r="E47" s="3">
-        <v>71200</v>
+        <v>72100</v>
       </c>
       <c r="F47" s="3">
-        <v>71200</v>
+        <v>73600</v>
       </c>
       <c r="G47" s="3">
+        <v>73600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>73800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>76800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K47" s="3">
         <v>71500</v>
       </c>
-      <c r="H47" s="3">
-        <v>74400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>74100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>71500</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>68600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>68900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>64000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>62900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>67600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>93000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>575100</v>
+        <v>587600</v>
       </c>
       <c r="E48" s="3">
-        <v>573400</v>
+        <v>593700</v>
       </c>
       <c r="F48" s="3">
-        <v>579700</v>
+        <v>592000</v>
       </c>
       <c r="G48" s="3">
-        <v>575400</v>
+        <v>598400</v>
       </c>
       <c r="H48" s="3">
-        <v>570000</v>
+        <v>594000</v>
       </c>
       <c r="I48" s="3">
-        <v>345100</v>
+        <v>588400</v>
       </c>
       <c r="J48" s="3">
+        <v>356300</v>
+      </c>
+      <c r="K48" s="3">
         <v>329700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>340000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>343500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>325600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>311200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>310400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>323500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>337200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>266200</v>
+        <v>269200</v>
       </c>
       <c r="E49" s="3">
-        <v>269300</v>
+        <v>274800</v>
       </c>
       <c r="F49" s="3">
-        <v>271900</v>
+        <v>278000</v>
       </c>
       <c r="G49" s="3">
-        <v>277600</v>
+        <v>280700</v>
       </c>
       <c r="H49" s="3">
-        <v>286100</v>
+        <v>286600</v>
       </c>
       <c r="I49" s="3">
-        <v>291800</v>
+        <v>295400</v>
       </c>
       <c r="J49" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K49" s="3">
         <v>297200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>310200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>316600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>304600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>309800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>308500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>322900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>335200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>343300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39900</v>
+        <v>43800</v>
       </c>
       <c r="E52" s="3">
-        <v>41000</v>
+        <v>41200</v>
       </c>
       <c r="F52" s="3">
-        <v>41000</v>
+        <v>42400</v>
       </c>
       <c r="G52" s="3">
-        <v>39000</v>
+        <v>42400</v>
       </c>
       <c r="H52" s="3">
-        <v>37600</v>
+        <v>40300</v>
       </c>
       <c r="I52" s="3">
-        <v>64700</v>
+        <v>38800</v>
       </c>
       <c r="J52" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K52" s="3">
         <v>62400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1497100</v>
+        <v>1489300</v>
       </c>
       <c r="E54" s="3">
-        <v>1429200</v>
+        <v>1545500</v>
       </c>
       <c r="F54" s="3">
-        <v>1369900</v>
+        <v>1475500</v>
       </c>
       <c r="G54" s="3">
-        <v>1368800</v>
+        <v>1414300</v>
       </c>
       <c r="H54" s="3">
-        <v>1371400</v>
+        <v>1413100</v>
       </c>
       <c r="I54" s="3">
-        <v>1133100</v>
+        <v>1415800</v>
       </c>
       <c r="J54" s="3">
+        <v>1169800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1190100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1233000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1278000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1301700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1324300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1266700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1430200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1451700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1467600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>190100</v>
+        <v>195400</v>
       </c>
       <c r="E57" s="3">
-        <v>204100</v>
+        <v>196200</v>
       </c>
       <c r="F57" s="3">
-        <v>193800</v>
+        <v>210700</v>
       </c>
       <c r="G57" s="3">
-        <v>192900</v>
+        <v>200100</v>
       </c>
       <c r="H57" s="3">
-        <v>206000</v>
+        <v>199200</v>
       </c>
       <c r="I57" s="3">
-        <v>202600</v>
+        <v>212700</v>
       </c>
       <c r="J57" s="3">
+        <v>209200</v>
+      </c>
+      <c r="K57" s="3">
         <v>201200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>203100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>219500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>217100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>193700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>177400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>184100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>190200</v>
       </c>
       <c r="R57" s="3">
         <v>190200</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>190200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>141900</v>
+        <v>144200</v>
       </c>
       <c r="E58" s="3">
-        <v>141900</v>
+        <v>146500</v>
       </c>
       <c r="F58" s="3">
-        <v>130500</v>
+        <v>146500</v>
       </c>
       <c r="G58" s="3">
-        <v>130000</v>
+        <v>134800</v>
       </c>
       <c r="H58" s="3">
-        <v>86100</v>
+        <v>134200</v>
       </c>
       <c r="I58" s="3">
-        <v>46200</v>
+        <v>88900</v>
       </c>
       <c r="J58" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K58" s="3">
         <v>105700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>104500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>121700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>194500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>153700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>192900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>148300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>139100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>134600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>84100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>80900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>82100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>78300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>80600</v>
+      </c>
+      <c r="J59" s="3">
         <v>81500</v>
       </c>
-      <c r="E59" s="3">
-        <v>78400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>79500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>75800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>78100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>78900</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>82600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>86400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>85300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>95500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>119600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>413500</v>
+        <v>413400</v>
       </c>
       <c r="E60" s="3">
-        <v>424400</v>
+        <v>426900</v>
       </c>
       <c r="F60" s="3">
-        <v>403800</v>
+        <v>438100</v>
       </c>
       <c r="G60" s="3">
-        <v>398700</v>
+        <v>416900</v>
       </c>
       <c r="H60" s="3">
-        <v>370200</v>
+        <v>411600</v>
       </c>
       <c r="I60" s="3">
-        <v>327700</v>
+        <v>382200</v>
       </c>
       <c r="J60" s="3">
+        <v>338400</v>
+      </c>
+      <c r="K60" s="3">
         <v>389600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>396300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>432200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>499700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>433700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>455500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>427900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>448900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>449400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>539800</v>
+        <v>514900</v>
       </c>
       <c r="E61" s="3">
-        <v>541200</v>
+        <v>557300</v>
       </c>
       <c r="F61" s="3">
-        <v>507000</v>
+        <v>558700</v>
       </c>
       <c r="G61" s="3">
-        <v>501600</v>
+        <v>523400</v>
       </c>
       <c r="H61" s="3">
-        <v>552900</v>
+        <v>517800</v>
       </c>
       <c r="I61" s="3">
-        <v>343100</v>
+        <v>570800</v>
       </c>
       <c r="J61" s="3">
+        <v>354200</v>
+      </c>
+      <c r="K61" s="3">
         <v>336000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>347900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>351700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>336000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>411100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>352900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>613400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>677900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56700</v>
+        <v>56200</v>
       </c>
       <c r="E62" s="3">
-        <v>59800</v>
+        <v>58500</v>
       </c>
       <c r="F62" s="3">
-        <v>58100</v>
+        <v>61800</v>
       </c>
       <c r="G62" s="3">
-        <v>71000</v>
+        <v>60000</v>
       </c>
       <c r="H62" s="3">
-        <v>51900</v>
+        <v>73300</v>
       </c>
       <c r="I62" s="3">
-        <v>61600</v>
+        <v>53500</v>
       </c>
       <c r="J62" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K62" s="3">
         <v>65300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>79100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1010000</v>
+        <v>984500</v>
       </c>
       <c r="E66" s="3">
-        <v>1025400</v>
+        <v>1042700</v>
       </c>
       <c r="F66" s="3">
-        <v>969000</v>
+        <v>1058600</v>
       </c>
       <c r="G66" s="3">
-        <v>971200</v>
+        <v>1000300</v>
       </c>
       <c r="H66" s="3">
-        <v>975000</v>
+        <v>1002700</v>
       </c>
       <c r="I66" s="3">
-        <v>732400</v>
+        <v>1006500</v>
       </c>
       <c r="J66" s="3">
+        <v>756100</v>
+      </c>
+      <c r="K66" s="3">
         <v>791100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>813400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>855700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>906100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>915700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>881200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1104500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1141300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1156100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>168700</v>
+        <v>176200</v>
       </c>
       <c r="E72" s="3">
-        <v>164200</v>
+        <v>174200</v>
       </c>
       <c r="F72" s="3">
-        <v>161600</v>
+        <v>169500</v>
       </c>
       <c r="G72" s="3">
-        <v>158200</v>
+        <v>166800</v>
       </c>
       <c r="H72" s="3">
-        <v>156200</v>
+        <v>163300</v>
       </c>
       <c r="I72" s="3">
-        <v>160400</v>
+        <v>161200</v>
       </c>
       <c r="J72" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K72" s="3">
         <v>153600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>148800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>147100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>135500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>148400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>125300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>115400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>100000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>487000</v>
+        <v>504900</v>
       </c>
       <c r="E76" s="3">
-        <v>403800</v>
+        <v>502800</v>
       </c>
       <c r="F76" s="3">
-        <v>401000</v>
+        <v>416900</v>
       </c>
       <c r="G76" s="3">
-        <v>397600</v>
+        <v>414000</v>
       </c>
       <c r="H76" s="3">
-        <v>396400</v>
+        <v>410400</v>
       </c>
       <c r="I76" s="3">
-        <v>400700</v>
+        <v>409300</v>
       </c>
       <c r="J76" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K76" s="3">
         <v>399000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>419700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>422300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>395600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>408600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>385400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>325700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>310300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E81" s="3">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="F81" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
-        <v>5400</v>
-      </c>
       <c r="J81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47600</v>
+        <v>50300</v>
       </c>
       <c r="E83" s="3">
-        <v>50400</v>
+        <v>49100</v>
       </c>
       <c r="F83" s="3">
-        <v>53600</v>
+        <v>52100</v>
       </c>
       <c r="G83" s="3">
-        <v>51600</v>
+        <v>55300</v>
       </c>
       <c r="H83" s="3">
-        <v>50400</v>
+        <v>53300</v>
       </c>
       <c r="I83" s="3">
+        <v>52100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K83" s="3">
         <v>39600</v>
       </c>
-      <c r="J83" s="3">
-        <v>39600</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>58100</v>
+        <v>56800</v>
       </c>
       <c r="E89" s="3">
-        <v>50700</v>
+        <v>60000</v>
       </c>
       <c r="F89" s="3">
-        <v>65500</v>
+        <v>52400</v>
       </c>
       <c r="G89" s="3">
-        <v>61600</v>
+        <v>67700</v>
       </c>
       <c r="H89" s="3">
-        <v>60700</v>
+        <v>63600</v>
       </c>
       <c r="I89" s="3">
-        <v>34500</v>
+        <v>62700</v>
       </c>
       <c r="J89" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K89" s="3">
         <v>53600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>46400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>45800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>92400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>70400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31300</v>
+        <v>-24100</v>
       </c>
       <c r="E91" s="3">
-        <v>-23900</v>
+        <v>-32400</v>
       </c>
       <c r="F91" s="3">
-        <v>-37300</v>
+        <v>-24700</v>
       </c>
       <c r="G91" s="3">
-        <v>-29900</v>
+        <v>-38500</v>
       </c>
       <c r="H91" s="3">
-        <v>-40500</v>
+        <v>-30900</v>
       </c>
       <c r="I91" s="3">
-        <v>-29100</v>
+        <v>-41800</v>
       </c>
       <c r="J91" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-111700</v>
+        <v>20600</v>
       </c>
       <c r="E94" s="3">
-        <v>-149000</v>
+        <v>-115300</v>
       </c>
       <c r="F94" s="3">
-        <v>-25600</v>
+        <v>-153900</v>
       </c>
       <c r="G94" s="3">
-        <v>-22800</v>
+        <v>-26500</v>
       </c>
       <c r="H94" s="3">
-        <v>-139100</v>
+        <v>-23500</v>
       </c>
       <c r="I94" s="3">
-        <v>42200</v>
+        <v>-143600</v>
       </c>
       <c r="J94" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-33600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>52400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>37400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-138500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>65800</v>
+        <v>-57700</v>
       </c>
       <c r="E100" s="3">
-        <v>37900</v>
+        <v>68000</v>
       </c>
       <c r="F100" s="3">
-        <v>-16000</v>
+        <v>39100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1100</v>
+        <v>-16500</v>
       </c>
       <c r="H100" s="3">
-        <v>43900</v>
+        <v>-1200</v>
       </c>
       <c r="I100" s="3">
-        <v>-61000</v>
+        <v>45300</v>
       </c>
       <c r="J100" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-21400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-97800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-159500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-67600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12300</v>
+        <v>19700</v>
       </c>
       <c r="E102" s="3">
-        <v>-60400</v>
+        <v>12700</v>
       </c>
       <c r="F102" s="3">
-        <v>23900</v>
+        <v>-62400</v>
       </c>
       <c r="G102" s="3">
-        <v>37600</v>
+        <v>24700</v>
       </c>
       <c r="H102" s="3">
-        <v>-34500</v>
+        <v>38800</v>
       </c>
       <c r="I102" s="3">
-        <v>15700</v>
+        <v>-35600</v>
       </c>
       <c r="J102" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-135400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>84100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-118700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>62800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>227700</v>
+        <v>241200</v>
       </c>
       <c r="E8" s="3">
-        <v>237400</v>
+        <v>233400</v>
       </c>
       <c r="F8" s="3">
-        <v>245400</v>
+        <v>243300</v>
       </c>
       <c r="G8" s="3">
-        <v>242700</v>
+        <v>251500</v>
       </c>
       <c r="H8" s="3">
-        <v>229800</v>
+        <v>248800</v>
       </c>
       <c r="I8" s="3">
-        <v>233600</v>
+        <v>235500</v>
       </c>
       <c r="J8" s="3">
+        <v>239400</v>
+      </c>
+      <c r="K8" s="3">
         <v>239500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>234300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>232600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>241100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>230100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>227900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>222100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>224300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>229300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>237200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>192100</v>
+        <v>204100</v>
       </c>
       <c r="E9" s="3">
-        <v>192700</v>
+        <v>196900</v>
       </c>
       <c r="F9" s="3">
-        <v>203900</v>
+        <v>197500</v>
       </c>
       <c r="G9" s="3">
-        <v>202100</v>
+        <v>209000</v>
       </c>
       <c r="H9" s="3">
-        <v>191200</v>
+        <v>207200</v>
       </c>
       <c r="I9" s="3">
-        <v>199200</v>
+        <v>196000</v>
       </c>
       <c r="J9" s="3">
+        <v>204100</v>
+      </c>
+      <c r="K9" s="3">
         <v>204200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>187200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>192900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>196200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>172400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>175700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>182700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>197200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35600</v>
+        <v>37100</v>
       </c>
       <c r="E10" s="3">
-        <v>44700</v>
+        <v>36500</v>
       </c>
       <c r="F10" s="3">
-        <v>41500</v>
+        <v>45800</v>
       </c>
       <c r="G10" s="3">
-        <v>40600</v>
+        <v>42500</v>
       </c>
       <c r="H10" s="3">
-        <v>38500</v>
+        <v>41600</v>
       </c>
       <c r="I10" s="3">
-        <v>34400</v>
+        <v>39500</v>
       </c>
       <c r="J10" s="3">
         <v>35300</v>
       </c>
       <c r="K10" s="3">
+        <v>35300</v>
+      </c>
+      <c r="L10" s="3">
         <v>47000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>46400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>221800</v>
+        <v>235200</v>
       </c>
       <c r="E17" s="3">
-        <v>226800</v>
+        <v>227400</v>
       </c>
       <c r="F17" s="3">
-        <v>236600</v>
+        <v>232500</v>
       </c>
       <c r="G17" s="3">
-        <v>235100</v>
+        <v>242400</v>
       </c>
       <c r="H17" s="3">
-        <v>223300</v>
+        <v>240900</v>
       </c>
       <c r="I17" s="3">
-        <v>231000</v>
+        <v>228900</v>
       </c>
       <c r="J17" s="3">
+        <v>236700</v>
+      </c>
+      <c r="K17" s="3">
         <v>235400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>220600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>226200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>231700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>230100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>202500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>189500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>195000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>227100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E18" s="3">
-        <v>10600</v>
+        <v>6000</v>
       </c>
       <c r="F18" s="3">
-        <v>8800</v>
+        <v>10900</v>
       </c>
       <c r="G18" s="3">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="H18" s="3">
-        <v>6500</v>
+        <v>7800</v>
       </c>
       <c r="I18" s="3">
-        <v>2600</v>
+        <v>6600</v>
       </c>
       <c r="J18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>25400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="N20" s="3">
         <v>-5300</v>
       </c>
-      <c r="H20" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-6400</v>
       </c>
       <c r="R20" s="3">
         <v>-6400</v>
       </c>
       <c r="S20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="T20" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>52400</v>
+        <v>51000</v>
       </c>
       <c r="E21" s="3">
-        <v>54100</v>
+        <v>53700</v>
       </c>
       <c r="F21" s="3">
-        <v>55000</v>
+        <v>55500</v>
       </c>
       <c r="G21" s="3">
-        <v>57700</v>
+        <v>56400</v>
       </c>
       <c r="H21" s="3">
-        <v>55000</v>
+        <v>59100</v>
       </c>
       <c r="I21" s="3">
-        <v>50600</v>
+        <v>56400</v>
       </c>
       <c r="J21" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K21" s="3">
         <v>41500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>42600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>58200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>53800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>60300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>34400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
-        <v>5000</v>
-      </c>
       <c r="F23" s="3">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="G23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-24300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>5000</v>
       </c>
       <c r="Q24" s="3">
         <v>5000</v>
       </c>
       <c r="R24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S24" s="3">
         <v>-2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
-        <v>2900</v>
-      </c>
       <c r="F26" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G26" s="3">
         <v>2100</v>
       </c>
       <c r="H26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
-        <v>2900</v>
-      </c>
       <c r="F27" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="3">
         <v>2100</v>
       </c>
       <c r="H27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="N32" s="3">
         <v>5300</v>
       </c>
-      <c r="H32" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
+        <v>24300</v>
+      </c>
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>24300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>6400</v>
       </c>
       <c r="R32" s="3">
         <v>6400</v>
       </c>
       <c r="S32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="T32" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
-        <v>2900</v>
-      </c>
       <c r="F33" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G33" s="3">
         <v>2100</v>
       </c>
       <c r="H33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
-        <v>2900</v>
-      </c>
       <c r="F35" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="3">
         <v>2100</v>
       </c>
       <c r="H35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120300</v>
+        <v>109800</v>
       </c>
       <c r="E41" s="3">
-        <v>100600</v>
+        <v>123300</v>
       </c>
       <c r="F41" s="3">
-        <v>88000</v>
+        <v>103100</v>
       </c>
       <c r="G41" s="3">
-        <v>150300</v>
+        <v>90200</v>
       </c>
       <c r="H41" s="3">
-        <v>125600</v>
+        <v>154100</v>
       </c>
       <c r="I41" s="3">
-        <v>86800</v>
+        <v>128800</v>
       </c>
       <c r="J41" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K41" s="3">
         <v>122400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>102900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>106800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>239200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>278700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>247500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>284100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>318700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>178600</v>
+        <v>198400</v>
       </c>
       <c r="E42" s="3">
-        <v>233300</v>
+        <v>183000</v>
       </c>
       <c r="F42" s="3">
-        <v>162400</v>
+        <v>239100</v>
       </c>
       <c r="G42" s="3">
-        <v>45900</v>
+        <v>166400</v>
       </c>
       <c r="H42" s="3">
-        <v>70900</v>
+        <v>47000</v>
       </c>
       <c r="I42" s="3">
-        <v>89100</v>
-      </c>
-      <c r="J42" s="3" t="s">
+        <v>72700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>91400</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>82900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>84900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>87600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>41400</v>
       </c>
       <c r="O42" s="3">
         <v>41400</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="3">
+        <v>41400</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>69800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>126300</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>175100</v>
+        <v>185700</v>
       </c>
       <c r="E43" s="3">
-        <v>180100</v>
+        <v>179400</v>
       </c>
       <c r="F43" s="3">
-        <v>195100</v>
+        <v>184500</v>
       </c>
       <c r="G43" s="3">
-        <v>186200</v>
+        <v>199900</v>
       </c>
       <c r="H43" s="3">
-        <v>184800</v>
+        <v>190900</v>
       </c>
       <c r="I43" s="3">
-        <v>203300</v>
+        <v>189400</v>
       </c>
       <c r="J43" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K43" s="3">
         <v>202700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>207500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>226200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>239300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>236200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>243100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>253000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>274000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>292500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38800</v>
+        <v>32900</v>
       </c>
       <c r="E44" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="F44" s="3">
-        <v>36500</v>
+        <v>42800</v>
       </c>
       <c r="G44" s="3">
-        <v>29400</v>
+        <v>37400</v>
       </c>
       <c r="H44" s="3">
-        <v>29400</v>
+        <v>30200</v>
       </c>
       <c r="I44" s="3">
-        <v>29400</v>
+        <v>30200</v>
       </c>
       <c r="J44" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K44" s="3">
         <v>28800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>25700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="E45" s="3">
-        <v>7900</v>
+        <v>8400</v>
       </c>
       <c r="F45" s="3">
-        <v>7600</v>
+        <v>8100</v>
       </c>
       <c r="G45" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H45" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I45" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="J45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K45" s="3">
         <v>15000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>13100</v>
       </c>
       <c r="L45" s="3">
         <v>13100</v>
       </c>
       <c r="M45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="N45" s="3">
         <v>12300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>521100</v>
+        <v>535200</v>
       </c>
       <c r="E46" s="3">
-        <v>563700</v>
+        <v>534000</v>
       </c>
       <c r="F46" s="3">
-        <v>489600</v>
+        <v>577700</v>
       </c>
       <c r="G46" s="3">
-        <v>419300</v>
+        <v>501700</v>
       </c>
       <c r="H46" s="3">
-        <v>418400</v>
+        <v>429700</v>
       </c>
       <c r="I46" s="3">
-        <v>416300</v>
+        <v>428800</v>
       </c>
       <c r="J46" s="3">
+        <v>426700</v>
+      </c>
+      <c r="K46" s="3">
         <v>369000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>429200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>452600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>488000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>554300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>599000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>537200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>667900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>653400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>647800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>67700</v>
+        <v>70900</v>
       </c>
       <c r="E47" s="3">
-        <v>72100</v>
+        <v>69400</v>
       </c>
       <c r="F47" s="3">
-        <v>73600</v>
+        <v>73900</v>
       </c>
       <c r="G47" s="3">
-        <v>73600</v>
+        <v>75400</v>
       </c>
       <c r="H47" s="3">
-        <v>73800</v>
+        <v>75400</v>
       </c>
       <c r="I47" s="3">
-        <v>76800</v>
+        <v>75700</v>
       </c>
       <c r="J47" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K47" s="3">
         <v>76500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>68600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>68900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>64000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>62900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>67600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>93000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>587600</v>
+        <v>610300</v>
       </c>
       <c r="E48" s="3">
-        <v>593700</v>
+        <v>602200</v>
       </c>
       <c r="F48" s="3">
-        <v>592000</v>
+        <v>608500</v>
       </c>
       <c r="G48" s="3">
-        <v>598400</v>
+        <v>606700</v>
       </c>
       <c r="H48" s="3">
-        <v>594000</v>
+        <v>613300</v>
       </c>
       <c r="I48" s="3">
-        <v>588400</v>
+        <v>608800</v>
       </c>
       <c r="J48" s="3">
+        <v>603100</v>
+      </c>
+      <c r="K48" s="3">
         <v>356300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>329700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>340000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>343500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>325600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>311200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>310400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>323500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>337200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>269200</v>
+        <v>282800</v>
       </c>
       <c r="E49" s="3">
-        <v>274800</v>
+        <v>275900</v>
       </c>
       <c r="F49" s="3">
-        <v>278000</v>
+        <v>281600</v>
       </c>
       <c r="G49" s="3">
-        <v>280700</v>
+        <v>284900</v>
       </c>
       <c r="H49" s="3">
-        <v>286600</v>
+        <v>287700</v>
       </c>
       <c r="I49" s="3">
-        <v>295400</v>
+        <v>293700</v>
       </c>
       <c r="J49" s="3">
+        <v>302700</v>
+      </c>
+      <c r="K49" s="3">
         <v>301300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>297200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>310200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>316600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>304600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>309800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>308500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>322900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>335200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>343300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43800</v>
+        <v>46700</v>
       </c>
       <c r="E52" s="3">
-        <v>41200</v>
+        <v>44900</v>
       </c>
       <c r="F52" s="3">
-        <v>42400</v>
+        <v>42200</v>
       </c>
       <c r="G52" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="H52" s="3">
-        <v>40300</v>
+        <v>43400</v>
       </c>
       <c r="I52" s="3">
-        <v>38800</v>
+        <v>41300</v>
       </c>
       <c r="J52" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K52" s="3">
         <v>66800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1489300</v>
+        <v>1545900</v>
       </c>
       <c r="E54" s="3">
-        <v>1545500</v>
+        <v>1526300</v>
       </c>
       <c r="F54" s="3">
-        <v>1475500</v>
+        <v>1583900</v>
       </c>
       <c r="G54" s="3">
-        <v>1414300</v>
+        <v>1512200</v>
       </c>
       <c r="H54" s="3">
-        <v>1413100</v>
+        <v>1449500</v>
       </c>
       <c r="I54" s="3">
-        <v>1415800</v>
+        <v>1448200</v>
       </c>
       <c r="J54" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1169800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1190100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1233000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1278000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1301700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1324300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1266700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1430200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1451700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1467600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>195400</v>
+        <v>209000</v>
       </c>
       <c r="E57" s="3">
-        <v>196200</v>
+        <v>200200</v>
       </c>
       <c r="F57" s="3">
-        <v>210700</v>
+        <v>201100</v>
       </c>
       <c r="G57" s="3">
-        <v>200100</v>
+        <v>215900</v>
       </c>
       <c r="H57" s="3">
-        <v>199200</v>
+        <v>205000</v>
       </c>
       <c r="I57" s="3">
-        <v>212700</v>
+        <v>204100</v>
       </c>
       <c r="J57" s="3">
+        <v>218000</v>
+      </c>
+      <c r="K57" s="3">
         <v>209200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>201200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>203100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>219500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>217100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>193700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>177400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>184100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>190200</v>
       </c>
       <c r="S57" s="3">
         <v>190200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>190200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>144200</v>
+        <v>125700</v>
       </c>
       <c r="E58" s="3">
-        <v>146500</v>
+        <v>147700</v>
       </c>
       <c r="F58" s="3">
-        <v>146500</v>
+        <v>150200</v>
       </c>
       <c r="G58" s="3">
-        <v>134800</v>
+        <v>150200</v>
       </c>
       <c r="H58" s="3">
-        <v>134200</v>
+        <v>138100</v>
       </c>
       <c r="I58" s="3">
-        <v>88900</v>
+        <v>137500</v>
       </c>
       <c r="J58" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K58" s="3">
         <v>47700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>105700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>104500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>121700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>194500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>153700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>192900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>148300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>139100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>134600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>73800</v>
+        <v>79900</v>
       </c>
       <c r="E59" s="3">
+        <v>75700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>86200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>82900</v>
+      </c>
+      <c r="H59" s="3">
         <v>84100</v>
       </c>
-      <c r="F59" s="3">
-        <v>80900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>82100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>78300</v>
-      </c>
       <c r="I59" s="3">
-        <v>80600</v>
+        <v>80200</v>
       </c>
       <c r="J59" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K59" s="3">
         <v>81500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>82600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>88700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>86400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>85300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>95500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>119600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>413400</v>
+        <v>414600</v>
       </c>
       <c r="E60" s="3">
-        <v>426900</v>
+        <v>423600</v>
       </c>
       <c r="F60" s="3">
-        <v>438100</v>
+        <v>437500</v>
       </c>
       <c r="G60" s="3">
-        <v>416900</v>
+        <v>449000</v>
       </c>
       <c r="H60" s="3">
-        <v>411600</v>
+        <v>427300</v>
       </c>
       <c r="I60" s="3">
-        <v>382200</v>
+        <v>421800</v>
       </c>
       <c r="J60" s="3">
+        <v>391700</v>
+      </c>
+      <c r="K60" s="3">
         <v>338400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>389600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>396300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>432200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>499700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>433700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>455500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>427900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>448900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>449400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>514900</v>
+        <v>554200</v>
       </c>
       <c r="E61" s="3">
-        <v>557300</v>
+        <v>527700</v>
       </c>
       <c r="F61" s="3">
-        <v>558700</v>
+        <v>571100</v>
       </c>
       <c r="G61" s="3">
-        <v>523400</v>
+        <v>572600</v>
       </c>
       <c r="H61" s="3">
-        <v>517800</v>
+        <v>536400</v>
       </c>
       <c r="I61" s="3">
-        <v>570800</v>
+        <v>530700</v>
       </c>
       <c r="J61" s="3">
+        <v>585000</v>
+      </c>
+      <c r="K61" s="3">
         <v>354200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>336000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>347900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>351700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>336000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>411100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>352900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>613400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>677900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56200</v>
+        <v>60300</v>
       </c>
       <c r="E62" s="3">
-        <v>58500</v>
+        <v>57600</v>
       </c>
       <c r="F62" s="3">
-        <v>61800</v>
+        <v>60000</v>
       </c>
       <c r="G62" s="3">
-        <v>60000</v>
+        <v>63300</v>
       </c>
       <c r="H62" s="3">
-        <v>73300</v>
+        <v>61500</v>
       </c>
       <c r="I62" s="3">
-        <v>53500</v>
+        <v>75100</v>
       </c>
       <c r="J62" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K62" s="3">
         <v>63600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>65300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>69200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>75700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>79100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>984500</v>
+        <v>1029100</v>
       </c>
       <c r="E66" s="3">
-        <v>1042700</v>
+        <v>1008900</v>
       </c>
       <c r="F66" s="3">
-        <v>1058600</v>
+        <v>1068600</v>
       </c>
       <c r="G66" s="3">
-        <v>1000300</v>
+        <v>1084900</v>
       </c>
       <c r="H66" s="3">
-        <v>1002700</v>
+        <v>1025200</v>
       </c>
       <c r="I66" s="3">
-        <v>1006500</v>
+        <v>1027600</v>
       </c>
       <c r="J66" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="K66" s="3">
         <v>756100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>791100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>813400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>855700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>906100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>915700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>881200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1104500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1141300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1156100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>176200</v>
+        <v>180000</v>
       </c>
       <c r="E72" s="3">
-        <v>174200</v>
+        <v>180600</v>
       </c>
       <c r="F72" s="3">
-        <v>169500</v>
+        <v>178500</v>
       </c>
       <c r="G72" s="3">
-        <v>166800</v>
+        <v>173700</v>
       </c>
       <c r="H72" s="3">
-        <v>163300</v>
+        <v>171000</v>
       </c>
       <c r="I72" s="3">
-        <v>161200</v>
+        <v>167300</v>
       </c>
       <c r="J72" s="3">
+        <v>165200</v>
+      </c>
+      <c r="K72" s="3">
         <v>165600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>153600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>148800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>147100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>135500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>148400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>125300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>115400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>504900</v>
+        <v>516800</v>
       </c>
       <c r="E76" s="3">
-        <v>502800</v>
+        <v>517400</v>
       </c>
       <c r="F76" s="3">
-        <v>416900</v>
+        <v>515300</v>
       </c>
       <c r="G76" s="3">
-        <v>414000</v>
+        <v>427300</v>
       </c>
       <c r="H76" s="3">
-        <v>410400</v>
+        <v>424300</v>
       </c>
       <c r="I76" s="3">
-        <v>409300</v>
+        <v>420600</v>
       </c>
       <c r="J76" s="3">
+        <v>419400</v>
+      </c>
+      <c r="K76" s="3">
         <v>413700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>399000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>419700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>422300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>395600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>408600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>385400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>325700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>310300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
-        <v>2900</v>
-      </c>
       <c r="F81" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G81" s="3">
         <v>2100</v>
       </c>
       <c r="H81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50300</v>
+        <v>52200</v>
       </c>
       <c r="E83" s="3">
-        <v>49100</v>
+        <v>51600</v>
       </c>
       <c r="F83" s="3">
-        <v>52100</v>
+        <v>50400</v>
       </c>
       <c r="G83" s="3">
-        <v>55300</v>
+        <v>53400</v>
       </c>
       <c r="H83" s="3">
-        <v>53300</v>
+        <v>56700</v>
       </c>
       <c r="I83" s="3">
-        <v>52100</v>
+        <v>54600</v>
       </c>
       <c r="J83" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K83" s="3">
         <v>40900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>56800</v>
+        <v>62400</v>
       </c>
       <c r="E89" s="3">
-        <v>60000</v>
+        <v>58200</v>
       </c>
       <c r="F89" s="3">
-        <v>52400</v>
+        <v>61500</v>
       </c>
       <c r="G89" s="3">
-        <v>67700</v>
+        <v>53700</v>
       </c>
       <c r="H89" s="3">
-        <v>63600</v>
+        <v>69400</v>
       </c>
       <c r="I89" s="3">
-        <v>62700</v>
+        <v>65100</v>
       </c>
       <c r="J89" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K89" s="3">
         <v>35600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>46400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>92400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>70400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>57800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24100</v>
+        <v>-30500</v>
       </c>
       <c r="E91" s="3">
-        <v>-32400</v>
+        <v>-24700</v>
       </c>
       <c r="F91" s="3">
-        <v>-24700</v>
+        <v>-33200</v>
       </c>
       <c r="G91" s="3">
-        <v>-38500</v>
+        <v>-25300</v>
       </c>
       <c r="H91" s="3">
-        <v>-30900</v>
+        <v>-39500</v>
       </c>
       <c r="I91" s="3">
-        <v>-41800</v>
+        <v>-31700</v>
       </c>
       <c r="J91" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-30000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>20600</v>
+        <v>-59700</v>
       </c>
       <c r="E94" s="3">
-        <v>-115300</v>
+        <v>21100</v>
       </c>
       <c r="F94" s="3">
-        <v>-153900</v>
+        <v>-118200</v>
       </c>
       <c r="G94" s="3">
-        <v>-26500</v>
+        <v>-157700</v>
       </c>
       <c r="H94" s="3">
-        <v>-23500</v>
+        <v>-27100</v>
       </c>
       <c r="I94" s="3">
-        <v>-143600</v>
+        <v>-24100</v>
       </c>
       <c r="J94" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="K94" s="3">
         <v>43500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>52400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>37400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-138500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57700</v>
+        <v>-16300</v>
       </c>
       <c r="E100" s="3">
-        <v>68000</v>
+        <v>-59100</v>
       </c>
       <c r="F100" s="3">
-        <v>39100</v>
+        <v>69700</v>
       </c>
       <c r="G100" s="3">
-        <v>-16500</v>
+        <v>40100</v>
       </c>
       <c r="H100" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
-        <v>45300</v>
-      </c>
       <c r="J100" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-63000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-97800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-159500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-67600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19700</v>
+        <v>-13600</v>
       </c>
       <c r="E102" s="3">
-        <v>12700</v>
+        <v>20200</v>
       </c>
       <c r="F102" s="3">
-        <v>-62400</v>
+        <v>13000</v>
       </c>
       <c r="G102" s="3">
-        <v>24700</v>
+        <v>-63900</v>
       </c>
       <c r="H102" s="3">
-        <v>38800</v>
+        <v>25300</v>
       </c>
       <c r="I102" s="3">
-        <v>-35600</v>
+        <v>39800</v>
       </c>
       <c r="J102" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="K102" s="3">
         <v>16200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-135400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>84100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-118700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>62800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>241200</v>
+        <v>240600</v>
       </c>
       <c r="E8" s="3">
-        <v>233400</v>
+        <v>232800</v>
       </c>
       <c r="F8" s="3">
-        <v>243300</v>
+        <v>242700</v>
       </c>
       <c r="G8" s="3">
-        <v>251500</v>
+        <v>250800</v>
       </c>
       <c r="H8" s="3">
-        <v>248800</v>
+        <v>248100</v>
       </c>
       <c r="I8" s="3">
-        <v>235500</v>
+        <v>234900</v>
       </c>
       <c r="J8" s="3">
-        <v>239400</v>
+        <v>238800</v>
       </c>
       <c r="K8" s="3">
         <v>239500</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>204100</v>
+        <v>203600</v>
       </c>
       <c r="E9" s="3">
-        <v>196900</v>
+        <v>196400</v>
       </c>
       <c r="F9" s="3">
-        <v>197500</v>
+        <v>197000</v>
       </c>
       <c r="G9" s="3">
-        <v>209000</v>
+        <v>208400</v>
       </c>
       <c r="H9" s="3">
-        <v>207200</v>
+        <v>206600</v>
       </c>
       <c r="I9" s="3">
-        <v>196000</v>
+        <v>195500</v>
       </c>
       <c r="J9" s="3">
-        <v>204100</v>
+        <v>203600</v>
       </c>
       <c r="K9" s="3">
         <v>204200</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37100</v>
+        <v>37000</v>
       </c>
       <c r="E10" s="3">
-        <v>36500</v>
+        <v>36400</v>
       </c>
       <c r="F10" s="3">
-        <v>45800</v>
+        <v>45700</v>
       </c>
       <c r="G10" s="3">
-        <v>42500</v>
+        <v>42400</v>
       </c>
       <c r="H10" s="3">
-        <v>41600</v>
+        <v>41500</v>
       </c>
       <c r="I10" s="3">
-        <v>39500</v>
+        <v>39400</v>
       </c>
       <c r="J10" s="3">
-        <v>35300</v>
+        <v>35200</v>
       </c>
       <c r="K10" s="3">
         <v>35300</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235200</v>
+        <v>234600</v>
       </c>
       <c r="E17" s="3">
-        <v>227400</v>
+        <v>226800</v>
       </c>
       <c r="F17" s="3">
-        <v>232500</v>
+        <v>231900</v>
       </c>
       <c r="G17" s="3">
-        <v>242400</v>
+        <v>241800</v>
       </c>
       <c r="H17" s="3">
-        <v>240900</v>
+        <v>240300</v>
       </c>
       <c r="I17" s="3">
-        <v>228900</v>
+        <v>228300</v>
       </c>
       <c r="J17" s="3">
-        <v>236700</v>
+        <v>236100</v>
       </c>
       <c r="K17" s="3">
         <v>235400</v>
@@ -1247,7 +1247,7 @@
         <v>6000</v>
       </c>
       <c r="F18" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="G18" s="3">
         <v>9000</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>51000</v>
+        <v>50800</v>
       </c>
       <c r="E21" s="3">
-        <v>53700</v>
+        <v>53500</v>
       </c>
       <c r="F21" s="3">
-        <v>55500</v>
+        <v>55300</v>
       </c>
       <c r="G21" s="3">
-        <v>56400</v>
+        <v>56200</v>
       </c>
       <c r="H21" s="3">
-        <v>59100</v>
+        <v>58900</v>
       </c>
       <c r="I21" s="3">
-        <v>56400</v>
+        <v>56200</v>
       </c>
       <c r="J21" s="3">
-        <v>51900</v>
+        <v>51700</v>
       </c>
       <c r="K21" s="3">
         <v>41500</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>109800</v>
+        <v>109500</v>
       </c>
       <c r="E41" s="3">
-        <v>123300</v>
+        <v>123000</v>
       </c>
       <c r="F41" s="3">
-        <v>103100</v>
+        <v>102900</v>
       </c>
       <c r="G41" s="3">
-        <v>90200</v>
+        <v>89900</v>
       </c>
       <c r="H41" s="3">
-        <v>154100</v>
+        <v>153700</v>
       </c>
       <c r="I41" s="3">
-        <v>128800</v>
+        <v>128400</v>
       </c>
       <c r="J41" s="3">
-        <v>89000</v>
+        <v>88700</v>
       </c>
       <c r="K41" s="3">
         <v>122400</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>198400</v>
+        <v>197900</v>
       </c>
       <c r="E42" s="3">
-        <v>183000</v>
+        <v>182600</v>
       </c>
       <c r="F42" s="3">
-        <v>239100</v>
+        <v>238500</v>
       </c>
       <c r="G42" s="3">
-        <v>166400</v>
+        <v>166000</v>
       </c>
       <c r="H42" s="3">
-        <v>47000</v>
+        <v>46900</v>
       </c>
       <c r="I42" s="3">
-        <v>72700</v>
+        <v>72500</v>
       </c>
       <c r="J42" s="3">
-        <v>91400</v>
+        <v>91100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>185700</v>
+        <v>185300</v>
       </c>
       <c r="E43" s="3">
-        <v>179400</v>
+        <v>179000</v>
       </c>
       <c r="F43" s="3">
-        <v>184500</v>
+        <v>184100</v>
       </c>
       <c r="G43" s="3">
-        <v>199900</v>
+        <v>199400</v>
       </c>
       <c r="H43" s="3">
-        <v>190900</v>
+        <v>190400</v>
       </c>
       <c r="I43" s="3">
-        <v>189400</v>
+        <v>188900</v>
       </c>
       <c r="J43" s="3">
-        <v>208400</v>
+        <v>207800</v>
       </c>
       <c r="K43" s="3">
         <v>202700</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32900</v>
+        <v>32800</v>
       </c>
       <c r="E44" s="3">
-        <v>39800</v>
+        <v>39700</v>
       </c>
       <c r="F44" s="3">
-        <v>42800</v>
+        <v>42700</v>
       </c>
       <c r="G44" s="3">
-        <v>37400</v>
+        <v>37300</v>
       </c>
       <c r="H44" s="3">
-        <v>30200</v>
+        <v>30100</v>
       </c>
       <c r="I44" s="3">
-        <v>30200</v>
+        <v>30100</v>
       </c>
       <c r="J44" s="3">
-        <v>30200</v>
+        <v>30100</v>
       </c>
       <c r="K44" s="3">
         <v>28800</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>535200</v>
+        <v>533800</v>
       </c>
       <c r="E46" s="3">
-        <v>534000</v>
+        <v>532600</v>
       </c>
       <c r="F46" s="3">
-        <v>577700</v>
+        <v>576300</v>
       </c>
       <c r="G46" s="3">
-        <v>501700</v>
+        <v>500500</v>
       </c>
       <c r="H46" s="3">
-        <v>429700</v>
+        <v>428600</v>
       </c>
       <c r="I46" s="3">
-        <v>428800</v>
+        <v>427700</v>
       </c>
       <c r="J46" s="3">
-        <v>426700</v>
+        <v>425600</v>
       </c>
       <c r="K46" s="3">
         <v>369000</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70900</v>
+        <v>70700</v>
       </c>
       <c r="E47" s="3">
-        <v>69400</v>
+        <v>69200</v>
       </c>
       <c r="F47" s="3">
-        <v>73900</v>
+        <v>73700</v>
       </c>
       <c r="G47" s="3">
-        <v>75400</v>
+        <v>75200</v>
       </c>
       <c r="H47" s="3">
-        <v>75400</v>
+        <v>75200</v>
       </c>
       <c r="I47" s="3">
-        <v>75700</v>
+        <v>75500</v>
       </c>
       <c r="J47" s="3">
-        <v>78700</v>
+        <v>78500</v>
       </c>
       <c r="K47" s="3">
         <v>76500</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>610300</v>
+        <v>608700</v>
       </c>
       <c r="E48" s="3">
-        <v>602200</v>
+        <v>600600</v>
       </c>
       <c r="F48" s="3">
-        <v>608500</v>
+        <v>606900</v>
       </c>
       <c r="G48" s="3">
-        <v>606700</v>
+        <v>605100</v>
       </c>
       <c r="H48" s="3">
-        <v>613300</v>
+        <v>611700</v>
       </c>
       <c r="I48" s="3">
-        <v>608800</v>
+        <v>607200</v>
       </c>
       <c r="J48" s="3">
-        <v>603100</v>
+        <v>601500</v>
       </c>
       <c r="K48" s="3">
         <v>356300</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>282800</v>
+        <v>282100</v>
       </c>
       <c r="E49" s="3">
-        <v>275900</v>
+        <v>275200</v>
       </c>
       <c r="F49" s="3">
-        <v>281600</v>
+        <v>280900</v>
       </c>
       <c r="G49" s="3">
-        <v>284900</v>
+        <v>284200</v>
       </c>
       <c r="H49" s="3">
-        <v>287700</v>
+        <v>286900</v>
       </c>
       <c r="I49" s="3">
-        <v>293700</v>
+        <v>292900</v>
       </c>
       <c r="J49" s="3">
-        <v>302700</v>
+        <v>302000</v>
       </c>
       <c r="K49" s="3">
         <v>301300</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46700</v>
+        <v>46600</v>
       </c>
       <c r="E52" s="3">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="F52" s="3">
-        <v>42200</v>
+        <v>42100</v>
       </c>
       <c r="G52" s="3">
-        <v>43400</v>
+        <v>43300</v>
       </c>
       <c r="H52" s="3">
-        <v>43400</v>
+        <v>43300</v>
       </c>
       <c r="I52" s="3">
-        <v>41300</v>
+        <v>41200</v>
       </c>
       <c r="J52" s="3">
-        <v>39800</v>
+        <v>39700</v>
       </c>
       <c r="K52" s="3">
         <v>66800</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1545900</v>
+        <v>1542000</v>
       </c>
       <c r="E54" s="3">
-        <v>1526300</v>
+        <v>1522400</v>
       </c>
       <c r="F54" s="3">
-        <v>1583900</v>
+        <v>1579900</v>
       </c>
       <c r="G54" s="3">
-        <v>1512200</v>
+        <v>1508300</v>
       </c>
       <c r="H54" s="3">
-        <v>1449500</v>
+        <v>1445800</v>
       </c>
       <c r="I54" s="3">
-        <v>1448200</v>
+        <v>1444600</v>
       </c>
       <c r="J54" s="3">
-        <v>1451000</v>
+        <v>1447300</v>
       </c>
       <c r="K54" s="3">
         <v>1169800</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>209000</v>
+        <v>208400</v>
       </c>
       <c r="E57" s="3">
-        <v>200200</v>
+        <v>199700</v>
       </c>
       <c r="F57" s="3">
-        <v>201100</v>
+        <v>200600</v>
       </c>
       <c r="G57" s="3">
-        <v>215900</v>
+        <v>215300</v>
       </c>
       <c r="H57" s="3">
-        <v>205000</v>
+        <v>204500</v>
       </c>
       <c r="I57" s="3">
-        <v>204100</v>
+        <v>203600</v>
       </c>
       <c r="J57" s="3">
-        <v>218000</v>
+        <v>217400</v>
       </c>
       <c r="K57" s="3">
         <v>209200</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125700</v>
+        <v>125400</v>
       </c>
       <c r="E58" s="3">
-        <v>147700</v>
+        <v>147400</v>
       </c>
       <c r="F58" s="3">
-        <v>150200</v>
+        <v>149800</v>
       </c>
       <c r="G58" s="3">
-        <v>150200</v>
+        <v>149800</v>
       </c>
       <c r="H58" s="3">
-        <v>138100</v>
+        <v>137700</v>
       </c>
       <c r="I58" s="3">
-        <v>137500</v>
+        <v>137100</v>
       </c>
       <c r="J58" s="3">
-        <v>91100</v>
+        <v>90800</v>
       </c>
       <c r="K58" s="3">
         <v>47700</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79900</v>
+        <v>79700</v>
       </c>
       <c r="E59" s="3">
-        <v>75700</v>
+        <v>75500</v>
       </c>
       <c r="F59" s="3">
-        <v>86200</v>
+        <v>86000</v>
       </c>
       <c r="G59" s="3">
-        <v>82900</v>
+        <v>82700</v>
       </c>
       <c r="H59" s="3">
-        <v>84100</v>
+        <v>83900</v>
       </c>
       <c r="I59" s="3">
-        <v>80200</v>
+        <v>80000</v>
       </c>
       <c r="J59" s="3">
-        <v>82600</v>
+        <v>82400</v>
       </c>
       <c r="K59" s="3">
         <v>81500</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>414600</v>
+        <v>413500</v>
       </c>
       <c r="E60" s="3">
-        <v>423600</v>
+        <v>422600</v>
       </c>
       <c r="F60" s="3">
-        <v>437500</v>
+        <v>436400</v>
       </c>
       <c r="G60" s="3">
-        <v>449000</v>
+        <v>447800</v>
       </c>
       <c r="H60" s="3">
-        <v>427300</v>
+        <v>426200</v>
       </c>
       <c r="I60" s="3">
-        <v>421800</v>
+        <v>420800</v>
       </c>
       <c r="J60" s="3">
-        <v>391700</v>
+        <v>390700</v>
       </c>
       <c r="K60" s="3">
         <v>338400</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>554200</v>
+        <v>552800</v>
       </c>
       <c r="E61" s="3">
-        <v>527700</v>
+        <v>526300</v>
       </c>
       <c r="F61" s="3">
+        <v>569600</v>
+      </c>
+      <c r="G61" s="3">
         <v>571100</v>
       </c>
-      <c r="G61" s="3">
-        <v>572600</v>
-      </c>
       <c r="H61" s="3">
-        <v>536400</v>
+        <v>535100</v>
       </c>
       <c r="I61" s="3">
-        <v>530700</v>
+        <v>529300</v>
       </c>
       <c r="J61" s="3">
-        <v>585000</v>
+        <v>583500</v>
       </c>
       <c r="K61" s="3">
         <v>354200</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60300</v>
+        <v>60200</v>
       </c>
       <c r="E62" s="3">
-        <v>57600</v>
+        <v>57400</v>
       </c>
       <c r="F62" s="3">
-        <v>60000</v>
+        <v>59900</v>
       </c>
       <c r="G62" s="3">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="H62" s="3">
-        <v>61500</v>
+        <v>61400</v>
       </c>
       <c r="I62" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="J62" s="3">
-        <v>54900</v>
+        <v>54700</v>
       </c>
       <c r="K62" s="3">
         <v>63600</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1029100</v>
+        <v>1026500</v>
       </c>
       <c r="E66" s="3">
-        <v>1008900</v>
+        <v>1006300</v>
       </c>
       <c r="F66" s="3">
-        <v>1068600</v>
+        <v>1065900</v>
       </c>
       <c r="G66" s="3">
-        <v>1084900</v>
+        <v>1082100</v>
       </c>
       <c r="H66" s="3">
-        <v>1025200</v>
+        <v>1022600</v>
       </c>
       <c r="I66" s="3">
-        <v>1027600</v>
+        <v>1025000</v>
       </c>
       <c r="J66" s="3">
-        <v>1031500</v>
+        <v>1028900</v>
       </c>
       <c r="K66" s="3">
         <v>756100</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>180000</v>
+        <v>179600</v>
       </c>
       <c r="E72" s="3">
-        <v>180600</v>
+        <v>180200</v>
       </c>
       <c r="F72" s="3">
-        <v>178500</v>
+        <v>178000</v>
       </c>
       <c r="G72" s="3">
-        <v>173700</v>
+        <v>173200</v>
       </c>
       <c r="H72" s="3">
-        <v>171000</v>
+        <v>170500</v>
       </c>
       <c r="I72" s="3">
-        <v>167300</v>
+        <v>166900</v>
       </c>
       <c r="J72" s="3">
-        <v>165200</v>
+        <v>164800</v>
       </c>
       <c r="K72" s="3">
         <v>165600</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>516800</v>
+        <v>515500</v>
       </c>
       <c r="E76" s="3">
-        <v>517400</v>
+        <v>516100</v>
       </c>
       <c r="F76" s="3">
-        <v>515300</v>
+        <v>514000</v>
       </c>
       <c r="G76" s="3">
-        <v>427300</v>
+        <v>426200</v>
       </c>
       <c r="H76" s="3">
-        <v>424300</v>
+        <v>423200</v>
       </c>
       <c r="I76" s="3">
-        <v>420600</v>
+        <v>419600</v>
       </c>
       <c r="J76" s="3">
-        <v>419400</v>
+        <v>418400</v>
       </c>
       <c r="K76" s="3">
         <v>413700</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52200</v>
+        <v>52000</v>
       </c>
       <c r="E83" s="3">
-        <v>51600</v>
+        <v>51400</v>
       </c>
       <c r="F83" s="3">
-        <v>50400</v>
+        <v>50200</v>
       </c>
       <c r="G83" s="3">
-        <v>53400</v>
+        <v>53200</v>
       </c>
       <c r="H83" s="3">
-        <v>56700</v>
+        <v>56500</v>
       </c>
       <c r="I83" s="3">
-        <v>54600</v>
+        <v>54400</v>
       </c>
       <c r="J83" s="3">
-        <v>53400</v>
+        <v>53200</v>
       </c>
       <c r="K83" s="3">
         <v>40900</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="E89" s="3">
-        <v>58200</v>
+        <v>58000</v>
       </c>
       <c r="F89" s="3">
-        <v>61500</v>
+        <v>61400</v>
       </c>
       <c r="G89" s="3">
-        <v>53700</v>
+        <v>53500</v>
       </c>
       <c r="H89" s="3">
-        <v>69400</v>
+        <v>69200</v>
       </c>
       <c r="I89" s="3">
-        <v>65100</v>
+        <v>65000</v>
       </c>
       <c r="J89" s="3">
-        <v>64200</v>
+        <v>64100</v>
       </c>
       <c r="K89" s="3">
         <v>35600</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30500</v>
+        <v>-30400</v>
       </c>
       <c r="E91" s="3">
         <v>-24700</v>
       </c>
       <c r="F91" s="3">
-        <v>-33200</v>
+        <v>-33100</v>
       </c>
       <c r="G91" s="3">
         <v>-25300</v>
       </c>
       <c r="H91" s="3">
-        <v>-39500</v>
+        <v>-39400</v>
       </c>
       <c r="I91" s="3">
-        <v>-31700</v>
+        <v>-31600</v>
       </c>
       <c r="J91" s="3">
-        <v>-42800</v>
+        <v>-42700</v>
       </c>
       <c r="K91" s="3">
         <v>-30000</v>
@@ -5011,16 +5011,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-59700</v>
+        <v>-59600</v>
       </c>
       <c r="E94" s="3">
         <v>21100</v>
       </c>
       <c r="F94" s="3">
-        <v>-118200</v>
+        <v>-117900</v>
       </c>
       <c r="G94" s="3">
-        <v>-157700</v>
+        <v>-157300</v>
       </c>
       <c r="H94" s="3">
         <v>-27100</v>
@@ -5029,7 +5029,7 @@
         <v>-24100</v>
       </c>
       <c r="J94" s="3">
-        <v>-147100</v>
+        <v>-146800</v>
       </c>
       <c r="K94" s="3">
         <v>43500</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="E100" s="3">
-        <v>-59100</v>
+        <v>-58900</v>
       </c>
       <c r="F100" s="3">
-        <v>69700</v>
+        <v>69500</v>
       </c>
       <c r="G100" s="3">
-        <v>40100</v>
+        <v>40000</v>
       </c>
       <c r="H100" s="3">
-        <v>-16900</v>
+        <v>-16800</v>
       </c>
       <c r="I100" s="3">
         <v>-1200</v>
       </c>
       <c r="J100" s="3">
-        <v>46400</v>
+        <v>46300</v>
       </c>
       <c r="K100" s="3">
         <v>-63000</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="E102" s="3">
         <v>20200</v>
       </c>
       <c r="F102" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="G102" s="3">
-        <v>-63900</v>
+        <v>-63800</v>
       </c>
       <c r="H102" s="3">
         <v>25300</v>
       </c>
       <c r="I102" s="3">
-        <v>39800</v>
+        <v>39700</v>
       </c>
       <c r="J102" s="3">
-        <v>-36500</v>
+        <v>-36400</v>
       </c>
       <c r="K102" s="3">
         <v>16200</v>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>240600</v>
+        <v>257100</v>
       </c>
       <c r="E8" s="3">
-        <v>232800</v>
+        <v>249400</v>
       </c>
       <c r="F8" s="3">
-        <v>242700</v>
+        <v>246900</v>
       </c>
       <c r="G8" s="3">
-        <v>250800</v>
+        <v>238900</v>
       </c>
       <c r="H8" s="3">
-        <v>248100</v>
+        <v>249100</v>
       </c>
       <c r="I8" s="3">
+        <v>257400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K8" s="3">
         <v>234900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>238800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>239500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>234300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>232600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>241100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>230100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>227900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>222100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>224300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>229300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>237200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>213300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>209600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>209000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>201500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>202200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>213900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>212000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>195500</v>
+      </c>
+      <c r="L9" s="3">
         <v>203600</v>
       </c>
-      <c r="E9" s="3">
-        <v>196400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>197000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>208400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>206600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>195500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>203600</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>204200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>187200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>192900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>200800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>196200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>172400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>175700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>182700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>197200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37000</v>
+        <v>43800</v>
       </c>
       <c r="E10" s="3">
-        <v>36400</v>
+        <v>39800</v>
       </c>
       <c r="F10" s="3">
-        <v>45700</v>
+        <v>38000</v>
       </c>
       <c r="G10" s="3">
-        <v>42400</v>
+        <v>37300</v>
       </c>
       <c r="H10" s="3">
-        <v>41500</v>
+        <v>46900</v>
       </c>
       <c r="I10" s="3">
+        <v>43500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K10" s="3">
         <v>39400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>35300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>47000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>39700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>40300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>33900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>55500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>46400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>41600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>32100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>234600</v>
+        <v>248500</v>
       </c>
       <c r="E17" s="3">
-        <v>226800</v>
+        <v>243200</v>
       </c>
       <c r="F17" s="3">
-        <v>231900</v>
+        <v>240700</v>
       </c>
       <c r="G17" s="3">
-        <v>241800</v>
+        <v>232700</v>
       </c>
       <c r="H17" s="3">
-        <v>240300</v>
+        <v>238000</v>
       </c>
       <c r="I17" s="3">
+        <v>248200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K17" s="3">
         <v>228300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>236100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>235400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>220600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>226200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>231700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>230100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>202500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>189500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>195000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>227100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="E18" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F18" s="3">
-        <v>10800</v>
+        <v>6200</v>
       </c>
       <c r="G18" s="3">
-        <v>9000</v>
+        <v>6200</v>
       </c>
       <c r="H18" s="3">
-        <v>7800</v>
+        <v>11100</v>
       </c>
       <c r="I18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>25400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>32600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>29300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1378,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7200</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F20" s="3">
-        <v>-5700</v>
+        <v>-7400</v>
       </c>
       <c r="G20" s="3">
-        <v>-6000</v>
+        <v>-4000</v>
       </c>
       <c r="H20" s="3">
-        <v>-5400</v>
+        <v>-5900</v>
       </c>
       <c r="I20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-24300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-14900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-6400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-6400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>50800</v>
+        <v>55600</v>
       </c>
       <c r="E21" s="3">
-        <v>53500</v>
+        <v>55200</v>
       </c>
       <c r="F21" s="3">
-        <v>55300</v>
+        <v>52200</v>
       </c>
       <c r="G21" s="3">
+        <v>54900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>56800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>57700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>60500</v>
+      </c>
+      <c r="K21" s="3">
         <v>56200</v>
       </c>
-      <c r="H21" s="3">
-        <v>58900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>56200</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>51700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>41500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>50400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>42000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>42600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>14600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>58200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>53800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>60300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>34400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1560,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5100</v>
-      </c>
       <c r="G23" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="H23" s="3">
-        <v>2400</v>
+        <v>5200</v>
       </c>
       <c r="I23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-24300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>21200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>17700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>22900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2100</v>
-      </c>
       <c r="G24" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="3">
         <v>900</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>900</v>
+      </c>
+      <c r="L24" s="3">
         <v>-2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-10500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3000</v>
-      </c>
       <c r="G26" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H26" s="3">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="I26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>14900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>12700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>17900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3000</v>
-      </c>
       <c r="G27" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H27" s="3">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="I27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-13800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>14900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>12700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>17900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7200</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F32" s="3">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="G32" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="H32" s="3">
-        <v>5400</v>
+        <v>5900</v>
       </c>
       <c r="I32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K32" s="3">
         <v>4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>24300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>14900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>6400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3000</v>
-      </c>
       <c r="G33" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H33" s="3">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="I33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-13800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>14900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>12700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>17900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3000</v>
-      </c>
       <c r="G35" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H35" s="3">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="I35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-13800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>14900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>12700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>17900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2485,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>109500</v>
+        <v>96000</v>
       </c>
       <c r="E41" s="3">
-        <v>123000</v>
+        <v>116100</v>
       </c>
       <c r="F41" s="3">
+        <v>112300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>126200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>105600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>92300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>128400</v>
+      </c>
+      <c r="L41" s="3">
+        <v>88700</v>
+      </c>
+      <c r="M41" s="3">
+        <v>122400</v>
+      </c>
+      <c r="N41" s="3">
         <v>102900</v>
       </c>
-      <c r="G41" s="3">
-        <v>89900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>153700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>128400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>88700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>122400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>102900</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>106800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>117600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>239200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>278700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>247500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>284100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>318700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>197900</v>
+        <v>148500</v>
       </c>
       <c r="E42" s="3">
-        <v>182600</v>
+        <v>126900</v>
       </c>
       <c r="F42" s="3">
-        <v>238500</v>
+        <v>203100</v>
       </c>
       <c r="G42" s="3">
-        <v>166000</v>
+        <v>187400</v>
       </c>
       <c r="H42" s="3">
-        <v>46900</v>
+        <v>244800</v>
       </c>
       <c r="I42" s="3">
+        <v>170400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K42" s="3">
         <v>72500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>91100</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>82900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>84900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>87600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>41400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>41400</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>69800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>126300</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>185300</v>
+        <v>195700</v>
       </c>
       <c r="E43" s="3">
-        <v>179000</v>
+        <v>187000</v>
       </c>
       <c r="F43" s="3">
-        <v>184100</v>
+        <v>190100</v>
       </c>
       <c r="G43" s="3">
-        <v>199400</v>
+        <v>183600</v>
       </c>
       <c r="H43" s="3">
-        <v>190400</v>
+        <v>188900</v>
       </c>
       <c r="I43" s="3">
+        <v>204600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>195400</v>
+      </c>
+      <c r="K43" s="3">
         <v>188900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>207800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>202700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>207500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>226200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>239300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>236200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>243100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>253000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>274000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>292500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32800</v>
+        <v>32400</v>
       </c>
       <c r="E44" s="3">
-        <v>39700</v>
+        <v>23800</v>
       </c>
       <c r="F44" s="3">
-        <v>42700</v>
+        <v>33600</v>
       </c>
       <c r="G44" s="3">
-        <v>37300</v>
+        <v>40700</v>
       </c>
       <c r="H44" s="3">
+        <v>43800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>38300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K44" s="3">
         <v>30100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>30100</v>
       </c>
-      <c r="J44" s="3">
-        <v>30100</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>28800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>22800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>21600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>31200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>25700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>24800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>26500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>26300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>26800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E45" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="G45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K45" s="3">
         <v>7800</v>
       </c>
-      <c r="H45" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>7800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="R45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="T45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="U45" s="3">
         <v>7800</v>
       </c>
-      <c r="K45" s="3">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>13100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>13100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>12300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>11900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>11000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>10200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>13700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>7800</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>533800</v>
+        <v>480900</v>
       </c>
       <c r="E46" s="3">
-        <v>532600</v>
+        <v>461700</v>
       </c>
       <c r="F46" s="3">
-        <v>576300</v>
+        <v>547900</v>
       </c>
       <c r="G46" s="3">
-        <v>500500</v>
+        <v>546600</v>
       </c>
       <c r="H46" s="3">
-        <v>428600</v>
+        <v>591400</v>
       </c>
       <c r="I46" s="3">
+        <v>513600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>439800</v>
+      </c>
+      <c r="K46" s="3">
         <v>427700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>425600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>369000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>429200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>452600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>488000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>554300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>599000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>537200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>667900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>653400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>647800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70700</v>
+        <v>73500</v>
       </c>
       <c r="E47" s="3">
-        <v>69200</v>
+        <v>71600</v>
       </c>
       <c r="F47" s="3">
-        <v>73700</v>
+        <v>72500</v>
       </c>
       <c r="G47" s="3">
-        <v>75200</v>
+        <v>71000</v>
       </c>
       <c r="H47" s="3">
-        <v>75200</v>
+        <v>75600</v>
       </c>
       <c r="I47" s="3">
+        <v>77200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K47" s="3">
         <v>75500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>78500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>76500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>71500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>68600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>68900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>64000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>62900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>67600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>79900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>93000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>608700</v>
+        <v>671600</v>
       </c>
       <c r="E48" s="3">
-        <v>600600</v>
+        <v>666100</v>
       </c>
       <c r="F48" s="3">
-        <v>606900</v>
+        <v>624700</v>
       </c>
       <c r="G48" s="3">
-        <v>605100</v>
+        <v>616400</v>
       </c>
       <c r="H48" s="3">
-        <v>611700</v>
+        <v>622900</v>
       </c>
       <c r="I48" s="3">
+        <v>621000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>627800</v>
+      </c>
+      <c r="K48" s="3">
         <v>607200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>601500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>356300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>329700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>340000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>343500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>325600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>311200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>310400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>323500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>337200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>282100</v>
+        <v>283600</v>
       </c>
       <c r="E49" s="3">
-        <v>275200</v>
+        <v>286400</v>
       </c>
       <c r="F49" s="3">
-        <v>280900</v>
+        <v>289500</v>
       </c>
       <c r="G49" s="3">
-        <v>284200</v>
+        <v>282400</v>
       </c>
       <c r="H49" s="3">
-        <v>286900</v>
+        <v>288300</v>
       </c>
       <c r="I49" s="3">
+        <v>291700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>294500</v>
+      </c>
+      <c r="K49" s="3">
         <v>292900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>302000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>301300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>297200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>310200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>316600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>304600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>309800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>308500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>322900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>335200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>343300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46600</v>
+        <v>96600</v>
       </c>
       <c r="E52" s="3">
-        <v>44800</v>
+        <v>96000</v>
       </c>
       <c r="F52" s="3">
-        <v>42100</v>
+        <v>47800</v>
       </c>
       <c r="G52" s="3">
-        <v>43300</v>
+        <v>46000</v>
       </c>
       <c r="H52" s="3">
-        <v>43300</v>
+        <v>43200</v>
       </c>
       <c r="I52" s="3">
+        <v>44400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K52" s="3">
         <v>41200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>39700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>66800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>62400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>61600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>61000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>53200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>41400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>43000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>36000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>33000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1542000</v>
+        <v>1606200</v>
       </c>
       <c r="E54" s="3">
-        <v>1522400</v>
+        <v>1581800</v>
       </c>
       <c r="F54" s="3">
-        <v>1579900</v>
+        <v>1582400</v>
       </c>
       <c r="G54" s="3">
-        <v>1508300</v>
+        <v>1562400</v>
       </c>
       <c r="H54" s="3">
-        <v>1445800</v>
+        <v>1621300</v>
       </c>
       <c r="I54" s="3">
+        <v>1547900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1483700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1444600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1447300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1169800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1190100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1233000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1278000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1301700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1324300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1266700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1430200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1451700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1467600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>208400</v>
+        <v>217000</v>
       </c>
       <c r="E57" s="3">
-        <v>199700</v>
+        <v>205600</v>
       </c>
       <c r="F57" s="3">
-        <v>200600</v>
+        <v>213900</v>
       </c>
       <c r="G57" s="3">
-        <v>215300</v>
+        <v>204900</v>
       </c>
       <c r="H57" s="3">
-        <v>204500</v>
+        <v>205900</v>
       </c>
       <c r="I57" s="3">
+        <v>221000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>209900</v>
+      </c>
+      <c r="K57" s="3">
         <v>203600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>217400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>209200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>201200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>203100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>219500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>217100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>193700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>177400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>184100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>190200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125400</v>
+        <v>125600</v>
       </c>
       <c r="E58" s="3">
-        <v>147400</v>
+        <v>126500</v>
       </c>
       <c r="F58" s="3">
-        <v>149800</v>
+        <v>128700</v>
       </c>
       <c r="G58" s="3">
-        <v>149800</v>
+        <v>151200</v>
       </c>
       <c r="H58" s="3">
-        <v>137700</v>
+        <v>153700</v>
       </c>
       <c r="I58" s="3">
+        <v>153700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K58" s="3">
         <v>137100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>90800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>47700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>105700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>104500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>121700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>194500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>153700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>192900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>148300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>139100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>134600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79700</v>
+        <v>96300</v>
       </c>
       <c r="E59" s="3">
-        <v>75500</v>
+        <v>79600</v>
       </c>
       <c r="F59" s="3">
-        <v>86000</v>
+        <v>81800</v>
       </c>
       <c r="G59" s="3">
-        <v>82700</v>
+        <v>77500</v>
       </c>
       <c r="H59" s="3">
-        <v>83900</v>
+        <v>88300</v>
       </c>
       <c r="I59" s="3">
+        <v>84900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>86100</v>
+      </c>
+      <c r="K59" s="3">
         <v>80000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>82400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>81500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>82600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>88700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>91100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>88000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>86400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>85300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>95500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>119600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>413500</v>
+        <v>438900</v>
       </c>
       <c r="E60" s="3">
-        <v>422600</v>
+        <v>411700</v>
       </c>
       <c r="F60" s="3">
-        <v>436400</v>
+        <v>424400</v>
       </c>
       <c r="G60" s="3">
-        <v>447800</v>
+        <v>433700</v>
       </c>
       <c r="H60" s="3">
-        <v>426200</v>
+        <v>447900</v>
       </c>
       <c r="I60" s="3">
+        <v>459600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>437400</v>
+      </c>
+      <c r="K60" s="3">
         <v>420800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>390700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>338400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>389600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>396300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>432200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>499700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>433700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>455500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>427900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>448900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>449400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>552800</v>
+        <v>580300</v>
       </c>
       <c r="E61" s="3">
-        <v>526300</v>
+        <v>582400</v>
       </c>
       <c r="F61" s="3">
-        <v>569600</v>
+        <v>567300</v>
       </c>
       <c r="G61" s="3">
-        <v>571100</v>
+        <v>540100</v>
       </c>
       <c r="H61" s="3">
-        <v>535100</v>
+        <v>584600</v>
       </c>
       <c r="I61" s="3">
+        <v>586100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>549100</v>
+      </c>
+      <c r="K61" s="3">
         <v>529300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>583500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>354200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>336000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>347900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>351700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>336000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>411100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>352900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>600800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>613400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>677900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60200</v>
+        <v>53100</v>
       </c>
       <c r="E62" s="3">
-        <v>57400</v>
+        <v>55900</v>
       </c>
       <c r="F62" s="3">
-        <v>59900</v>
+        <v>61700</v>
       </c>
       <c r="G62" s="3">
-        <v>63200</v>
+        <v>59000</v>
       </c>
       <c r="H62" s="3">
         <v>61400</v>
       </c>
       <c r="I62" s="3">
+        <v>64800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K62" s="3">
         <v>74900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>54700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>63600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>65300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>69200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>71800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>70400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>70900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>72800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>75700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>79100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1026500</v>
+        <v>1072300</v>
       </c>
       <c r="E66" s="3">
-        <v>1006300</v>
+        <v>1050000</v>
       </c>
       <c r="F66" s="3">
-        <v>1065900</v>
+        <v>1053400</v>
       </c>
       <c r="G66" s="3">
-        <v>1082100</v>
+        <v>1032700</v>
       </c>
       <c r="H66" s="3">
-        <v>1022600</v>
+        <v>1093900</v>
       </c>
       <c r="I66" s="3">
+        <v>1110500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1049400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1025000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1028900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>756100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>791100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>813400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>855700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>906100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>915700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>881200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1104500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1141300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1156100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>179600</v>
+        <v>189200</v>
       </c>
       <c r="E72" s="3">
-        <v>180200</v>
+        <v>187000</v>
       </c>
       <c r="F72" s="3">
-        <v>178000</v>
+        <v>184300</v>
       </c>
       <c r="G72" s="3">
-        <v>173200</v>
+        <v>184900</v>
       </c>
       <c r="H72" s="3">
-        <v>170500</v>
+        <v>182700</v>
       </c>
       <c r="I72" s="3">
+        <v>177800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K72" s="3">
         <v>166900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>164800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>165600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>153600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>148800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>147100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>135500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>148400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>125300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>115400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>100000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>515500</v>
+        <v>534000</v>
       </c>
       <c r="E76" s="3">
-        <v>516100</v>
+        <v>531800</v>
       </c>
       <c r="F76" s="3">
-        <v>514000</v>
+        <v>529000</v>
       </c>
       <c r="G76" s="3">
-        <v>426200</v>
+        <v>529600</v>
       </c>
       <c r="H76" s="3">
-        <v>423200</v>
+        <v>527500</v>
       </c>
       <c r="I76" s="3">
+        <v>437400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>434300</v>
+      </c>
+      <c r="K76" s="3">
         <v>419600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>418400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>413700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>399000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>419700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>422300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>395600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>408600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>385400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>325700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>310300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>3000</v>
-      </c>
       <c r="G81" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H81" s="3">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="I81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-13800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>14900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>12700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>17900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52000</v>
+        <v>52800</v>
       </c>
       <c r="E83" s="3">
-        <v>51400</v>
+        <v>53100</v>
       </c>
       <c r="F83" s="3">
-        <v>50200</v>
+        <v>53400</v>
       </c>
       <c r="G83" s="3">
+        <v>52800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>54600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>54400</v>
+      </c>
+      <c r="L83" s="3">
         <v>53200</v>
       </c>
-      <c r="H83" s="3">
-        <v>56500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>54400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>53200</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>40900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>39600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>39400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>38500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>38900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>37000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>36100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>37400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>38500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62300</v>
+        <v>64200</v>
       </c>
       <c r="E89" s="3">
-        <v>58000</v>
+        <v>56200</v>
       </c>
       <c r="F89" s="3">
-        <v>61400</v>
+        <v>63900</v>
       </c>
       <c r="G89" s="3">
-        <v>53500</v>
+        <v>59600</v>
       </c>
       <c r="H89" s="3">
-        <v>69200</v>
+        <v>63000</v>
       </c>
       <c r="I89" s="3">
+        <v>54900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K89" s="3">
         <v>65000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>64100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>35600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>53600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>46400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>45800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>48600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>92400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>70400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>57800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>87400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30400</v>
+        <v>-33600</v>
       </c>
       <c r="E91" s="3">
-        <v>-24700</v>
+        <v>-35800</v>
       </c>
       <c r="F91" s="3">
-        <v>-33100</v>
+        <v>-31200</v>
       </c>
       <c r="G91" s="3">
         <v>-25300</v>
       </c>
       <c r="H91" s="3">
-        <v>-39400</v>
+        <v>-34000</v>
       </c>
       <c r="I91" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-31600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-42700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-30000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-21100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-20100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-28600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-21200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-42200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-13100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-59600</v>
+        <v>-67300</v>
       </c>
       <c r="E94" s="3">
-        <v>21100</v>
+        <v>-18800</v>
       </c>
       <c r="F94" s="3">
-        <v>-117900</v>
+        <v>-61100</v>
       </c>
       <c r="G94" s="3">
-        <v>-157300</v>
+        <v>21600</v>
       </c>
       <c r="H94" s="3">
-        <v>-27100</v>
+        <v>-121000</v>
       </c>
       <c r="I94" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-146800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>43500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-33600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-27700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-83500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-31200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>52400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>37400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-138500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16200</v>
+        <v>-17000</v>
       </c>
       <c r="E100" s="3">
-        <v>-58900</v>
+        <v>-33600</v>
       </c>
       <c r="F100" s="3">
-        <v>69500</v>
+        <v>-16700</v>
       </c>
       <c r="G100" s="3">
-        <v>40000</v>
+        <v>-60500</v>
       </c>
       <c r="H100" s="3">
-        <v>-16800</v>
+        <v>71300</v>
       </c>
       <c r="I100" s="3">
+        <v>41100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>46300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-63000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-21400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-29500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-97800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-56800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>16800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-159500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-7500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-67600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13500</v>
+        <v>-20100</v>
       </c>
       <c r="E102" s="3">
-        <v>20200</v>
+        <v>3700</v>
       </c>
       <c r="F102" s="3">
-        <v>12900</v>
+        <v>-13900</v>
       </c>
       <c r="G102" s="3">
-        <v>-63800</v>
+        <v>20700</v>
       </c>
       <c r="H102" s="3">
-        <v>25300</v>
+        <v>13300</v>
       </c>
       <c r="I102" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K102" s="3">
         <v>39700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-36400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>16200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-10800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-135400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-39500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>31200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-33100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>84100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-118700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>62800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>257100</v>
+        <v>258700</v>
       </c>
       <c r="E8" s="3">
-        <v>249400</v>
+        <v>256500</v>
       </c>
       <c r="F8" s="3">
-        <v>246900</v>
+        <v>248800</v>
       </c>
       <c r="G8" s="3">
-        <v>238900</v>
+        <v>246400</v>
       </c>
       <c r="H8" s="3">
-        <v>249100</v>
+        <v>238400</v>
       </c>
       <c r="I8" s="3">
-        <v>257400</v>
+        <v>248500</v>
       </c>
       <c r="J8" s="3">
+        <v>256900</v>
+      </c>
+      <c r="K8" s="3">
         <v>254600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>234900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>238800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>239500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>234300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>232600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>241100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>230100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>227900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>222100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>224300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>229300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>237200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>213300</v>
+        <v>214400</v>
       </c>
       <c r="E9" s="3">
-        <v>209600</v>
+        <v>212800</v>
       </c>
       <c r="F9" s="3">
-        <v>209000</v>
+        <v>209100</v>
       </c>
       <c r="G9" s="3">
-        <v>201500</v>
+        <v>208500</v>
       </c>
       <c r="H9" s="3">
-        <v>202200</v>
+        <v>201100</v>
       </c>
       <c r="I9" s="3">
-        <v>213900</v>
+        <v>201700</v>
       </c>
       <c r="J9" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K9" s="3">
         <v>212000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>195500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>203600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>204200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>187200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>192900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>196200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>172400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>175700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>182700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>197200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43800</v>
+        <v>44300</v>
       </c>
       <c r="E10" s="3">
-        <v>39800</v>
+        <v>43700</v>
       </c>
       <c r="F10" s="3">
-        <v>38000</v>
+        <v>39700</v>
       </c>
       <c r="G10" s="3">
+        <v>37900</v>
+      </c>
+      <c r="H10" s="3">
         <v>37300</v>
       </c>
-      <c r="H10" s="3">
-        <v>46900</v>
-      </c>
       <c r="I10" s="3">
-        <v>43500</v>
+        <v>46800</v>
       </c>
       <c r="J10" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K10" s="3">
         <v>42600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>40300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>46400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>41600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>32100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,78 +1258,82 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>248500</v>
+        <v>249500</v>
       </c>
       <c r="E17" s="3">
-        <v>243200</v>
+        <v>247900</v>
       </c>
       <c r="F17" s="3">
-        <v>240700</v>
+        <v>242700</v>
       </c>
       <c r="G17" s="3">
-        <v>232700</v>
+        <v>240200</v>
       </c>
       <c r="H17" s="3">
-        <v>238000</v>
+        <v>232200</v>
       </c>
       <c r="I17" s="3">
-        <v>248200</v>
+        <v>237500</v>
       </c>
       <c r="J17" s="3">
+        <v>247600</v>
+      </c>
+      <c r="K17" s="3">
         <v>246600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>228300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>236100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>235400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>220600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>226200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>231700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>230100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>202500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>189500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>195000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>227100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E18" s="3">
         <v>8600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6200</v>
       </c>
       <c r="F18" s="3">
         <v>6200</v>
@@ -1312,52 +1342,55 @@
         <v>6200</v>
       </c>
       <c r="H18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I18" s="3">
         <v>11100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>13700</v>
+      </c>
+      <c r="P18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>9300</v>
       </c>
-      <c r="J18" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>6600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>4100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>13700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>6400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>9300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>25400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>29300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-6400</v>
       </c>
       <c r="U20" s="3">
         <v>-6400</v>
       </c>
       <c r="V20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>55600</v>
+        <v>57900</v>
       </c>
       <c r="E21" s="3">
-        <v>55200</v>
+        <v>55400</v>
       </c>
       <c r="F21" s="3">
-        <v>52200</v>
+        <v>55100</v>
       </c>
       <c r="G21" s="3">
-        <v>54900</v>
+        <v>52000</v>
       </c>
       <c r="H21" s="3">
-        <v>56800</v>
+        <v>54800</v>
       </c>
       <c r="I21" s="3">
-        <v>57700</v>
+        <v>56700</v>
       </c>
       <c r="J21" s="3">
+        <v>57600</v>
+      </c>
+      <c r="K21" s="3">
         <v>60500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>56200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>51700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>58200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>53800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>60300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>34400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-24300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>5000</v>
       </c>
       <c r="T24" s="3">
         <v>5000</v>
       </c>
       <c r="U24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V24" s="3">
         <v>-2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="E26" s="3">
         <v>1500</v>
       </c>
       <c r="F26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2200</v>
       </c>
       <c r="J26" s="3">
         <v>2200</v>
       </c>
       <c r="K26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="E27" s="3">
         <v>1500</v>
       </c>
       <c r="F27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2200</v>
       </c>
       <c r="J27" s="3">
         <v>2200</v>
       </c>
       <c r="K27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E32" s="3">
         <v>5900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>6400</v>
       </c>
       <c r="U32" s="3">
         <v>6400</v>
       </c>
       <c r="V32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="W32" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="E33" s="3">
         <v>1500</v>
       </c>
       <c r="F33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2200</v>
       </c>
       <c r="J33" s="3">
         <v>2200</v>
       </c>
       <c r="K33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="3">
         <v>1500</v>
       </c>
       <c r="F35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2200</v>
       </c>
       <c r="J35" s="3">
         <v>2200</v>
       </c>
       <c r="K35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,256 +2573,269 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>96000</v>
+        <v>86200</v>
       </c>
       <c r="E41" s="3">
-        <v>116100</v>
+        <v>95800</v>
       </c>
       <c r="F41" s="3">
-        <v>112300</v>
+        <v>115800</v>
       </c>
       <c r="G41" s="3">
-        <v>126200</v>
+        <v>112100</v>
       </c>
       <c r="H41" s="3">
-        <v>105600</v>
+        <v>126000</v>
       </c>
       <c r="I41" s="3">
-        <v>92300</v>
+        <v>105300</v>
       </c>
       <c r="J41" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K41" s="3">
         <v>157700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>128400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>88700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>122400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>102900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>106800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>117600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>239200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>278700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>247500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>284100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>318700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>148500</v>
+        <v>158900</v>
       </c>
       <c r="E42" s="3">
-        <v>126900</v>
+        <v>148100</v>
       </c>
       <c r="F42" s="3">
-        <v>203100</v>
+        <v>126600</v>
       </c>
       <c r="G42" s="3">
-        <v>187400</v>
+        <v>202700</v>
       </c>
       <c r="H42" s="3">
-        <v>244800</v>
+        <v>186900</v>
       </c>
       <c r="I42" s="3">
-        <v>170400</v>
+        <v>244200</v>
       </c>
       <c r="J42" s="3">
+        <v>170000</v>
+      </c>
+      <c r="K42" s="3">
         <v>48100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>91100</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>82900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>84900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>87600</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>41400</v>
       </c>
       <c r="R42" s="3">
         <v>41400</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="S42" s="3">
+        <v>41400</v>
+      </c>
+      <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>69800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>126300</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>195700</v>
+        <v>188500</v>
       </c>
       <c r="E43" s="3">
-        <v>187000</v>
+        <v>195300</v>
       </c>
       <c r="F43" s="3">
-        <v>190100</v>
+        <v>186600</v>
       </c>
       <c r="G43" s="3">
-        <v>183600</v>
+        <v>189700</v>
       </c>
       <c r="H43" s="3">
+        <v>183200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>188500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>195400</v>
+      </c>
+      <c r="L43" s="3">
         <v>188900</v>
       </c>
-      <c r="I43" s="3">
-        <v>204600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>195400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>188900</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>207800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>202700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>207500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>226200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>239300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>236200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>243100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>253000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>274000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>292500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32400</v>
+        <v>29300</v>
       </c>
       <c r="E44" s="3">
-        <v>23800</v>
+        <v>32300</v>
       </c>
       <c r="F44" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G44" s="3">
         <v>33600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>40700</v>
       </c>
-      <c r="H44" s="3">
-        <v>43800</v>
-      </c>
       <c r="I44" s="3">
-        <v>38300</v>
+        <v>43700</v>
       </c>
       <c r="J44" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K44" s="3">
         <v>30900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>30100</v>
       </c>
       <c r="L44" s="3">
         <v>30100</v>
       </c>
       <c r="M44" s="3">
+        <v>30100</v>
+      </c>
+      <c r="N44" s="3">
         <v>28800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>31200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>25700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>24800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,309 +2843,324 @@
         <v>8300</v>
       </c>
       <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3">
         <v>8000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8600</v>
       </c>
       <c r="G45" s="3">
         <v>8600</v>
       </c>
       <c r="H45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>7800</v>
       </c>
       <c r="L45" s="3">
         <v>7800</v>
       </c>
       <c r="M45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N45" s="3">
         <v>15000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>13100</v>
       </c>
       <c r="O45" s="3">
         <v>13100</v>
       </c>
       <c r="P45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>12300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>480900</v>
+        <v>471200</v>
       </c>
       <c r="E46" s="3">
-        <v>461700</v>
+        <v>479800</v>
       </c>
       <c r="F46" s="3">
-        <v>547900</v>
+        <v>460700</v>
       </c>
       <c r="G46" s="3">
-        <v>546600</v>
+        <v>546700</v>
       </c>
       <c r="H46" s="3">
-        <v>591400</v>
+        <v>545400</v>
       </c>
       <c r="I46" s="3">
-        <v>513600</v>
+        <v>590100</v>
       </c>
       <c r="J46" s="3">
+        <v>512500</v>
+      </c>
+      <c r="K46" s="3">
         <v>439800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>427700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>425600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>369000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>429200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>452600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>488000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>554300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>599000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>537200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>667900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>653400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>647800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73500</v>
+        <v>74200</v>
       </c>
       <c r="E47" s="3">
-        <v>71600</v>
+        <v>73300</v>
       </c>
       <c r="F47" s="3">
-        <v>72500</v>
+        <v>71500</v>
       </c>
       <c r="G47" s="3">
-        <v>71000</v>
+        <v>72400</v>
       </c>
       <c r="H47" s="3">
-        <v>75600</v>
+        <v>70800</v>
       </c>
       <c r="I47" s="3">
+        <v>75500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K47" s="3">
         <v>77200</v>
       </c>
-      <c r="J47" s="3">
-        <v>77200</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>78500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>76500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>68600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>68900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>64000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>62900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>67600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>93000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>671600</v>
+        <v>691100</v>
       </c>
       <c r="E48" s="3">
-        <v>666100</v>
+        <v>670200</v>
       </c>
       <c r="F48" s="3">
-        <v>624700</v>
+        <v>664600</v>
       </c>
       <c r="G48" s="3">
-        <v>616400</v>
+        <v>623400</v>
       </c>
       <c r="H48" s="3">
-        <v>622900</v>
+        <v>615000</v>
       </c>
       <c r="I48" s="3">
-        <v>621000</v>
+        <v>621500</v>
       </c>
       <c r="J48" s="3">
+        <v>619700</v>
+      </c>
+      <c r="K48" s="3">
         <v>627800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>607200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>601500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>356300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>329700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>340000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>343500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>325600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>311200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>310400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>323500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>337200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>283600</v>
+        <v>279000</v>
       </c>
       <c r="E49" s="3">
-        <v>286400</v>
+        <v>283000</v>
       </c>
       <c r="F49" s="3">
-        <v>289500</v>
+        <v>285800</v>
       </c>
       <c r="G49" s="3">
-        <v>282400</v>
+        <v>288900</v>
       </c>
       <c r="H49" s="3">
-        <v>288300</v>
+        <v>281800</v>
       </c>
       <c r="I49" s="3">
-        <v>291700</v>
+        <v>287700</v>
       </c>
       <c r="J49" s="3">
+        <v>291000</v>
+      </c>
+      <c r="K49" s="3">
         <v>294500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>292900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>302000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>301300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>297200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>310200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>316600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>304600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>309800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>308500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>322900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>335200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>343300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96600</v>
+        <v>49900</v>
       </c>
       <c r="E52" s="3">
-        <v>96000</v>
+        <v>96400</v>
       </c>
       <c r="F52" s="3">
-        <v>47800</v>
+        <v>95800</v>
       </c>
       <c r="G52" s="3">
-        <v>46000</v>
+        <v>47700</v>
       </c>
       <c r="H52" s="3">
-        <v>43200</v>
+        <v>45900</v>
       </c>
       <c r="I52" s="3">
+        <v>43100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K52" s="3">
         <v>44400</v>
       </c>
-      <c r="J52" s="3">
-        <v>44400</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>53200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>43000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>36000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1606200</v>
+        <v>1565500</v>
       </c>
       <c r="E54" s="3">
-        <v>1581800</v>
+        <v>1602700</v>
       </c>
       <c r="F54" s="3">
-        <v>1582400</v>
+        <v>1578400</v>
       </c>
       <c r="G54" s="3">
-        <v>1562400</v>
+        <v>1579000</v>
       </c>
       <c r="H54" s="3">
-        <v>1621300</v>
+        <v>1559000</v>
       </c>
       <c r="I54" s="3">
-        <v>1547900</v>
+        <v>1617800</v>
       </c>
       <c r="J54" s="3">
+        <v>1544500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1483700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1444600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1447300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1169800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1190100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1233000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1278000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1301700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1324300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1266700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1430200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1451700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1467600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>217000</v>
+        <v>223000</v>
       </c>
       <c r="E57" s="3">
-        <v>205600</v>
+        <v>216500</v>
       </c>
       <c r="F57" s="3">
-        <v>213900</v>
+        <v>205100</v>
       </c>
       <c r="G57" s="3">
-        <v>204900</v>
+        <v>213400</v>
       </c>
       <c r="H57" s="3">
-        <v>205900</v>
+        <v>204500</v>
       </c>
       <c r="I57" s="3">
-        <v>221000</v>
+        <v>205400</v>
       </c>
       <c r="J57" s="3">
+        <v>220500</v>
+      </c>
+      <c r="K57" s="3">
         <v>209900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>203600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>217400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>209200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>201200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>203100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>219500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>217100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>193700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>177400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>184100</v>
-      </c>
-      <c r="U57" s="3">
-        <v>190200</v>
       </c>
       <c r="V57" s="3">
         <v>190200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>190200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125600</v>
+        <v>154300</v>
       </c>
       <c r="E58" s="3">
-        <v>126500</v>
+        <v>125300</v>
       </c>
       <c r="F58" s="3">
-        <v>128700</v>
+        <v>126300</v>
       </c>
       <c r="G58" s="3">
-        <v>151200</v>
+        <v>128400</v>
       </c>
       <c r="H58" s="3">
+        <v>150900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>153400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>141400</v>
+      </c>
+      <c r="L58" s="3">
+        <v>137100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>90800</v>
+      </c>
+      <c r="N58" s="3">
+        <v>47700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>105700</v>
+      </c>
+      <c r="P58" s="3">
+        <v>104500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>121700</v>
+      </c>
+      <c r="R58" s="3">
+        <v>194500</v>
+      </c>
+      <c r="S58" s="3">
         <v>153700</v>
       </c>
-      <c r="I58" s="3">
-        <v>153700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>141400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>137100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>90800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>47700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>105700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>104500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>121700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>194500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>153700</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>192900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>148300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>139100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>134600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96300</v>
+        <v>81900</v>
       </c>
       <c r="E59" s="3">
-        <v>79600</v>
+        <v>96100</v>
       </c>
       <c r="F59" s="3">
-        <v>81800</v>
+        <v>79500</v>
       </c>
       <c r="G59" s="3">
-        <v>77500</v>
+        <v>81600</v>
       </c>
       <c r="H59" s="3">
-        <v>88300</v>
+        <v>77300</v>
       </c>
       <c r="I59" s="3">
-        <v>84900</v>
+        <v>88100</v>
       </c>
       <c r="J59" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K59" s="3">
         <v>86100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>82400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>82600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>88000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>86400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>85300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>95500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>119600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>438900</v>
+        <v>459200</v>
       </c>
       <c r="E60" s="3">
-        <v>411700</v>
+        <v>437900</v>
       </c>
       <c r="F60" s="3">
-        <v>424400</v>
+        <v>410800</v>
       </c>
       <c r="G60" s="3">
+        <v>423500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>432700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>446900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>458600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>437400</v>
+      </c>
+      <c r="L60" s="3">
+        <v>420800</v>
+      </c>
+      <c r="M60" s="3">
+        <v>390700</v>
+      </c>
+      <c r="N60" s="3">
+        <v>338400</v>
+      </c>
+      <c r="O60" s="3">
+        <v>389600</v>
+      </c>
+      <c r="P60" s="3">
+        <v>396300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>432200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>499700</v>
+      </c>
+      <c r="S60" s="3">
         <v>433700</v>
       </c>
-      <c r="H60" s="3">
-        <v>447900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>459600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>437400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>420800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>390700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>338400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>389600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>396300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>432200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>499700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>433700</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>455500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>427900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>448900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>449400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>580300</v>
+        <v>519900</v>
       </c>
       <c r="E61" s="3">
-        <v>582400</v>
+        <v>579000</v>
       </c>
       <c r="F61" s="3">
-        <v>567300</v>
+        <v>581200</v>
       </c>
       <c r="G61" s="3">
-        <v>540100</v>
+        <v>566100</v>
       </c>
       <c r="H61" s="3">
-        <v>584600</v>
+        <v>539000</v>
       </c>
       <c r="I61" s="3">
-        <v>586100</v>
+        <v>583300</v>
       </c>
       <c r="J61" s="3">
+        <v>584900</v>
+      </c>
+      <c r="K61" s="3">
         <v>549100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>529300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>583500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>354200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>336000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>347900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>351700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>336000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>411100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>352900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>600800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>613400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>677900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53100</v>
+        <v>50200</v>
       </c>
       <c r="E62" s="3">
-        <v>55900</v>
+        <v>53000</v>
       </c>
       <c r="F62" s="3">
-        <v>61700</v>
+        <v>55700</v>
       </c>
       <c r="G62" s="3">
-        <v>59000</v>
+        <v>61600</v>
       </c>
       <c r="H62" s="3">
-        <v>61400</v>
+        <v>58800</v>
       </c>
       <c r="I62" s="3">
-        <v>64800</v>
+        <v>61300</v>
       </c>
       <c r="J62" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K62" s="3">
         <v>63000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>65300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>69200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>71800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>75700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>79100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1072300</v>
+        <v>1029300</v>
       </c>
       <c r="E66" s="3">
-        <v>1050000</v>
+        <v>1069900</v>
       </c>
       <c r="F66" s="3">
-        <v>1053400</v>
+        <v>1047700</v>
       </c>
       <c r="G66" s="3">
-        <v>1032700</v>
+        <v>1051100</v>
       </c>
       <c r="H66" s="3">
-        <v>1093900</v>
+        <v>1030500</v>
       </c>
       <c r="I66" s="3">
-        <v>1110500</v>
+        <v>1091500</v>
       </c>
       <c r="J66" s="3">
+        <v>1108100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1049400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1025000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1028900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>756100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>791100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>813400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>855700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>906100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>915700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>881200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1104500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1141300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1156100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>189200</v>
+        <v>192200</v>
       </c>
       <c r="E72" s="3">
-        <v>187000</v>
+        <v>188800</v>
       </c>
       <c r="F72" s="3">
-        <v>184300</v>
+        <v>186600</v>
       </c>
       <c r="G72" s="3">
-        <v>184900</v>
+        <v>183900</v>
       </c>
       <c r="H72" s="3">
-        <v>182700</v>
+        <v>184500</v>
       </c>
       <c r="I72" s="3">
-        <v>177800</v>
+        <v>182300</v>
       </c>
       <c r="J72" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K72" s="3">
         <v>175000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>166900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>164800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>165600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>153600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>148800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>147100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>135500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>148400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>125300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>115400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>100000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>534000</v>
+        <v>536200</v>
       </c>
       <c r="E76" s="3">
-        <v>531800</v>
+        <v>532800</v>
       </c>
       <c r="F76" s="3">
-        <v>529000</v>
+        <v>530600</v>
       </c>
       <c r="G76" s="3">
-        <v>529600</v>
+        <v>527900</v>
       </c>
       <c r="H76" s="3">
-        <v>527500</v>
+        <v>528500</v>
       </c>
       <c r="I76" s="3">
-        <v>437400</v>
+        <v>526300</v>
       </c>
       <c r="J76" s="3">
+        <v>436400</v>
+      </c>
+      <c r="K76" s="3">
         <v>434300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>419600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>418400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>413700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>399000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>419700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>422300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>395600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>408600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>385400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>325700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>310300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="E81" s="3">
         <v>1500</v>
       </c>
       <c r="F81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2200</v>
       </c>
       <c r="J81" s="3">
         <v>2200</v>
       </c>
       <c r="K81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52800</v>
+        <v>53600</v>
       </c>
       <c r="E83" s="3">
-        <v>53100</v>
+        <v>52700</v>
       </c>
       <c r="F83" s="3">
-        <v>53400</v>
+        <v>53000</v>
       </c>
       <c r="G83" s="3">
-        <v>52800</v>
+        <v>53300</v>
       </c>
       <c r="H83" s="3">
-        <v>51500</v>
+        <v>52700</v>
       </c>
       <c r="I83" s="3">
-        <v>54600</v>
+        <v>51400</v>
       </c>
       <c r="J83" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K83" s="3">
         <v>58000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>53200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>38500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>38500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>64200</v>
+        <v>55100</v>
       </c>
       <c r="E89" s="3">
-        <v>56200</v>
+        <v>64100</v>
       </c>
       <c r="F89" s="3">
-        <v>63900</v>
+        <v>56100</v>
       </c>
       <c r="G89" s="3">
-        <v>59600</v>
+        <v>63800</v>
       </c>
       <c r="H89" s="3">
-        <v>63000</v>
+        <v>59400</v>
       </c>
       <c r="I89" s="3">
-        <v>54900</v>
+        <v>62800</v>
       </c>
       <c r="J89" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K89" s="3">
         <v>71000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>65000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>64100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>53600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>46400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>45800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>92400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>70400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>57800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-35800</v>
-      </c>
       <c r="F91" s="3">
-        <v>-31200</v>
+        <v>-35700</v>
       </c>
       <c r="G91" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-25300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-34000</v>
-      </c>
       <c r="I91" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-25900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-42200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67300</v>
+        <v>-5900</v>
       </c>
       <c r="E94" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-18800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-61100</v>
-      </c>
       <c r="G94" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="H94" s="3">
         <v>21600</v>
       </c>
-      <c r="H94" s="3">
-        <v>-121000</v>
-      </c>
       <c r="I94" s="3">
-        <v>-161400</v>
+        <v>-120700</v>
       </c>
       <c r="J94" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-146800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>43500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-83500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-78100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>52400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>37400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-138500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17000</v>
+        <v>-58800</v>
       </c>
       <c r="E100" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-33600</v>
       </c>
-      <c r="F100" s="3">
-        <v>-16700</v>
-      </c>
       <c r="G100" s="3">
-        <v>-60500</v>
+        <v>-16600</v>
       </c>
       <c r="H100" s="3">
-        <v>71300</v>
+        <v>-60400</v>
       </c>
       <c r="I100" s="3">
-        <v>41100</v>
+        <v>71100</v>
       </c>
       <c r="J100" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-17300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>46300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-63000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-97800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>16800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-159500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-67600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20100</v>
+        <v>-9500</v>
       </c>
       <c r="E102" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13900</v>
       </c>
-      <c r="G102" s="3">
-        <v>20700</v>
-      </c>
       <c r="H102" s="3">
-        <v>13300</v>
+        <v>20600</v>
       </c>
       <c r="I102" s="3">
-        <v>-65400</v>
+        <v>13200</v>
       </c>
       <c r="J102" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="K102" s="3">
         <v>25900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-135400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>84100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-118700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>62800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>258700</v>
+        <v>265100</v>
       </c>
       <c r="E8" s="3">
-        <v>256500</v>
+        <v>266100</v>
       </c>
       <c r="F8" s="3">
-        <v>248800</v>
+        <v>263800</v>
       </c>
       <c r="G8" s="3">
-        <v>246400</v>
+        <v>255900</v>
       </c>
       <c r="H8" s="3">
-        <v>238400</v>
+        <v>253400</v>
       </c>
       <c r="I8" s="3">
-        <v>248500</v>
+        <v>245100</v>
       </c>
       <c r="J8" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K8" s="3">
         <v>256900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>254600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>234900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>238800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>239500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>234300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>232600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>241100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>230100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>227900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>222100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>224300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>229300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>237200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>220400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>218900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>215100</v>
+      </c>
+      <c r="H9" s="3">
         <v>214400</v>
       </c>
-      <c r="E9" s="3">
-        <v>212800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>209100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>208500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>201100</v>
-      </c>
       <c r="I9" s="3">
-        <v>201700</v>
+        <v>206800</v>
       </c>
       <c r="J9" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K9" s="3">
         <v>213400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>212000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>195500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>203600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>204200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>187200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>192900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>196200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>172400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>175700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>182700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>197200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44300</v>
+        <v>53800</v>
       </c>
       <c r="E10" s="3">
-        <v>43700</v>
+        <v>45600</v>
       </c>
       <c r="F10" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>40900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>38300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>43400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>42600</v>
+      </c>
+      <c r="M10" s="3">
+        <v>39400</v>
+      </c>
+      <c r="N10" s="3">
+        <v>35200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>35300</v>
+      </c>
+      <c r="P10" s="3">
+        <v>47000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>39700</v>
       </c>
-      <c r="G10" s="3">
-        <v>37900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>37300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>46800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>43400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>42600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>39400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>35200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>35300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>47000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>39700</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>55500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>46400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>32100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>249500</v>
+        <v>249600</v>
       </c>
       <c r="E17" s="3">
-        <v>247900</v>
+        <v>256600</v>
       </c>
       <c r="F17" s="3">
-        <v>242700</v>
+        <v>255000</v>
       </c>
       <c r="G17" s="3">
-        <v>240200</v>
+        <v>249600</v>
       </c>
       <c r="H17" s="3">
-        <v>232200</v>
+        <v>247000</v>
       </c>
       <c r="I17" s="3">
-        <v>237500</v>
+        <v>238800</v>
       </c>
       <c r="J17" s="3">
+        <v>244200</v>
+      </c>
+      <c r="K17" s="3">
         <v>247600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>246600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>228300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>236100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>235400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>220600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>226200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>231700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>230100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>202500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>189500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>195000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>227100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K18" s="3">
         <v>9200</v>
       </c>
-      <c r="E18" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>11100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>9200</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>25400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E20" s="3">
-        <v>-5900</v>
+        <v>-5100</v>
       </c>
       <c r="F20" s="3">
-        <v>-4000</v>
+        <v>-6000</v>
       </c>
       <c r="G20" s="3">
-        <v>-7400</v>
+        <v>-4100</v>
       </c>
       <c r="H20" s="3">
-        <v>-4000</v>
+        <v>-7600</v>
       </c>
       <c r="I20" s="3">
-        <v>-5900</v>
+        <v>-4100</v>
       </c>
       <c r="J20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14900</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-6400</v>
       </c>
       <c r="V20" s="3">
         <v>-6400</v>
       </c>
       <c r="W20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="X20" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>57900</v>
+        <v>70900</v>
       </c>
       <c r="E21" s="3">
-        <v>55400</v>
+        <v>59500</v>
       </c>
       <c r="F21" s="3">
-        <v>55100</v>
+        <v>57000</v>
       </c>
       <c r="G21" s="3">
-        <v>52000</v>
+        <v>56700</v>
       </c>
       <c r="H21" s="3">
-        <v>54800</v>
+        <v>53500</v>
       </c>
       <c r="I21" s="3">
-        <v>56700</v>
+        <v>56400</v>
       </c>
       <c r="J21" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K21" s="3">
         <v>57600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>56200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>58200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>53800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>60300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>34400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4300</v>
+        <v>10800</v>
       </c>
       <c r="E23" s="3">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="F23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
-        <v>5200</v>
-      </c>
       <c r="J23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-24300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-10500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>5000</v>
       </c>
       <c r="U24" s="3">
         <v>5000</v>
       </c>
       <c r="V24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W24" s="3">
         <v>-2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2800</v>
+        <v>7600</v>
       </c>
       <c r="E26" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="F26" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1500</v>
+        <v>1600</v>
       </c>
       <c r="H26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
-        <v>3100</v>
-      </c>
       <c r="J26" s="3">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K26" s="3">
         <v>2200</v>
       </c>
       <c r="L26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2800</v>
+        <v>7600</v>
       </c>
       <c r="E27" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="F27" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1500</v>
+        <v>1600</v>
       </c>
       <c r="H27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
-        <v>3100</v>
-      </c>
       <c r="J27" s="3">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K27" s="3">
         <v>2200</v>
       </c>
       <c r="L27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E32" s="3">
-        <v>5900</v>
+        <v>5100</v>
       </c>
       <c r="F32" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G32" s="3">
-        <v>7400</v>
+        <v>4100</v>
       </c>
       <c r="H32" s="3">
-        <v>4000</v>
+        <v>7600</v>
       </c>
       <c r="I32" s="3">
-        <v>5900</v>
+        <v>4100</v>
       </c>
       <c r="J32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14900</v>
-      </c>
-      <c r="U32" s="3">
-        <v>6400</v>
       </c>
       <c r="V32" s="3">
         <v>6400</v>
       </c>
       <c r="W32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="X32" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2800</v>
+        <v>7600</v>
       </c>
       <c r="E33" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="F33" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1500</v>
+        <v>1600</v>
       </c>
       <c r="H33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
-        <v>3100</v>
-      </c>
       <c r="J33" s="3">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K33" s="3">
         <v>2200</v>
       </c>
       <c r="L33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2800</v>
+        <v>7600</v>
       </c>
       <c r="E35" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="F35" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1500</v>
+        <v>1600</v>
       </c>
       <c r="H35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
-        <v>3100</v>
-      </c>
       <c r="J35" s="3">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K35" s="3">
         <v>2200</v>
       </c>
       <c r="L35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86200</v>
+        <v>85500</v>
       </c>
       <c r="E41" s="3">
-        <v>95800</v>
+        <v>88700</v>
       </c>
       <c r="F41" s="3">
-        <v>115800</v>
+        <v>98500</v>
       </c>
       <c r="G41" s="3">
-        <v>112100</v>
+        <v>119100</v>
       </c>
       <c r="H41" s="3">
-        <v>126000</v>
+        <v>115300</v>
       </c>
       <c r="I41" s="3">
-        <v>105300</v>
+        <v>129500</v>
       </c>
       <c r="J41" s="3">
+        <v>108300</v>
+      </c>
+      <c r="K41" s="3">
         <v>92100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>157700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>128400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>88700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>122400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>102900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>106800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>117600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>239200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>278700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>247500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>284100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>318700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>158900</v>
+        <v>165000</v>
       </c>
       <c r="E42" s="3">
-        <v>148100</v>
+        <v>163400</v>
       </c>
       <c r="F42" s="3">
-        <v>126600</v>
+        <v>152300</v>
       </c>
       <c r="G42" s="3">
-        <v>202700</v>
+        <v>130200</v>
       </c>
       <c r="H42" s="3">
-        <v>186900</v>
+        <v>208400</v>
       </c>
       <c r="I42" s="3">
-        <v>244200</v>
+        <v>192300</v>
       </c>
       <c r="J42" s="3">
+        <v>251200</v>
+      </c>
+      <c r="K42" s="3">
         <v>170000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>48100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>91100</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>82900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>84900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>87600</v>
-      </c>
-      <c r="R42" s="3">
-        <v>41400</v>
       </c>
       <c r="S42" s="3">
         <v>41400</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="3">
+        <v>41400</v>
+      </c>
+      <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>69800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>126300</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>188500</v>
+        <v>191900</v>
       </c>
       <c r="E43" s="3">
-        <v>195300</v>
+        <v>193800</v>
       </c>
       <c r="F43" s="3">
-        <v>186600</v>
+        <v>200800</v>
       </c>
       <c r="G43" s="3">
-        <v>189700</v>
+        <v>191900</v>
       </c>
       <c r="H43" s="3">
-        <v>183200</v>
+        <v>195100</v>
       </c>
       <c r="I43" s="3">
         <v>188500</v>
       </c>
       <c r="J43" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K43" s="3">
         <v>204200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>195400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>188900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>207800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>202700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>207500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>226200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>239300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>236200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>243100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>253000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>274000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>292500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29300</v>
+        <v>28800</v>
       </c>
       <c r="E44" s="3">
-        <v>32300</v>
+        <v>30100</v>
       </c>
       <c r="F44" s="3">
-        <v>23700</v>
+        <v>33300</v>
       </c>
       <c r="G44" s="3">
-        <v>33600</v>
+        <v>24400</v>
       </c>
       <c r="H44" s="3">
-        <v>40700</v>
+        <v>34500</v>
       </c>
       <c r="I44" s="3">
-        <v>43700</v>
+        <v>41800</v>
       </c>
       <c r="J44" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K44" s="3">
         <v>38200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>30900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>30100</v>
       </c>
       <c r="M44" s="3">
         <v>30100</v>
       </c>
       <c r="N44" s="3">
+        <v>30100</v>
+      </c>
+      <c r="O44" s="3">
         <v>28800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>31200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>25700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>24800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>26800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="F45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="G45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>7800</v>
       </c>
       <c r="M45" s="3">
         <v>7800</v>
       </c>
       <c r="N45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O45" s="3">
         <v>15000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>13100</v>
       </c>
       <c r="P45" s="3">
         <v>13100</v>
       </c>
       <c r="Q45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="R45" s="3">
         <v>12300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>471200</v>
+        <v>479800</v>
       </c>
       <c r="E46" s="3">
-        <v>479800</v>
+        <v>484600</v>
       </c>
       <c r="F46" s="3">
-        <v>460700</v>
+        <v>493500</v>
       </c>
       <c r="G46" s="3">
-        <v>546700</v>
+        <v>473800</v>
       </c>
       <c r="H46" s="3">
-        <v>545400</v>
+        <v>562200</v>
       </c>
       <c r="I46" s="3">
-        <v>590100</v>
+        <v>560900</v>
       </c>
       <c r="J46" s="3">
+        <v>606900</v>
+      </c>
+      <c r="K46" s="3">
         <v>512500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>439800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>427700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>425600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>369000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>429200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>452600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>488000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>554300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>599000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>537200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>667900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>653400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>647800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74200</v>
+        <v>76600</v>
       </c>
       <c r="E47" s="3">
-        <v>73300</v>
+        <v>76300</v>
       </c>
       <c r="F47" s="3">
+        <v>75400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>73500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>74400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>72800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K47" s="3">
+        <v>77000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>77200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>75500</v>
+      </c>
+      <c r="N47" s="3">
+        <v>78500</v>
+      </c>
+      <c r="O47" s="3">
+        <v>76500</v>
+      </c>
+      <c r="P47" s="3">
         <v>71500</v>
       </c>
-      <c r="G47" s="3">
-        <v>72400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>70800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>75500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>77000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>77200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>75500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>78500</v>
-      </c>
-      <c r="N47" s="3">
-        <v>76500</v>
-      </c>
-      <c r="O47" s="3">
-        <v>71500</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>68600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>68900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>64000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>62900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>67600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>79900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>93000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>691100</v>
+        <v>704400</v>
       </c>
       <c r="E48" s="3">
-        <v>670200</v>
+        <v>710700</v>
       </c>
       <c r="F48" s="3">
-        <v>664600</v>
+        <v>689200</v>
       </c>
       <c r="G48" s="3">
-        <v>623400</v>
+        <v>683500</v>
       </c>
       <c r="H48" s="3">
-        <v>615000</v>
+        <v>641100</v>
       </c>
       <c r="I48" s="3">
-        <v>621500</v>
+        <v>632500</v>
       </c>
       <c r="J48" s="3">
+        <v>639200</v>
+      </c>
+      <c r="K48" s="3">
         <v>619700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>627800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>607200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>601500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>356300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>329700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>340000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>343500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>325600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>311200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>310400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>323500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>337200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>279000</v>
+        <v>282200</v>
       </c>
       <c r="E49" s="3">
-        <v>283000</v>
+        <v>287000</v>
       </c>
       <c r="F49" s="3">
-        <v>285800</v>
+        <v>291100</v>
       </c>
       <c r="G49" s="3">
-        <v>288900</v>
+        <v>293900</v>
       </c>
       <c r="H49" s="3">
-        <v>281800</v>
+        <v>297100</v>
       </c>
       <c r="I49" s="3">
-        <v>287700</v>
+        <v>289800</v>
       </c>
       <c r="J49" s="3">
+        <v>295800</v>
+      </c>
+      <c r="K49" s="3">
         <v>291000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>294500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>292900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>302000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>301300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>297200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>310200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>316600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>304600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>309800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>308500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>322900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>335200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>343300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49900</v>
+        <v>59900</v>
       </c>
       <c r="E52" s="3">
-        <v>96400</v>
+        <v>51300</v>
       </c>
       <c r="F52" s="3">
-        <v>95800</v>
+        <v>99100</v>
       </c>
       <c r="G52" s="3">
-        <v>47700</v>
+        <v>98500</v>
       </c>
       <c r="H52" s="3">
-        <v>45900</v>
+        <v>49100</v>
       </c>
       <c r="I52" s="3">
-        <v>43100</v>
+        <v>47200</v>
       </c>
       <c r="J52" s="3">
         <v>44300</v>
       </c>
       <c r="K52" s="3">
+        <v>44300</v>
+      </c>
+      <c r="L52" s="3">
         <v>44400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>66800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>62400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>53200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>41400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>43000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>36000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>33000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1565500</v>
+        <v>1603000</v>
       </c>
       <c r="E54" s="3">
-        <v>1602700</v>
+        <v>1609900</v>
       </c>
       <c r="F54" s="3">
-        <v>1578400</v>
+        <v>1648300</v>
       </c>
       <c r="G54" s="3">
-        <v>1579000</v>
+        <v>1623200</v>
       </c>
       <c r="H54" s="3">
-        <v>1559000</v>
+        <v>1623900</v>
       </c>
       <c r="I54" s="3">
-        <v>1617800</v>
+        <v>1603300</v>
       </c>
       <c r="J54" s="3">
+        <v>1663800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1544500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1483700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1444600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1447300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1169800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1190100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1278000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1301700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1324300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1266700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1430200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1451700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1467600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>223000</v>
+        <v>206800</v>
       </c>
       <c r="E57" s="3">
-        <v>216500</v>
+        <v>229300</v>
       </c>
       <c r="F57" s="3">
-        <v>205100</v>
+        <v>222700</v>
       </c>
       <c r="G57" s="3">
-        <v>213400</v>
+        <v>210900</v>
       </c>
       <c r="H57" s="3">
-        <v>204500</v>
+        <v>219500</v>
       </c>
       <c r="I57" s="3">
-        <v>205400</v>
+        <v>210300</v>
       </c>
       <c r="J57" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K57" s="3">
         <v>220500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>209900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>203600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>217400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>209200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>201200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>203100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>219500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>217100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>193700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>177400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>184100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>190200</v>
       </c>
       <c r="W57" s="3">
         <v>190200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>190200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>154300</v>
+        <v>159900</v>
       </c>
       <c r="E58" s="3">
-        <v>125300</v>
+        <v>158700</v>
       </c>
       <c r="F58" s="3">
-        <v>126300</v>
+        <v>128900</v>
       </c>
       <c r="G58" s="3">
-        <v>128400</v>
+        <v>129900</v>
       </c>
       <c r="H58" s="3">
-        <v>150900</v>
+        <v>132100</v>
       </c>
       <c r="I58" s="3">
+        <v>155200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K58" s="3">
         <v>153400</v>
       </c>
-      <c r="J58" s="3">
-        <v>153400</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>141400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>137100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>90800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>47700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>105700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>104500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>121700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>194500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>153700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>192900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>148300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>139100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>134600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81900</v>
+        <v>106100</v>
       </c>
       <c r="E59" s="3">
-        <v>96100</v>
+        <v>84300</v>
       </c>
       <c r="F59" s="3">
+        <v>98800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>81700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>83900</v>
+      </c>
+      <c r="I59" s="3">
         <v>79500</v>
       </c>
-      <c r="G59" s="3">
-        <v>81600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>77300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>88100</v>
-      </c>
       <c r="J59" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K59" s="3">
         <v>84700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>86100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>82400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>82600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>88700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>91100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>88000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>86400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>85300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>95500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>119600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>459200</v>
+        <v>472900</v>
       </c>
       <c r="E60" s="3">
-        <v>437900</v>
+        <v>472200</v>
       </c>
       <c r="F60" s="3">
-        <v>410800</v>
+        <v>450400</v>
       </c>
       <c r="G60" s="3">
-        <v>423500</v>
+        <v>422500</v>
       </c>
       <c r="H60" s="3">
-        <v>432700</v>
+        <v>435500</v>
       </c>
       <c r="I60" s="3">
-        <v>446900</v>
+        <v>445000</v>
       </c>
       <c r="J60" s="3">
+        <v>459600</v>
+      </c>
+      <c r="K60" s="3">
         <v>458600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>437400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>420800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>390700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>338400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>389600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>396300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>432200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>499700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>433700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>455500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>427900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>448900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>449400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>519900</v>
+        <v>529600</v>
       </c>
       <c r="E61" s="3">
-        <v>579000</v>
+        <v>534600</v>
       </c>
       <c r="F61" s="3">
-        <v>581200</v>
+        <v>595500</v>
       </c>
       <c r="G61" s="3">
-        <v>566100</v>
+        <v>597700</v>
       </c>
       <c r="H61" s="3">
-        <v>539000</v>
+        <v>582100</v>
       </c>
       <c r="I61" s="3">
-        <v>583300</v>
+        <v>554300</v>
       </c>
       <c r="J61" s="3">
+        <v>599900</v>
+      </c>
+      <c r="K61" s="3">
         <v>584900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>549100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>529300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>583500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>354200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>336000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>347900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>351700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>336000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>411100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>352900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>600800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>613400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>677900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50200</v>
+        <v>40200</v>
       </c>
       <c r="E62" s="3">
-        <v>53000</v>
+        <v>51600</v>
       </c>
       <c r="F62" s="3">
-        <v>55700</v>
+        <v>54500</v>
       </c>
       <c r="G62" s="3">
-        <v>61600</v>
+        <v>57300</v>
       </c>
       <c r="H62" s="3">
-        <v>58800</v>
+        <v>63300</v>
       </c>
       <c r="I62" s="3">
-        <v>61300</v>
+        <v>60500</v>
       </c>
       <c r="J62" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K62" s="3">
         <v>64700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>74900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>65300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>69200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>71800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>70900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>75700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>79100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1029300</v>
+        <v>1042700</v>
       </c>
       <c r="E66" s="3">
-        <v>1069900</v>
+        <v>1058500</v>
       </c>
       <c r="F66" s="3">
-        <v>1047700</v>
+        <v>1100300</v>
       </c>
       <c r="G66" s="3">
-        <v>1051100</v>
+        <v>1077500</v>
       </c>
       <c r="H66" s="3">
-        <v>1030500</v>
+        <v>1081000</v>
       </c>
       <c r="I66" s="3">
-        <v>1091500</v>
+        <v>1059800</v>
       </c>
       <c r="J66" s="3">
+        <v>1122500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1108100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1049400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1025000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1028900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>756100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>791100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>813400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>855700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>906100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>915700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>881200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1104500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1141300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1156100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>192200</v>
+        <v>206500</v>
       </c>
       <c r="E72" s="3">
-        <v>188800</v>
+        <v>197600</v>
       </c>
       <c r="F72" s="3">
-        <v>186600</v>
+        <v>194200</v>
       </c>
       <c r="G72" s="3">
-        <v>183900</v>
+        <v>191900</v>
       </c>
       <c r="H72" s="3">
-        <v>184500</v>
+        <v>189100</v>
       </c>
       <c r="I72" s="3">
-        <v>182300</v>
+        <v>189700</v>
       </c>
       <c r="J72" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K72" s="3">
         <v>177400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>175000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>166900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>164800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>165600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>153600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>148800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>147100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>135500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>148400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>125300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>115400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>100000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>536200</v>
+        <v>560300</v>
       </c>
       <c r="E76" s="3">
-        <v>532800</v>
+        <v>551400</v>
       </c>
       <c r="F76" s="3">
-        <v>530600</v>
+        <v>547900</v>
       </c>
       <c r="G76" s="3">
-        <v>527900</v>
+        <v>545700</v>
       </c>
       <c r="H76" s="3">
-        <v>528500</v>
+        <v>542900</v>
       </c>
       <c r="I76" s="3">
-        <v>526300</v>
+        <v>543500</v>
       </c>
       <c r="J76" s="3">
+        <v>541300</v>
+      </c>
+      <c r="K76" s="3">
         <v>436400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>434300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>419600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>418400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>413700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>399000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>419700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>422300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>395600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>408600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>385400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>325700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>310300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2800</v>
+        <v>7600</v>
       </c>
       <c r="E81" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="F81" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1500</v>
+        <v>1600</v>
       </c>
       <c r="H81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
-        <v>3100</v>
-      </c>
       <c r="J81" s="3">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K81" s="3">
         <v>2200</v>
       </c>
       <c r="L81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53600</v>
+        <v>60200</v>
       </c>
       <c r="E83" s="3">
-        <v>52700</v>
+        <v>55100</v>
       </c>
       <c r="F83" s="3">
-        <v>53000</v>
+        <v>54200</v>
       </c>
       <c r="G83" s="3">
-        <v>53300</v>
+        <v>54500</v>
       </c>
       <c r="H83" s="3">
-        <v>52700</v>
+        <v>54800</v>
       </c>
       <c r="I83" s="3">
-        <v>51400</v>
+        <v>54200</v>
       </c>
       <c r="J83" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K83" s="3">
         <v>54500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>53200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>38500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>55100</v>
+        <v>70900</v>
       </c>
       <c r="E89" s="3">
+        <v>56700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>65900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>57600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>65600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>61100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>54800</v>
+      </c>
+      <c r="L89" s="3">
+        <v>71000</v>
+      </c>
+      <c r="M89" s="3">
+        <v>65000</v>
+      </c>
+      <c r="N89" s="3">
         <v>64100</v>
       </c>
-      <c r="F89" s="3">
-        <v>56100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>63800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>59400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>62800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>54800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>71000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>65000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>64100</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>53600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>46400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>92400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>70400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>57800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30500</v>
+        <v>-43100</v>
       </c>
       <c r="E91" s="3">
-        <v>-33600</v>
+        <v>-31400</v>
       </c>
       <c r="F91" s="3">
-        <v>-35700</v>
+        <v>-34500</v>
       </c>
       <c r="G91" s="3">
-        <v>-31100</v>
+        <v>-36700</v>
       </c>
       <c r="H91" s="3">
-        <v>-25300</v>
+        <v>-32000</v>
       </c>
       <c r="I91" s="3">
-        <v>-33900</v>
+        <v>-26000</v>
       </c>
       <c r="J91" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-42200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5900</v>
+        <v>-56100</v>
       </c>
       <c r="E94" s="3">
-        <v>-67100</v>
+        <v>-6000</v>
       </c>
       <c r="F94" s="3">
-        <v>-18800</v>
+        <v>-69000</v>
       </c>
       <c r="G94" s="3">
-        <v>-61000</v>
+        <v>-19300</v>
       </c>
       <c r="H94" s="3">
-        <v>21600</v>
+        <v>-62700</v>
       </c>
       <c r="I94" s="3">
-        <v>-120700</v>
+        <v>22200</v>
       </c>
       <c r="J94" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-161100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-146800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>43500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-83500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-78100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>52400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>37400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-138500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-58800</v>
+        <v>-18100</v>
       </c>
       <c r="E100" s="3">
-        <v>-16900</v>
+        <v>-60500</v>
       </c>
       <c r="F100" s="3">
-        <v>-33600</v>
+        <v>-17400</v>
       </c>
       <c r="G100" s="3">
-        <v>-16600</v>
+        <v>-34500</v>
       </c>
       <c r="H100" s="3">
-        <v>-60400</v>
+        <v>-17100</v>
       </c>
       <c r="I100" s="3">
-        <v>71100</v>
+        <v>-62100</v>
       </c>
       <c r="J100" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K100" s="3">
         <v>41000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>46300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-63000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-97800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-56800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>16800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-159500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-67600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9500</v>
+        <v>-3200</v>
       </c>
       <c r="E102" s="3">
-        <v>-20000</v>
+        <v>-9800</v>
       </c>
       <c r="F102" s="3">
-        <v>3700</v>
+        <v>-20600</v>
       </c>
       <c r="G102" s="3">
-        <v>-13900</v>
+        <v>3800</v>
       </c>
       <c r="H102" s="3">
-        <v>20600</v>
+        <v>-14300</v>
       </c>
       <c r="I102" s="3">
-        <v>13200</v>
+        <v>21200</v>
       </c>
       <c r="J102" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-65300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-36400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-135400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-39500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-33100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>84100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-118700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>62800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,249 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>265100</v>
+        <v>262400</v>
       </c>
       <c r="E8" s="3">
-        <v>266100</v>
+        <v>257500</v>
       </c>
       <c r="F8" s="3">
-        <v>263800</v>
+        <v>258400</v>
       </c>
       <c r="G8" s="3">
-        <v>255900</v>
+        <v>256200</v>
       </c>
       <c r="H8" s="3">
-        <v>253400</v>
+        <v>248500</v>
       </c>
       <c r="I8" s="3">
-        <v>245100</v>
+        <v>246100</v>
       </c>
       <c r="J8" s="3">
+        <v>238100</v>
+      </c>
+      <c r="K8" s="3">
         <v>255600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>256900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>254600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>234900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>238800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>239500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>234300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>232600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>241100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>230100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>227900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>222100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>224300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>229300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>237200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>211300</v>
+        <v>208600</v>
       </c>
       <c r="E9" s="3">
-        <v>220400</v>
+        <v>205200</v>
       </c>
       <c r="F9" s="3">
-        <v>218900</v>
+        <v>214100</v>
       </c>
       <c r="G9" s="3">
-        <v>215100</v>
+        <v>212600</v>
       </c>
       <c r="H9" s="3">
-        <v>214400</v>
+        <v>208900</v>
       </c>
       <c r="I9" s="3">
-        <v>206800</v>
+        <v>208200</v>
       </c>
       <c r="J9" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K9" s="3">
         <v>207500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>213400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>212000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>195500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>203600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>204200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>187200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>192900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>196200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>172400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>175700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>182700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>197200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,67 +915,70 @@
         <v>53800</v>
       </c>
       <c r="E10" s="3">
-        <v>45600</v>
+        <v>52300</v>
       </c>
       <c r="F10" s="3">
-        <v>45000</v>
+        <v>44300</v>
       </c>
       <c r="G10" s="3">
-        <v>40900</v>
+        <v>43700</v>
       </c>
       <c r="H10" s="3">
-        <v>39000</v>
+        <v>39700</v>
       </c>
       <c r="I10" s="3">
-        <v>38300</v>
+        <v>37800</v>
       </c>
       <c r="J10" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K10" s="3">
         <v>48100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>55500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>46400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>41600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>32100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>249600</v>
+        <v>245200</v>
       </c>
       <c r="E17" s="3">
-        <v>256600</v>
+        <v>242400</v>
       </c>
       <c r="F17" s="3">
-        <v>255000</v>
+        <v>249200</v>
       </c>
       <c r="G17" s="3">
-        <v>249600</v>
+        <v>247600</v>
       </c>
       <c r="H17" s="3">
-        <v>247000</v>
+        <v>242400</v>
       </c>
       <c r="I17" s="3">
-        <v>238800</v>
+        <v>239900</v>
       </c>
       <c r="J17" s="3">
+        <v>231900</v>
+      </c>
+      <c r="K17" s="3">
         <v>244200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>247600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>246600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>228300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>236100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>235400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>220600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>226200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>231700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>230100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>202500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>189500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>195000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>227100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15500</v>
+        <v>17200</v>
       </c>
       <c r="E18" s="3">
-        <v>9500</v>
+        <v>15100</v>
       </c>
       <c r="F18" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="G18" s="3">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="H18" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I18" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="J18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K18" s="3">
         <v>11400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>25400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="O20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-6400</v>
       </c>
       <c r="W20" s="3">
         <v>-6400</v>
       </c>
       <c r="X20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>70900</v>
+        <v>67700</v>
       </c>
       <c r="E21" s="3">
-        <v>59500</v>
+        <v>68900</v>
       </c>
       <c r="F21" s="3">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="G21" s="3">
-        <v>56700</v>
+        <v>55400</v>
       </c>
       <c r="H21" s="3">
-        <v>53500</v>
+        <v>55100</v>
       </c>
       <c r="I21" s="3">
-        <v>56400</v>
+        <v>52000</v>
       </c>
       <c r="J21" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K21" s="3">
         <v>58300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>56200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>51700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>58200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>53800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>60300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>34400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P23" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>10800</v>
       </c>
-      <c r="E23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>10800</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-24300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3200</v>
+        <v>-10800</v>
       </c>
       <c r="E24" s="3">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="F24" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>5000</v>
       </c>
       <c r="V24" s="3">
         <v>5000</v>
       </c>
       <c r="W24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X24" s="3">
         <v>-2200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7600</v>
+        <v>23700</v>
       </c>
       <c r="E26" s="3">
-        <v>2900</v>
+        <v>7400</v>
       </c>
       <c r="F26" s="3">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1600</v>
+        <v>1500</v>
       </c>
       <c r="I26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2200</v>
       </c>
       <c r="L26" s="3">
         <v>2200</v>
       </c>
       <c r="M26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7600</v>
+        <v>23700</v>
       </c>
       <c r="E27" s="3">
-        <v>2900</v>
+        <v>7400</v>
       </c>
       <c r="F27" s="3">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1600</v>
+        <v>1500</v>
       </c>
       <c r="I27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2200</v>
       </c>
       <c r="L27" s="3">
         <v>2200</v>
       </c>
       <c r="M27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N32" s="3">
         <v>4800</v>
       </c>
-      <c r="E32" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="O32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T32" s="3">
+        <v>24300</v>
+      </c>
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>5600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>4800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>24300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>6400</v>
       </c>
       <c r="W32" s="3">
         <v>6400</v>
       </c>
       <c r="X32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Y32" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7600</v>
+        <v>23700</v>
       </c>
       <c r="E33" s="3">
-        <v>2900</v>
+        <v>7400</v>
       </c>
       <c r="F33" s="3">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1600</v>
+        <v>1500</v>
       </c>
       <c r="I33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2200</v>
       </c>
       <c r="L33" s="3">
         <v>2200</v>
       </c>
       <c r="M33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7600</v>
+        <v>23700</v>
       </c>
       <c r="E35" s="3">
-        <v>2900</v>
+        <v>7400</v>
       </c>
       <c r="F35" s="3">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1600</v>
+        <v>1500</v>
       </c>
       <c r="I35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2200</v>
       </c>
       <c r="L35" s="3">
         <v>2200</v>
       </c>
       <c r="M35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85500</v>
+        <v>94700</v>
       </c>
       <c r="E41" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>86100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>95700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>115700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>112000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>125800</v>
+      </c>
+      <c r="K41" s="3">
+        <v>108300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>92100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>157700</v>
+      </c>
+      <c r="N41" s="3">
+        <v>128400</v>
+      </c>
+      <c r="O41" s="3">
         <v>88700</v>
       </c>
-      <c r="F41" s="3">
-        <v>98500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>119100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>115300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>129500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>108300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>92100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>157700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>128400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>88700</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>122400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>102900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>106800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>117600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>239200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>278700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>247500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>284100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>318700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>165000</v>
+        <v>105800</v>
       </c>
       <c r="E42" s="3">
-        <v>163400</v>
+        <v>160300</v>
       </c>
       <c r="F42" s="3">
-        <v>152300</v>
+        <v>158700</v>
       </c>
       <c r="G42" s="3">
-        <v>130200</v>
+        <v>148000</v>
       </c>
       <c r="H42" s="3">
-        <v>208400</v>
+        <v>126400</v>
       </c>
       <c r="I42" s="3">
-        <v>192300</v>
+        <v>202400</v>
       </c>
       <c r="J42" s="3">
+        <v>186700</v>
+      </c>
+      <c r="K42" s="3">
         <v>251200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>170000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>48100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>91100</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>82900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>84900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>87600</v>
-      </c>
-      <c r="S42" s="3">
-        <v>41400</v>
       </c>
       <c r="T42" s="3">
         <v>41400</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="U42" s="3">
+        <v>41400</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>69800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>126300</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>191900</v>
+        <v>222400</v>
       </c>
       <c r="E43" s="3">
+        <v>186400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>188300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>195000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>186400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>189500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>183000</v>
+      </c>
+      <c r="K43" s="3">
         <v>193800</v>
       </c>
-      <c r="F43" s="3">
-        <v>200800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>191900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>195100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>188500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>193800</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>204200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>195400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>188900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>207800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>202700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>207500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>226200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>239300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>236200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>243100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>253000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>274000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>292500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28800</v>
+        <v>26800</v>
       </c>
       <c r="E44" s="3">
-        <v>30100</v>
+        <v>28000</v>
       </c>
       <c r="F44" s="3">
-        <v>33300</v>
+        <v>29200</v>
       </c>
       <c r="G44" s="3">
-        <v>24400</v>
+        <v>32300</v>
       </c>
       <c r="H44" s="3">
-        <v>34500</v>
+        <v>23700</v>
       </c>
       <c r="I44" s="3">
-        <v>41800</v>
+        <v>33500</v>
       </c>
       <c r="J44" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K44" s="3">
         <v>45000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>30900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>30100</v>
       </c>
       <c r="N44" s="3">
         <v>30100</v>
       </c>
       <c r="O44" s="3">
+        <v>30100</v>
+      </c>
+      <c r="P44" s="3">
         <v>28800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>21600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>25700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>24800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>26300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>26800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I45" s="3">
         <v>8600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8900</v>
       </c>
       <c r="J45" s="3">
         <v>8600</v>
       </c>
       <c r="K45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>7800</v>
       </c>
       <c r="N45" s="3">
         <v>7800</v>
       </c>
       <c r="O45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="P45" s="3">
         <v>15000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>13100</v>
       </c>
       <c r="Q45" s="3">
         <v>13100</v>
       </c>
       <c r="R45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="S45" s="3">
         <v>12300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>479800</v>
+        <v>458000</v>
       </c>
       <c r="E46" s="3">
-        <v>484600</v>
+        <v>466000</v>
       </c>
       <c r="F46" s="3">
-        <v>493500</v>
+        <v>470600</v>
       </c>
       <c r="G46" s="3">
-        <v>473800</v>
+        <v>479200</v>
       </c>
       <c r="H46" s="3">
-        <v>562200</v>
+        <v>460200</v>
       </c>
       <c r="I46" s="3">
-        <v>560900</v>
+        <v>546000</v>
       </c>
       <c r="J46" s="3">
+        <v>544800</v>
+      </c>
+      <c r="K46" s="3">
         <v>606900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>512500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>439800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>427700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>425600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>369000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>429200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>452600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>488000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>554300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>599000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>537200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>667900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>653400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>647800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76600</v>
+        <v>75400</v>
       </c>
       <c r="E47" s="3">
-        <v>76300</v>
+        <v>74400</v>
       </c>
       <c r="F47" s="3">
-        <v>75400</v>
+        <v>74100</v>
       </c>
       <c r="G47" s="3">
-        <v>73500</v>
+        <v>73200</v>
       </c>
       <c r="H47" s="3">
-        <v>74400</v>
+        <v>71400</v>
       </c>
       <c r="I47" s="3">
-        <v>72800</v>
+        <v>72300</v>
       </c>
       <c r="J47" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K47" s="3">
         <v>77600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>75500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>78500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>76500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>71500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>68600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>68900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>64000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>62900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>67600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>79900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>93000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>704400</v>
+        <v>714600</v>
       </c>
       <c r="E48" s="3">
-        <v>710700</v>
+        <v>684100</v>
       </c>
       <c r="F48" s="3">
-        <v>689200</v>
+        <v>690300</v>
       </c>
       <c r="G48" s="3">
-        <v>683500</v>
+        <v>669300</v>
       </c>
       <c r="H48" s="3">
-        <v>641100</v>
+        <v>663800</v>
       </c>
       <c r="I48" s="3">
-        <v>632500</v>
+        <v>622600</v>
       </c>
       <c r="J48" s="3">
+        <v>614300</v>
+      </c>
+      <c r="K48" s="3">
         <v>639200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>619700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>627800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>607200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>601500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>356300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>329700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>340000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>343500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>325600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>311200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>310400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>323500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>337200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>282200</v>
+        <v>270400</v>
       </c>
       <c r="E49" s="3">
-        <v>287000</v>
+        <v>274100</v>
       </c>
       <c r="F49" s="3">
-        <v>291100</v>
+        <v>278700</v>
       </c>
       <c r="G49" s="3">
-        <v>293900</v>
+        <v>282700</v>
       </c>
       <c r="H49" s="3">
-        <v>297100</v>
+        <v>285500</v>
       </c>
       <c r="I49" s="3">
-        <v>289800</v>
+        <v>288500</v>
       </c>
       <c r="J49" s="3">
+        <v>281500</v>
+      </c>
+      <c r="K49" s="3">
         <v>295800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>291000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>294500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>292900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>302000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>301300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>297200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>310200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>316600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>304600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>309800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>308500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>322900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>335200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>343300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59900</v>
+        <v>140600</v>
       </c>
       <c r="E52" s="3">
-        <v>51300</v>
+        <v>58100</v>
       </c>
       <c r="F52" s="3">
-        <v>99100</v>
+        <v>49800</v>
       </c>
       <c r="G52" s="3">
-        <v>98500</v>
+        <v>96300</v>
       </c>
       <c r="H52" s="3">
-        <v>49100</v>
+        <v>95700</v>
       </c>
       <c r="I52" s="3">
-        <v>47200</v>
+        <v>47700</v>
       </c>
       <c r="J52" s="3">
-        <v>44300</v>
+        <v>45800</v>
       </c>
       <c r="K52" s="3">
         <v>44300</v>
       </c>
       <c r="L52" s="3">
+        <v>44300</v>
+      </c>
+      <c r="M52" s="3">
         <v>44400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>66800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>62400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>53200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>41400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>43000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>36000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>33000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1603000</v>
+        <v>1658900</v>
       </c>
       <c r="E54" s="3">
-        <v>1609900</v>
+        <v>1556800</v>
       </c>
       <c r="F54" s="3">
-        <v>1648300</v>
+        <v>1563500</v>
       </c>
       <c r="G54" s="3">
-        <v>1623200</v>
+        <v>1600800</v>
       </c>
       <c r="H54" s="3">
-        <v>1623900</v>
+        <v>1576500</v>
       </c>
       <c r="I54" s="3">
-        <v>1603300</v>
+        <v>1577100</v>
       </c>
       <c r="J54" s="3">
+        <v>1557100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1663800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1544500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1483700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1444600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1447300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1169800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1190100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1233000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1278000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1301700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1324300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1266700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1430200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1451700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1467600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>206800</v>
+        <v>216900</v>
       </c>
       <c r="E57" s="3">
-        <v>229300</v>
+        <v>200900</v>
       </c>
       <c r="F57" s="3">
         <v>222700</v>
       </c>
       <c r="G57" s="3">
-        <v>210900</v>
+        <v>216200</v>
       </c>
       <c r="H57" s="3">
+        <v>204900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>213200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>211300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>220500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>209900</v>
+      </c>
+      <c r="N57" s="3">
+        <v>203600</v>
+      </c>
+      <c r="O57" s="3">
+        <v>217400</v>
+      </c>
+      <c r="P57" s="3">
+        <v>209200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>201200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>203100</v>
+      </c>
+      <c r="S57" s="3">
         <v>219500</v>
       </c>
-      <c r="I57" s="3">
-        <v>210300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>211300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>220500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>209900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>203600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>217400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>209200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>201200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>203100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>219500</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>217100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>193700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>177400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>184100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>190200</v>
       </c>
       <c r="X57" s="3">
         <v>190200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>190200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159900</v>
+        <v>120900</v>
       </c>
       <c r="E58" s="3">
-        <v>158700</v>
+        <v>155300</v>
       </c>
       <c r="F58" s="3">
-        <v>128900</v>
+        <v>154100</v>
       </c>
       <c r="G58" s="3">
-        <v>129900</v>
+        <v>125200</v>
       </c>
       <c r="H58" s="3">
-        <v>132100</v>
+        <v>126100</v>
       </c>
       <c r="I58" s="3">
-        <v>155200</v>
+        <v>128300</v>
       </c>
       <c r="J58" s="3">
+        <v>150700</v>
+      </c>
+      <c r="K58" s="3">
         <v>157700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>153400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>141400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>137100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>90800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>47700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>105700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>104500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>121700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>194500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>153700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>192900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>148300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>139100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>134600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>106100</v>
+        <v>99700</v>
       </c>
       <c r="E59" s="3">
-        <v>84300</v>
+        <v>103000</v>
       </c>
       <c r="F59" s="3">
-        <v>98800</v>
+        <v>81800</v>
       </c>
       <c r="G59" s="3">
-        <v>81700</v>
+        <v>96000</v>
       </c>
       <c r="H59" s="3">
-        <v>83900</v>
+        <v>79400</v>
       </c>
       <c r="I59" s="3">
-        <v>79500</v>
+        <v>81500</v>
       </c>
       <c r="J59" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K59" s="3">
         <v>90600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>86100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>82400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>82600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>88700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>91100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>88000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>86400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>85300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>95500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>119600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>472900</v>
+        <v>437400</v>
       </c>
       <c r="E60" s="3">
-        <v>472200</v>
+        <v>459200</v>
       </c>
       <c r="F60" s="3">
-        <v>450400</v>
+        <v>458600</v>
       </c>
       <c r="G60" s="3">
-        <v>422500</v>
+        <v>437400</v>
       </c>
       <c r="H60" s="3">
-        <v>435500</v>
+        <v>410300</v>
       </c>
       <c r="I60" s="3">
-        <v>445000</v>
+        <v>423000</v>
       </c>
       <c r="J60" s="3">
+        <v>432200</v>
+      </c>
+      <c r="K60" s="3">
         <v>459600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>458600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>437400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>420800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>390700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>338400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>389600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>396300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>432200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>499700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>433700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>455500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>427900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>448900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>449400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>529600</v>
+        <v>616100</v>
       </c>
       <c r="E61" s="3">
-        <v>534600</v>
+        <v>514300</v>
       </c>
       <c r="F61" s="3">
-        <v>595500</v>
+        <v>519200</v>
       </c>
       <c r="G61" s="3">
-        <v>597700</v>
+        <v>578300</v>
       </c>
       <c r="H61" s="3">
-        <v>582100</v>
+        <v>580400</v>
       </c>
       <c r="I61" s="3">
-        <v>554300</v>
+        <v>565400</v>
       </c>
       <c r="J61" s="3">
+        <v>538300</v>
+      </c>
+      <c r="K61" s="3">
         <v>599900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>584900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>549100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>529300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>583500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>354200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>336000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>347900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>351700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>336000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>411100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>352900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>600800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>613400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>677900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40200</v>
+        <v>33500</v>
       </c>
       <c r="E62" s="3">
-        <v>51600</v>
+        <v>39100</v>
       </c>
       <c r="F62" s="3">
-        <v>54500</v>
+        <v>50100</v>
       </c>
       <c r="G62" s="3">
-        <v>57300</v>
+        <v>52900</v>
       </c>
       <c r="H62" s="3">
-        <v>63300</v>
+        <v>55700</v>
       </c>
       <c r="I62" s="3">
-        <v>60500</v>
+        <v>61500</v>
       </c>
       <c r="J62" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K62" s="3">
         <v>63000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>74900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>63600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>65300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>69200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>71800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>70400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>70900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>75700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>79100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1042700</v>
+        <v>1087100</v>
       </c>
       <c r="E66" s="3">
-        <v>1058500</v>
+        <v>1012600</v>
       </c>
       <c r="F66" s="3">
-        <v>1100300</v>
+        <v>1028000</v>
       </c>
       <c r="G66" s="3">
-        <v>1077500</v>
+        <v>1068600</v>
       </c>
       <c r="H66" s="3">
-        <v>1081000</v>
+        <v>1046500</v>
       </c>
       <c r="I66" s="3">
-        <v>1059800</v>
+        <v>1049800</v>
       </c>
       <c r="J66" s="3">
+        <v>1029200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1122500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1108100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1049400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1025000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1028900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>756100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>791100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>813400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>855700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>906100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>915700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>881200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1104500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1141300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1156100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>206500</v>
+        <v>228200</v>
       </c>
       <c r="E72" s="3">
-        <v>197600</v>
+        <v>200600</v>
       </c>
       <c r="F72" s="3">
-        <v>194200</v>
+        <v>191900</v>
       </c>
       <c r="G72" s="3">
-        <v>191900</v>
+        <v>188600</v>
       </c>
       <c r="H72" s="3">
-        <v>189100</v>
+        <v>186400</v>
       </c>
       <c r="I72" s="3">
-        <v>189700</v>
+        <v>183600</v>
       </c>
       <c r="J72" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K72" s="3">
         <v>187500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>177400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>175000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>166900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>164800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>165600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>153600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>148800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>147100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>135500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>148400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>125300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>115400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>100000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>560300</v>
+        <v>571800</v>
       </c>
       <c r="E76" s="3">
-        <v>551400</v>
+        <v>544100</v>
       </c>
       <c r="F76" s="3">
-        <v>547900</v>
+        <v>535500</v>
       </c>
       <c r="G76" s="3">
-        <v>545700</v>
+        <v>532100</v>
       </c>
       <c r="H76" s="3">
-        <v>542900</v>
+        <v>530000</v>
       </c>
       <c r="I76" s="3">
-        <v>543500</v>
+        <v>527200</v>
       </c>
       <c r="J76" s="3">
+        <v>527800</v>
+      </c>
+      <c r="K76" s="3">
         <v>541300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>436400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>434300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>419600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>418400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>413700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>399000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>419700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>422300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>395600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>408600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>385400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>325700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>310300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7600</v>
+        <v>23700</v>
       </c>
       <c r="E81" s="3">
-        <v>2900</v>
+        <v>7400</v>
       </c>
       <c r="F81" s="3">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1600</v>
+        <v>1500</v>
       </c>
       <c r="I81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2200</v>
       </c>
       <c r="L81" s="3">
         <v>2200</v>
       </c>
       <c r="M81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>60200</v>
+        <v>54800</v>
       </c>
       <c r="E83" s="3">
-        <v>55100</v>
+        <v>58400</v>
       </c>
       <c r="F83" s="3">
-        <v>54200</v>
+        <v>53500</v>
       </c>
       <c r="G83" s="3">
+        <v>52600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>52900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>53200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>52900</v>
+      </c>
+      <c r="L83" s="3">
         <v>54500</v>
       </c>
-      <c r="H83" s="3">
-        <v>54800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>54200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>52900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>54500</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>38900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>38500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>70900</v>
+        <v>50100</v>
       </c>
       <c r="E89" s="3">
-        <v>56700</v>
+        <v>68900</v>
       </c>
       <c r="F89" s="3">
-        <v>65900</v>
+        <v>55100</v>
       </c>
       <c r="G89" s="3">
-        <v>57600</v>
+        <v>64000</v>
       </c>
       <c r="H89" s="3">
-        <v>65600</v>
+        <v>56000</v>
       </c>
       <c r="I89" s="3">
-        <v>61100</v>
+        <v>63700</v>
       </c>
       <c r="J89" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K89" s="3">
         <v>64600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>54800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>71000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>65000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>64100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>53600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>46400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>45800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>48600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>92400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>70400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>57800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>87400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43100</v>
+        <v>-53800</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-41800</v>
       </c>
       <c r="F91" s="3">
-        <v>-34500</v>
+        <v>-30500</v>
       </c>
       <c r="G91" s="3">
-        <v>-36700</v>
+        <v>-33500</v>
       </c>
       <c r="H91" s="3">
-        <v>-32000</v>
+        <v>-35700</v>
       </c>
       <c r="I91" s="3">
-        <v>-26000</v>
+        <v>-31100</v>
       </c>
       <c r="J91" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-34800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-42200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-56100</v>
+        <v>-96300</v>
       </c>
       <c r="E94" s="3">
-        <v>-6000</v>
+        <v>-54400</v>
       </c>
       <c r="F94" s="3">
-        <v>-69000</v>
+        <v>-5800</v>
       </c>
       <c r="G94" s="3">
-        <v>-19300</v>
+        <v>-67100</v>
       </c>
       <c r="H94" s="3">
-        <v>-62700</v>
+        <v>-18800</v>
       </c>
       <c r="I94" s="3">
-        <v>22200</v>
+        <v>-60900</v>
       </c>
       <c r="J94" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-124200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-161100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-146800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>43500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-83500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-78100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>52400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>37400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-138500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18100</v>
+        <v>57800</v>
       </c>
       <c r="E100" s="3">
-        <v>-60500</v>
+        <v>-17500</v>
       </c>
       <c r="F100" s="3">
-        <v>-17400</v>
+        <v>-58800</v>
       </c>
       <c r="G100" s="3">
-        <v>-34500</v>
+        <v>-16900</v>
       </c>
       <c r="H100" s="3">
-        <v>-17100</v>
+        <v>-33500</v>
       </c>
       <c r="I100" s="3">
-        <v>-62100</v>
+        <v>-16600</v>
       </c>
       <c r="J100" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K100" s="3">
         <v>73200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>41000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>46300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-63000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-29500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-97800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>16800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-159500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-67600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3200</v>
+        <v>11700</v>
       </c>
       <c r="E102" s="3">
-        <v>-9800</v>
+        <v>-3100</v>
       </c>
       <c r="F102" s="3">
-        <v>-20600</v>
+        <v>-9500</v>
       </c>
       <c r="G102" s="3">
-        <v>3800</v>
+        <v>-20000</v>
       </c>
       <c r="H102" s="3">
-        <v>-14300</v>
+        <v>3700</v>
       </c>
       <c r="I102" s="3">
-        <v>21200</v>
+        <v>-13800</v>
       </c>
       <c r="J102" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K102" s="3">
         <v>13600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-65300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-36400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-135400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-39500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-33100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>84100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-118700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>62800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>262400</v>
+        <v>247900</v>
       </c>
       <c r="E8" s="3">
-        <v>257500</v>
+        <v>243300</v>
       </c>
       <c r="F8" s="3">
-        <v>258400</v>
+        <v>244100</v>
       </c>
       <c r="G8" s="3">
-        <v>256200</v>
+        <v>242100</v>
       </c>
       <c r="H8" s="3">
-        <v>248500</v>
+        <v>234800</v>
       </c>
       <c r="I8" s="3">
-        <v>246100</v>
+        <v>232500</v>
       </c>
       <c r="J8" s="3">
-        <v>238100</v>
+        <v>225000</v>
       </c>
       <c r="K8" s="3">
         <v>255600</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>208600</v>
+        <v>197100</v>
       </c>
       <c r="E9" s="3">
-        <v>205200</v>
+        <v>193900</v>
       </c>
       <c r="F9" s="3">
-        <v>214100</v>
+        <v>202300</v>
       </c>
       <c r="G9" s="3">
-        <v>212600</v>
+        <v>200800</v>
       </c>
       <c r="H9" s="3">
-        <v>208900</v>
+        <v>197300</v>
       </c>
       <c r="I9" s="3">
-        <v>208200</v>
+        <v>196800</v>
       </c>
       <c r="J9" s="3">
-        <v>200900</v>
+        <v>189800</v>
       </c>
       <c r="K9" s="3">
         <v>207500</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>53800</v>
+        <v>50900</v>
       </c>
       <c r="E10" s="3">
-        <v>52300</v>
+        <v>49400</v>
       </c>
       <c r="F10" s="3">
-        <v>44300</v>
+        <v>41900</v>
       </c>
       <c r="G10" s="3">
-        <v>43700</v>
+        <v>41300</v>
       </c>
       <c r="H10" s="3">
-        <v>39700</v>
+        <v>37500</v>
       </c>
       <c r="I10" s="3">
-        <v>37800</v>
+        <v>35700</v>
       </c>
       <c r="J10" s="3">
-        <v>37200</v>
+        <v>35200</v>
       </c>
       <c r="K10" s="3">
         <v>48100</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>245200</v>
+        <v>231600</v>
       </c>
       <c r="E17" s="3">
-        <v>242400</v>
+        <v>229000</v>
       </c>
       <c r="F17" s="3">
-        <v>249200</v>
+        <v>235400</v>
       </c>
       <c r="G17" s="3">
-        <v>247600</v>
+        <v>234000</v>
       </c>
       <c r="H17" s="3">
-        <v>242400</v>
+        <v>229000</v>
       </c>
       <c r="I17" s="3">
-        <v>239900</v>
+        <v>226700</v>
       </c>
       <c r="J17" s="3">
-        <v>231900</v>
+        <v>219100</v>
       </c>
       <c r="K17" s="3">
         <v>244200</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="E18" s="3">
-        <v>15100</v>
+        <v>14200</v>
       </c>
       <c r="F18" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="G18" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="H18" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="I18" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="J18" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="K18" s="3">
         <v>11400</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="F20" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="I20" s="3">
-        <v>-7400</v>
+        <v>-7000</v>
       </c>
       <c r="J20" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="K20" s="3">
         <v>-6000</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>67700</v>
+        <v>63900</v>
       </c>
       <c r="E21" s="3">
-        <v>68900</v>
+        <v>65100</v>
       </c>
       <c r="F21" s="3">
-        <v>57800</v>
+        <v>54600</v>
       </c>
       <c r="G21" s="3">
-        <v>55400</v>
+        <v>52300</v>
       </c>
       <c r="H21" s="3">
-        <v>55100</v>
+        <v>52000</v>
       </c>
       <c r="I21" s="3">
-        <v>52000</v>
+        <v>49100</v>
       </c>
       <c r="J21" s="3">
-        <v>54800</v>
+        <v>51700</v>
       </c>
       <c r="K21" s="3">
         <v>58300</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12900</v>
+        <v>12200</v>
       </c>
       <c r="E23" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="F23" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G23" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H23" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="I23" s="3">
         <v>-1200</v>
       </c>
       <c r="J23" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K23" s="3">
         <v>5400</v>
@@ -1771,10 +1771,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10800</v>
+        <v>-10200</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F24" s="3">
         <v>1500</v>
@@ -1913,13 +1913,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>23700</v>
+        <v>22400</v>
       </c>
       <c r="E26" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="F26" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G26" s="3">
         <v>1500</v>
@@ -1931,7 +1931,7 @@
         <v>-1500</v>
       </c>
       <c r="J26" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K26" s="3">
         <v>3200</v>
@@ -1984,13 +1984,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23700</v>
+        <v>22400</v>
       </c>
       <c r="E27" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="F27" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G27" s="3">
         <v>1500</v>
@@ -2002,7 +2002,7 @@
         <v>-1500</v>
       </c>
       <c r="J27" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K27" s="3">
         <v>3200</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E32" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F32" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="G32" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="H32" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I32" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="J32" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K32" s="3">
         <v>6000</v>
@@ -2410,13 +2410,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23700</v>
+        <v>22400</v>
       </c>
       <c r="E33" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="F33" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G33" s="3">
         <v>1500</v>
@@ -2428,7 +2428,7 @@
         <v>-1500</v>
       </c>
       <c r="J33" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K33" s="3">
         <v>3200</v>
@@ -2552,13 +2552,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23700</v>
+        <v>22400</v>
       </c>
       <c r="E35" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="F35" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G35" s="3">
         <v>1500</v>
@@ -2570,7 +2570,7 @@
         <v>-1500</v>
       </c>
       <c r="J35" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K35" s="3">
         <v>3200</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94700</v>
+        <v>89500</v>
       </c>
       <c r="E41" s="3">
-        <v>83100</v>
+        <v>78500</v>
       </c>
       <c r="F41" s="3">
-        <v>86100</v>
+        <v>81400</v>
       </c>
       <c r="G41" s="3">
-        <v>95700</v>
+        <v>90400</v>
       </c>
       <c r="H41" s="3">
-        <v>115700</v>
+        <v>109300</v>
       </c>
       <c r="I41" s="3">
-        <v>112000</v>
+        <v>105800</v>
       </c>
       <c r="J41" s="3">
-        <v>125800</v>
+        <v>118900</v>
       </c>
       <c r="K41" s="3">
         <v>108300</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105800</v>
+        <v>100000</v>
       </c>
       <c r="E42" s="3">
-        <v>160300</v>
+        <v>151400</v>
       </c>
       <c r="F42" s="3">
-        <v>158700</v>
+        <v>150000</v>
       </c>
       <c r="G42" s="3">
-        <v>148000</v>
+        <v>139800</v>
       </c>
       <c r="H42" s="3">
-        <v>126400</v>
+        <v>119500</v>
       </c>
       <c r="I42" s="3">
-        <v>202400</v>
+        <v>191200</v>
       </c>
       <c r="J42" s="3">
-        <v>186700</v>
+        <v>176400</v>
       </c>
       <c r="K42" s="3">
         <v>251200</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>222400</v>
+        <v>210100</v>
       </c>
       <c r="E43" s="3">
-        <v>186400</v>
+        <v>176100</v>
       </c>
       <c r="F43" s="3">
-        <v>188300</v>
+        <v>177900</v>
       </c>
       <c r="G43" s="3">
-        <v>195000</v>
+        <v>184300</v>
       </c>
       <c r="H43" s="3">
-        <v>186400</v>
+        <v>176100</v>
       </c>
       <c r="I43" s="3">
-        <v>189500</v>
+        <v>179000</v>
       </c>
       <c r="J43" s="3">
-        <v>183000</v>
+        <v>172900</v>
       </c>
       <c r="K43" s="3">
         <v>193800</v>
@@ -2966,25 +2966,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26800</v>
+        <v>25300</v>
       </c>
       <c r="E44" s="3">
-        <v>28000</v>
+        <v>26400</v>
       </c>
       <c r="F44" s="3">
-        <v>29200</v>
+        <v>27600</v>
       </c>
       <c r="G44" s="3">
-        <v>32300</v>
+        <v>30500</v>
       </c>
       <c r="H44" s="3">
-        <v>23700</v>
+        <v>22400</v>
       </c>
       <c r="I44" s="3">
-        <v>33500</v>
+        <v>31700</v>
       </c>
       <c r="J44" s="3">
-        <v>40600</v>
+        <v>38400</v>
       </c>
       <c r="K44" s="3">
         <v>45000</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="F45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="G45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="H45" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="I45" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="J45" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="K45" s="3">
         <v>8600</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>458000</v>
+        <v>432800</v>
       </c>
       <c r="E46" s="3">
-        <v>466000</v>
+        <v>440300</v>
       </c>
       <c r="F46" s="3">
-        <v>470600</v>
+        <v>444700</v>
       </c>
       <c r="G46" s="3">
-        <v>479200</v>
+        <v>452800</v>
       </c>
       <c r="H46" s="3">
-        <v>460200</v>
+        <v>434800</v>
       </c>
       <c r="I46" s="3">
-        <v>546000</v>
+        <v>515900</v>
       </c>
       <c r="J46" s="3">
-        <v>544800</v>
+        <v>514700</v>
       </c>
       <c r="K46" s="3">
         <v>606900</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75400</v>
+        <v>71200</v>
       </c>
       <c r="E47" s="3">
-        <v>74400</v>
+        <v>70300</v>
       </c>
       <c r="F47" s="3">
-        <v>74100</v>
+        <v>70000</v>
       </c>
       <c r="G47" s="3">
-        <v>73200</v>
+        <v>69200</v>
       </c>
       <c r="H47" s="3">
-        <v>71400</v>
+        <v>67400</v>
       </c>
       <c r="I47" s="3">
-        <v>72300</v>
+        <v>68300</v>
       </c>
       <c r="J47" s="3">
-        <v>70700</v>
+        <v>66800</v>
       </c>
       <c r="K47" s="3">
         <v>77600</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>714600</v>
+        <v>675200</v>
       </c>
       <c r="E48" s="3">
-        <v>684100</v>
+        <v>646400</v>
       </c>
       <c r="F48" s="3">
-        <v>690300</v>
+        <v>652200</v>
       </c>
       <c r="G48" s="3">
-        <v>669300</v>
+        <v>632400</v>
       </c>
       <c r="H48" s="3">
-        <v>663800</v>
+        <v>627200</v>
       </c>
       <c r="I48" s="3">
-        <v>622600</v>
+        <v>588300</v>
       </c>
       <c r="J48" s="3">
-        <v>614300</v>
+        <v>580400</v>
       </c>
       <c r="K48" s="3">
         <v>639200</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>270400</v>
+        <v>255500</v>
       </c>
       <c r="E49" s="3">
-        <v>274100</v>
+        <v>259000</v>
       </c>
       <c r="F49" s="3">
-        <v>278700</v>
+        <v>263300</v>
       </c>
       <c r="G49" s="3">
-        <v>282700</v>
+        <v>267100</v>
       </c>
       <c r="H49" s="3">
-        <v>285500</v>
+        <v>269700</v>
       </c>
       <c r="I49" s="3">
-        <v>288500</v>
+        <v>272600</v>
       </c>
       <c r="J49" s="3">
-        <v>281500</v>
+        <v>265900</v>
       </c>
       <c r="K49" s="3">
         <v>295800</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140600</v>
+        <v>132800</v>
       </c>
       <c r="E52" s="3">
-        <v>58100</v>
+        <v>54900</v>
       </c>
       <c r="F52" s="3">
-        <v>49800</v>
+        <v>47100</v>
       </c>
       <c r="G52" s="3">
-        <v>96300</v>
+        <v>91000</v>
       </c>
       <c r="H52" s="3">
-        <v>95700</v>
+        <v>90400</v>
       </c>
       <c r="I52" s="3">
-        <v>47700</v>
+        <v>45000</v>
       </c>
       <c r="J52" s="3">
-        <v>45800</v>
+        <v>43300</v>
       </c>
       <c r="K52" s="3">
         <v>44300</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1658900</v>
+        <v>1567400</v>
       </c>
       <c r="E54" s="3">
-        <v>1556800</v>
+        <v>1470900</v>
       </c>
       <c r="F54" s="3">
-        <v>1563500</v>
+        <v>1477300</v>
       </c>
       <c r="G54" s="3">
-        <v>1600800</v>
+        <v>1512500</v>
       </c>
       <c r="H54" s="3">
-        <v>1576500</v>
+        <v>1489500</v>
       </c>
       <c r="I54" s="3">
-        <v>1577100</v>
+        <v>1490100</v>
       </c>
       <c r="J54" s="3">
-        <v>1557100</v>
+        <v>1471200</v>
       </c>
       <c r="K54" s="3">
         <v>1663800</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>216900</v>
+        <v>204900</v>
       </c>
       <c r="E57" s="3">
-        <v>200900</v>
+        <v>189800</v>
       </c>
       <c r="F57" s="3">
-        <v>222700</v>
+        <v>210400</v>
       </c>
       <c r="G57" s="3">
-        <v>216200</v>
+        <v>204300</v>
       </c>
       <c r="H57" s="3">
-        <v>204900</v>
+        <v>193600</v>
       </c>
       <c r="I57" s="3">
-        <v>213200</v>
+        <v>201400</v>
       </c>
       <c r="J57" s="3">
-        <v>204200</v>
+        <v>193000</v>
       </c>
       <c r="K57" s="3">
         <v>211300</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>120900</v>
+        <v>114200</v>
       </c>
       <c r="E58" s="3">
-        <v>155300</v>
+        <v>146800</v>
       </c>
       <c r="F58" s="3">
-        <v>154100</v>
+        <v>145600</v>
       </c>
       <c r="G58" s="3">
-        <v>125200</v>
+        <v>118300</v>
       </c>
       <c r="H58" s="3">
-        <v>126100</v>
+        <v>119200</v>
       </c>
       <c r="I58" s="3">
-        <v>128300</v>
+        <v>121200</v>
       </c>
       <c r="J58" s="3">
-        <v>150700</v>
+        <v>142400</v>
       </c>
       <c r="K58" s="3">
         <v>157700</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99700</v>
+        <v>94200</v>
       </c>
       <c r="E59" s="3">
-        <v>103000</v>
+        <v>97400</v>
       </c>
       <c r="F59" s="3">
-        <v>81800</v>
+        <v>77300</v>
       </c>
       <c r="G59" s="3">
-        <v>96000</v>
+        <v>90700</v>
       </c>
       <c r="H59" s="3">
-        <v>79400</v>
+        <v>75000</v>
       </c>
       <c r="I59" s="3">
-        <v>81500</v>
+        <v>77000</v>
       </c>
       <c r="J59" s="3">
-        <v>77200</v>
+        <v>73000</v>
       </c>
       <c r="K59" s="3">
         <v>90600</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>437400</v>
+        <v>413300</v>
       </c>
       <c r="E60" s="3">
-        <v>459200</v>
+        <v>433900</v>
       </c>
       <c r="F60" s="3">
-        <v>458600</v>
+        <v>433300</v>
       </c>
       <c r="G60" s="3">
-        <v>437400</v>
+        <v>413300</v>
       </c>
       <c r="H60" s="3">
-        <v>410300</v>
+        <v>387700</v>
       </c>
       <c r="I60" s="3">
-        <v>423000</v>
+        <v>399600</v>
       </c>
       <c r="J60" s="3">
-        <v>432200</v>
+        <v>408300</v>
       </c>
       <c r="K60" s="3">
         <v>459600</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>616100</v>
+        <v>582200</v>
       </c>
       <c r="E61" s="3">
-        <v>514300</v>
+        <v>486000</v>
       </c>
       <c r="F61" s="3">
-        <v>519200</v>
+        <v>490600</v>
       </c>
       <c r="G61" s="3">
-        <v>578300</v>
+        <v>546400</v>
       </c>
       <c r="H61" s="3">
-        <v>580400</v>
+        <v>548400</v>
       </c>
       <c r="I61" s="3">
-        <v>565400</v>
+        <v>534200</v>
       </c>
       <c r="J61" s="3">
-        <v>538300</v>
+        <v>508600</v>
       </c>
       <c r="K61" s="3">
         <v>599900</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33500</v>
+        <v>31700</v>
       </c>
       <c r="E62" s="3">
-        <v>39100</v>
+        <v>36900</v>
       </c>
       <c r="F62" s="3">
-        <v>50100</v>
+        <v>47400</v>
       </c>
       <c r="G62" s="3">
-        <v>52900</v>
+        <v>50000</v>
       </c>
       <c r="H62" s="3">
-        <v>55700</v>
+        <v>52600</v>
       </c>
       <c r="I62" s="3">
-        <v>61500</v>
+        <v>58100</v>
       </c>
       <c r="J62" s="3">
-        <v>58800</v>
+        <v>55500</v>
       </c>
       <c r="K62" s="3">
         <v>63000</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1087100</v>
+        <v>1027100</v>
       </c>
       <c r="E66" s="3">
-        <v>1012600</v>
+        <v>956800</v>
       </c>
       <c r="F66" s="3">
-        <v>1028000</v>
+        <v>971300</v>
       </c>
       <c r="G66" s="3">
-        <v>1068600</v>
+        <v>1009700</v>
       </c>
       <c r="H66" s="3">
-        <v>1046500</v>
+        <v>988800</v>
       </c>
       <c r="I66" s="3">
-        <v>1049800</v>
+        <v>992000</v>
       </c>
       <c r="J66" s="3">
-        <v>1029200</v>
+        <v>972500</v>
       </c>
       <c r="K66" s="3">
         <v>1122500</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>228200</v>
+        <v>215700</v>
       </c>
       <c r="E72" s="3">
-        <v>200600</v>
+        <v>189500</v>
       </c>
       <c r="F72" s="3">
-        <v>191900</v>
+        <v>181400</v>
       </c>
       <c r="G72" s="3">
-        <v>188600</v>
+        <v>178200</v>
       </c>
       <c r="H72" s="3">
-        <v>186400</v>
+        <v>176100</v>
       </c>
       <c r="I72" s="3">
-        <v>183600</v>
+        <v>173500</v>
       </c>
       <c r="J72" s="3">
-        <v>184300</v>
+        <v>174100</v>
       </c>
       <c r="K72" s="3">
         <v>187500</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>571800</v>
+        <v>540300</v>
       </c>
       <c r="E76" s="3">
-        <v>544100</v>
+        <v>514100</v>
       </c>
       <c r="F76" s="3">
-        <v>535500</v>
+        <v>506000</v>
       </c>
       <c r="G76" s="3">
-        <v>532100</v>
+        <v>502800</v>
       </c>
       <c r="H76" s="3">
-        <v>530000</v>
+        <v>500800</v>
       </c>
       <c r="I76" s="3">
-        <v>527200</v>
+        <v>498200</v>
       </c>
       <c r="J76" s="3">
-        <v>527800</v>
+        <v>498700</v>
       </c>
       <c r="K76" s="3">
         <v>541300</v>
@@ -5324,13 +5324,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23700</v>
+        <v>22400</v>
       </c>
       <c r="E81" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="F81" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G81" s="3">
         <v>1500</v>
@@ -5342,7 +5342,7 @@
         <v>-1500</v>
       </c>
       <c r="J81" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K81" s="3">
         <v>3200</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54800</v>
+        <v>51700</v>
       </c>
       <c r="E83" s="3">
-        <v>58400</v>
+        <v>55200</v>
       </c>
       <c r="F83" s="3">
-        <v>53500</v>
+        <v>50600</v>
       </c>
       <c r="G83" s="3">
-        <v>52600</v>
+        <v>49700</v>
       </c>
       <c r="H83" s="3">
-        <v>52900</v>
+        <v>50000</v>
       </c>
       <c r="I83" s="3">
-        <v>53200</v>
+        <v>50300</v>
       </c>
       <c r="J83" s="3">
-        <v>52600</v>
+        <v>49700</v>
       </c>
       <c r="K83" s="3">
         <v>52900</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50100</v>
+        <v>47400</v>
       </c>
       <c r="E89" s="3">
-        <v>68900</v>
+        <v>65100</v>
       </c>
       <c r="F89" s="3">
-        <v>55100</v>
+        <v>52000</v>
       </c>
       <c r="G89" s="3">
-        <v>64000</v>
+        <v>60500</v>
       </c>
       <c r="H89" s="3">
-        <v>56000</v>
+        <v>52900</v>
       </c>
       <c r="I89" s="3">
-        <v>63700</v>
+        <v>60200</v>
       </c>
       <c r="J89" s="3">
-        <v>59400</v>
+        <v>56100</v>
       </c>
       <c r="K89" s="3">
         <v>64600</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53800</v>
+        <v>-50900</v>
       </c>
       <c r="E91" s="3">
-        <v>-41800</v>
+        <v>-39500</v>
       </c>
       <c r="F91" s="3">
-        <v>-30500</v>
+        <v>-28800</v>
       </c>
       <c r="G91" s="3">
-        <v>-33500</v>
+        <v>-31700</v>
       </c>
       <c r="H91" s="3">
-        <v>-35700</v>
+        <v>-33700</v>
       </c>
       <c r="I91" s="3">
-        <v>-31100</v>
+        <v>-29400</v>
       </c>
       <c r="J91" s="3">
-        <v>-25200</v>
+        <v>-23800</v>
       </c>
       <c r="K91" s="3">
         <v>-34800</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-96300</v>
+        <v>-91000</v>
       </c>
       <c r="E94" s="3">
-        <v>-54400</v>
+        <v>-51400</v>
       </c>
       <c r="F94" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="G94" s="3">
-        <v>-67100</v>
+        <v>-63400</v>
       </c>
       <c r="H94" s="3">
-        <v>-18800</v>
+        <v>-17700</v>
       </c>
       <c r="I94" s="3">
-        <v>-60900</v>
+        <v>-57500</v>
       </c>
       <c r="J94" s="3">
-        <v>21500</v>
+        <v>20300</v>
       </c>
       <c r="K94" s="3">
         <v>-124200</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>57800</v>
+        <v>54600</v>
       </c>
       <c r="E100" s="3">
-        <v>-17500</v>
+        <v>-16600</v>
       </c>
       <c r="F100" s="3">
-        <v>-58800</v>
+        <v>-55500</v>
       </c>
       <c r="G100" s="3">
-        <v>-16900</v>
+        <v>-16000</v>
       </c>
       <c r="H100" s="3">
-        <v>-33500</v>
+        <v>-31700</v>
       </c>
       <c r="I100" s="3">
-        <v>-16600</v>
+        <v>-15700</v>
       </c>
       <c r="J100" s="3">
-        <v>-60300</v>
+        <v>-57000</v>
       </c>
       <c r="K100" s="3">
         <v>73200</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="E102" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F102" s="3">
-        <v>-9500</v>
+        <v>-9000</v>
       </c>
       <c r="G102" s="3">
-        <v>-20000</v>
+        <v>-18900</v>
       </c>
       <c r="H102" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I102" s="3">
-        <v>-13800</v>
+        <v>-13100</v>
       </c>
       <c r="J102" s="3">
-        <v>20600</v>
+        <v>19500</v>
       </c>
       <c r="K102" s="3">
         <v>13600</v>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>247900</v>
+        <v>263100</v>
       </c>
       <c r="E8" s="3">
-        <v>243300</v>
+        <v>261600</v>
       </c>
       <c r="F8" s="3">
-        <v>244100</v>
+        <v>261300</v>
       </c>
       <c r="G8" s="3">
-        <v>242100</v>
+        <v>256400</v>
       </c>
       <c r="H8" s="3">
-        <v>234800</v>
+        <v>257300</v>
       </c>
       <c r="I8" s="3">
+        <v>255100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>247500</v>
+      </c>
+      <c r="K8" s="3">
         <v>232500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>225000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>255600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>256900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>254600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>234900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>238800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>239500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>234300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>232600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>241100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>230100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>227900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>222100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>224300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>229300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>237200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>197100</v>
+        <v>200900</v>
       </c>
       <c r="E9" s="3">
-        <v>193900</v>
+        <v>203700</v>
       </c>
       <c r="F9" s="3">
-        <v>202300</v>
+        <v>207700</v>
       </c>
       <c r="G9" s="3">
+        <v>204300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>213200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>211600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>208000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>196800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>189800</v>
+      </c>
+      <c r="M9" s="3">
+        <v>207500</v>
+      </c>
+      <c r="N9" s="3">
+        <v>213400</v>
+      </c>
+      <c r="O9" s="3">
+        <v>212000</v>
+      </c>
+      <c r="P9" s="3">
+        <v>195500</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>203600</v>
+      </c>
+      <c r="R9" s="3">
+        <v>204200</v>
+      </c>
+      <c r="S9" s="3">
+        <v>187200</v>
+      </c>
+      <c r="T9" s="3">
+        <v>192900</v>
+      </c>
+      <c r="U9" s="3">
         <v>200800</v>
       </c>
-      <c r="H9" s="3">
-        <v>197300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>196800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>189800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>207500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>213400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>212000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>195500</v>
-      </c>
-      <c r="O9" s="3">
-        <v>203600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>204200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>187200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>192900</v>
-      </c>
-      <c r="S9" s="3">
-        <v>200800</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>196200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>172400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>175700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>182700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>197200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50900</v>
+        <v>62200</v>
       </c>
       <c r="E10" s="3">
-        <v>49400</v>
+        <v>57900</v>
       </c>
       <c r="F10" s="3">
-        <v>41900</v>
+        <v>53600</v>
       </c>
       <c r="G10" s="3">
-        <v>41300</v>
+        <v>52100</v>
       </c>
       <c r="H10" s="3">
-        <v>37500</v>
+        <v>44100</v>
       </c>
       <c r="I10" s="3">
+        <v>43500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K10" s="3">
         <v>35700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>48100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>43400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>42600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>39400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>35200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>35300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>47000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>39700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>40300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>33900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>55500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>46400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>41600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>32100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>231600</v>
+        <v>237100</v>
       </c>
       <c r="E17" s="3">
-        <v>229000</v>
+        <v>239500</v>
       </c>
       <c r="F17" s="3">
+        <v>244100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>241300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>248100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>246600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>226700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>219100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>244200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>247600</v>
+      </c>
+      <c r="O17" s="3">
+        <v>246600</v>
+      </c>
+      <c r="P17" s="3">
+        <v>228300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>236100</v>
+      </c>
+      <c r="R17" s="3">
         <v>235400</v>
       </c>
-      <c r="G17" s="3">
-        <v>234000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>229000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>226700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>219100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>244200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>247600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>246600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>228300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>236100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>235400</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>220600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>226200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>231700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>230100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>202500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>189500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>195000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>227100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16300</v>
+        <v>26000</v>
       </c>
       <c r="E18" s="3">
-        <v>14200</v>
+        <v>22100</v>
       </c>
       <c r="F18" s="3">
-        <v>8700</v>
+        <v>17200</v>
       </c>
       <c r="G18" s="3">
-        <v>8100</v>
+        <v>15000</v>
       </c>
       <c r="H18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>5800</v>
       </c>
-      <c r="J18" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>13700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>9300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>25400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>32600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>29300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="W20" s="3">
         <v>-4100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-14900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-6400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63900</v>
+        <v>74100</v>
       </c>
       <c r="E21" s="3">
-        <v>65100</v>
+        <v>68900</v>
       </c>
       <c r="F21" s="3">
-        <v>54600</v>
+        <v>67400</v>
       </c>
       <c r="G21" s="3">
-        <v>52300</v>
+        <v>68600</v>
       </c>
       <c r="H21" s="3">
-        <v>52000</v>
+        <v>57600</v>
       </c>
       <c r="I21" s="3">
+        <v>55100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K21" s="3">
         <v>49100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>51700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>58300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>57600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>60500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>56200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>51700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>41500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>50400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>42000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>42600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>14600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>58200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>53800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>60300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>34400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1774,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12200</v>
+        <v>19600</v>
       </c>
       <c r="E23" s="3">
-        <v>9900</v>
+        <v>16500</v>
       </c>
       <c r="F23" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R23" s="3">
+        <v>600</v>
+      </c>
+      <c r="S23" s="3">
+        <v>10800</v>
+      </c>
+      <c r="T23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>5400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>10800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>2600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>4100</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-24300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>21200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>17700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>22900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10200</v>
+        <v>5200</v>
       </c>
       <c r="E24" s="3">
-        <v>2900</v>
+        <v>4600</v>
       </c>
       <c r="F24" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>2200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>900</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-10500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>6300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>5000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>5000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="E26" s="3">
-        <v>7000</v>
+        <v>11900</v>
       </c>
       <c r="F26" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>600</v>
+      </c>
+      <c r="R26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="T26" s="3">
+        <v>600</v>
+      </c>
+      <c r="U26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>7400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-13800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>14900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>12700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>17900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="E27" s="3">
-        <v>7000</v>
+        <v>11900</v>
       </c>
       <c r="F27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>600</v>
+      </c>
+      <c r="R27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>600</v>
+      </c>
+      <c r="U27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>7400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-13800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>14900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>12700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>17900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="V32" s="3">
+        <v>24300</v>
+      </c>
+      <c r="W32" s="3">
         <v>4100</v>
       </c>
-      <c r="E32" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>5600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>4800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>24300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>14900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>6400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>6400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="E33" s="3">
-        <v>7000</v>
+        <v>11900</v>
       </c>
       <c r="F33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>600</v>
+      </c>
+      <c r="R33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>600</v>
+      </c>
+      <c r="U33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>7400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-13800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>14900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>12700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>17900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="E35" s="3">
-        <v>7000</v>
+        <v>11900</v>
       </c>
       <c r="F35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>600</v>
+      </c>
+      <c r="R35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>600</v>
+      </c>
+      <c r="U35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>7400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-13800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>14900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>12700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>17900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89500</v>
+        <v>117600</v>
       </c>
       <c r="E41" s="3">
-        <v>78500</v>
+        <v>80200</v>
       </c>
       <c r="F41" s="3">
-        <v>81400</v>
+        <v>94300</v>
       </c>
       <c r="G41" s="3">
-        <v>90400</v>
+        <v>82700</v>
       </c>
       <c r="H41" s="3">
-        <v>109300</v>
+        <v>85800</v>
       </c>
       <c r="I41" s="3">
+        <v>95300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K41" s="3">
         <v>105800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>118900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>108300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>92100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>157700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>128400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>88700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>122400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>102900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>106800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>117600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>239200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>278700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>247500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>284100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>200000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>318700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100000</v>
+        <v>106000</v>
       </c>
       <c r="E42" s="3">
-        <v>151400</v>
+        <v>147000</v>
       </c>
       <c r="F42" s="3">
-        <v>150000</v>
+        <v>105400</v>
       </c>
       <c r="G42" s="3">
-        <v>139800</v>
+        <v>159600</v>
       </c>
       <c r="H42" s="3">
-        <v>119500</v>
+        <v>158000</v>
       </c>
       <c r="I42" s="3">
+        <v>147300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>125900</v>
+      </c>
+      <c r="K42" s="3">
         <v>191200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>176400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>251200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>170000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>48100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>72500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>91100</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>82900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>84900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>87600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>41400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>41400</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>69800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>126300</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>210100</v>
+        <v>208300</v>
       </c>
       <c r="E43" s="3">
-        <v>176100</v>
+        <v>219000</v>
       </c>
       <c r="F43" s="3">
-        <v>177900</v>
+        <v>221400</v>
       </c>
       <c r="G43" s="3">
-        <v>184300</v>
+        <v>185600</v>
       </c>
       <c r="H43" s="3">
-        <v>176100</v>
+        <v>187400</v>
       </c>
       <c r="I43" s="3">
+        <v>194200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K43" s="3">
         <v>179000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>172900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>193800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>204200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>195400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>188900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>207800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>202700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>207500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>226200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>239300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>236200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>243100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>253000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>274000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>292500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25300</v>
+        <v>37700</v>
       </c>
       <c r="E44" s="3">
-        <v>26400</v>
+        <v>31500</v>
       </c>
       <c r="F44" s="3">
-        <v>27600</v>
+        <v>26600</v>
       </c>
       <c r="G44" s="3">
-        <v>30500</v>
+        <v>27900</v>
       </c>
       <c r="H44" s="3">
-        <v>22400</v>
+        <v>29100</v>
       </c>
       <c r="I44" s="3">
+        <v>32200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K44" s="3">
         <v>31700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>38400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>45000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>38200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>30900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>30100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>30100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>28800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>22800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>21600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>31200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>25700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>24800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>26500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>26300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>26800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="N45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="P45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="Q45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="R45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="V45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="W45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="X45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="Z45" s="3">
         <v>7800</v>
       </c>
-      <c r="G45" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>8100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>8000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>7700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>7800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>7800</v>
-      </c>
-      <c r="P45" s="3">
-        <v>15000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>13100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>13100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>12300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>11900</v>
-      </c>
-      <c r="U45" s="3">
-        <v>11000</v>
-      </c>
-      <c r="V45" s="3">
-        <v>10200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>13700</v>
-      </c>
-      <c r="X45" s="3">
-        <v>7800</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>432800</v>
+        <v>479000</v>
       </c>
       <c r="E46" s="3">
-        <v>440300</v>
+        <v>486100</v>
       </c>
       <c r="F46" s="3">
-        <v>444700</v>
+        <v>456100</v>
       </c>
       <c r="G46" s="3">
-        <v>452800</v>
+        <v>464000</v>
       </c>
       <c r="H46" s="3">
-        <v>434800</v>
+        <v>468600</v>
       </c>
       <c r="I46" s="3">
+        <v>477200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>458200</v>
+      </c>
+      <c r="K46" s="3">
         <v>515900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>514700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>606900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>512500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>439800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>427700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>425600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>369000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>429200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>452600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>488000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>554300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>599000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>537200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>667900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>653400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>647800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="E47" s="3">
-        <v>70300</v>
+        <v>72600</v>
       </c>
       <c r="F47" s="3">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="G47" s="3">
-        <v>69200</v>
+        <v>74100</v>
       </c>
       <c r="H47" s="3">
-        <v>67400</v>
+        <v>73800</v>
       </c>
       <c r="I47" s="3">
+        <v>72900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K47" s="3">
         <v>68300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>66800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>77600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>77000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>77200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>75500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>78500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>76500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>71500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>68600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>68900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>64000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>62900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>67600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>79900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>93000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>675200</v>
+        <v>736900</v>
       </c>
       <c r="E48" s="3">
-        <v>646400</v>
+        <v>716700</v>
       </c>
       <c r="F48" s="3">
-        <v>652200</v>
+        <v>711500</v>
       </c>
       <c r="G48" s="3">
-        <v>632400</v>
+        <v>681200</v>
       </c>
       <c r="H48" s="3">
-        <v>627200</v>
+        <v>687300</v>
       </c>
       <c r="I48" s="3">
+        <v>666500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>661000</v>
+      </c>
+      <c r="K48" s="3">
         <v>588300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>580400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>639200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>619700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>627800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>607200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>601500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>356300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>329700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>340000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>343500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>325600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>311200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>310400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>323500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>337200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>255500</v>
+        <v>261900</v>
       </c>
       <c r="E49" s="3">
-        <v>259000</v>
+        <v>270400</v>
       </c>
       <c r="F49" s="3">
-        <v>263300</v>
+        <v>269200</v>
       </c>
       <c r="G49" s="3">
-        <v>267100</v>
+        <v>272900</v>
       </c>
       <c r="H49" s="3">
-        <v>269700</v>
+        <v>277500</v>
       </c>
       <c r="I49" s="3">
+        <v>281500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>284200</v>
+      </c>
+      <c r="K49" s="3">
         <v>272600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>265900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>295800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>291000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>294500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>292900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>302000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>301300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>297200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>310200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>316600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>304600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>309800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>308500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>322900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>335200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>343300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>132800</v>
+        <v>55100</v>
       </c>
       <c r="E52" s="3">
-        <v>54900</v>
+        <v>116400</v>
       </c>
       <c r="F52" s="3">
-        <v>47100</v>
+        <v>140000</v>
       </c>
       <c r="G52" s="3">
-        <v>91000</v>
+        <v>57900</v>
       </c>
       <c r="H52" s="3">
-        <v>90400</v>
+        <v>49600</v>
       </c>
       <c r="I52" s="3">
+        <v>95900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K52" s="3">
         <v>45000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>43300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>44300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>44300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>44400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>41200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>39700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>66800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>62400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>61600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>61000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>53200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>41400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>43000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>36000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>33000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1567400</v>
+        <v>1601800</v>
       </c>
       <c r="E54" s="3">
-        <v>1470900</v>
+        <v>1662200</v>
       </c>
       <c r="F54" s="3">
-        <v>1477300</v>
+        <v>1651800</v>
       </c>
       <c r="G54" s="3">
-        <v>1512500</v>
+        <v>1550100</v>
       </c>
       <c r="H54" s="3">
-        <v>1489500</v>
+        <v>1556800</v>
       </c>
       <c r="I54" s="3">
+        <v>1593900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1569700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1490100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1471200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1663800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1544500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1483700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1444600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1447300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1169800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1190100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1233000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1278000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1301700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1324300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1266700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1430200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1451700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1467600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>204900</v>
+        <v>211300</v>
       </c>
       <c r="E57" s="3">
-        <v>189800</v>
+        <v>222400</v>
       </c>
       <c r="F57" s="3">
-        <v>210400</v>
+        <v>215900</v>
       </c>
       <c r="G57" s="3">
-        <v>204300</v>
+        <v>200000</v>
       </c>
       <c r="H57" s="3">
-        <v>193600</v>
+        <v>221700</v>
       </c>
       <c r="I57" s="3">
+        <v>215300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K57" s="3">
         <v>201400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>193000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>211300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>220500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>209900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>203600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>217400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>209200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>201200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>203100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>219500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>217100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>193700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>177400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>184100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>190200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>114200</v>
+        <v>116100</v>
       </c>
       <c r="E58" s="3">
-        <v>146800</v>
+        <v>118200</v>
       </c>
       <c r="F58" s="3">
-        <v>145600</v>
+        <v>120400</v>
       </c>
       <c r="G58" s="3">
-        <v>118300</v>
+        <v>154700</v>
       </c>
       <c r="H58" s="3">
-        <v>119200</v>
+        <v>153400</v>
       </c>
       <c r="I58" s="3">
+        <v>124700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K58" s="3">
         <v>121200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>142400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>157700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>153400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>141400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>137100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>90800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>47700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>105700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>104500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>121700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>194500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>153700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>192900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>148300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>139100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>134600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>94200</v>
+        <v>103200</v>
       </c>
       <c r="E59" s="3">
-        <v>97400</v>
+        <v>99800</v>
       </c>
       <c r="F59" s="3">
-        <v>77300</v>
+        <v>99200</v>
       </c>
       <c r="G59" s="3">
-        <v>90700</v>
+        <v>102600</v>
       </c>
       <c r="H59" s="3">
-        <v>75000</v>
+        <v>81500</v>
       </c>
       <c r="I59" s="3">
+        <v>95600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K59" s="3">
         <v>77000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>73000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>90600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>84700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>86100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>80000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>82400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>81500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>82600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>88700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>91100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>88000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>86400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>85300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>95500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>119600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>413300</v>
+        <v>430600</v>
       </c>
       <c r="E60" s="3">
-        <v>433900</v>
+        <v>440400</v>
       </c>
       <c r="F60" s="3">
-        <v>433300</v>
+        <v>435500</v>
       </c>
       <c r="G60" s="3">
-        <v>413300</v>
+        <v>457300</v>
       </c>
       <c r="H60" s="3">
-        <v>387700</v>
+        <v>456700</v>
       </c>
       <c r="I60" s="3">
+        <v>435500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>408600</v>
+      </c>
+      <c r="K60" s="3">
         <v>399600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>408300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>459600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>458600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>437400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>420800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>390700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>338400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>389600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>396300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>432200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>499700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>433700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>455500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>427900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>448900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>449400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>582200</v>
+        <v>544300</v>
       </c>
       <c r="E61" s="3">
-        <v>486000</v>
+        <v>608000</v>
       </c>
       <c r="F61" s="3">
-        <v>490600</v>
+        <v>613500</v>
       </c>
       <c r="G61" s="3">
-        <v>546400</v>
+        <v>512100</v>
       </c>
       <c r="H61" s="3">
-        <v>548400</v>
+        <v>517000</v>
       </c>
       <c r="I61" s="3">
+        <v>575800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>578000</v>
+      </c>
+      <c r="K61" s="3">
         <v>534200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>508600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>599900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>584900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>549100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>529300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>583500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>354200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>336000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>347900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>351700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>336000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>411100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>352900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>600800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>613400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>677900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31700</v>
+        <v>27300</v>
       </c>
       <c r="E62" s="3">
-        <v>36900</v>
+        <v>30600</v>
       </c>
       <c r="F62" s="3">
-        <v>47400</v>
+        <v>33400</v>
       </c>
       <c r="G62" s="3">
-        <v>50000</v>
+        <v>38900</v>
       </c>
       <c r="H62" s="3">
-        <v>52600</v>
+        <v>49900</v>
       </c>
       <c r="I62" s="3">
+        <v>52700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K62" s="3">
         <v>58100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>55500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>63000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>64700</v>
       </c>
       <c r="M62" s="3">
         <v>63000</v>
       </c>
       <c r="N62" s="3">
+        <v>64700</v>
+      </c>
+      <c r="O62" s="3">
+        <v>63000</v>
+      </c>
+      <c r="P62" s="3">
         <v>74900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>54700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>63600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>65300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>69200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>71800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>70400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>70900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>72800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>75700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>79100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1027100</v>
+        <v>1002100</v>
       </c>
       <c r="E66" s="3">
-        <v>956800</v>
+        <v>1079000</v>
       </c>
       <c r="F66" s="3">
-        <v>971300</v>
+        <v>1082400</v>
       </c>
       <c r="G66" s="3">
-        <v>1009700</v>
+        <v>1008300</v>
       </c>
       <c r="H66" s="3">
-        <v>988800</v>
+        <v>1023600</v>
       </c>
       <c r="I66" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="K66" s="3">
         <v>992000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>972500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1122500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1108100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1049400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1025000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1028900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>756100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>791100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>813400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>855700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>906100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>915700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>881200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1104500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1141300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1156100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>215700</v>
+        <v>257600</v>
       </c>
       <c r="E72" s="3">
-        <v>189500</v>
+        <v>241000</v>
       </c>
       <c r="F72" s="3">
-        <v>181400</v>
+        <v>227300</v>
       </c>
       <c r="G72" s="3">
-        <v>178200</v>
+        <v>199700</v>
       </c>
       <c r="H72" s="3">
-        <v>176100</v>
+        <v>191100</v>
       </c>
       <c r="I72" s="3">
+        <v>187700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K72" s="3">
         <v>173500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>174100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>187500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>177400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>175000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>166900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>164800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>165600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>153600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>148800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>147100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>135500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>148400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>125300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>115400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>100000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>540300</v>
+        <v>599700</v>
       </c>
       <c r="E76" s="3">
-        <v>514100</v>
+        <v>583200</v>
       </c>
       <c r="F76" s="3">
-        <v>506000</v>
+        <v>569400</v>
       </c>
       <c r="G76" s="3">
-        <v>502800</v>
+        <v>541800</v>
       </c>
       <c r="H76" s="3">
-        <v>500800</v>
+        <v>533200</v>
       </c>
       <c r="I76" s="3">
+        <v>529900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>527700</v>
+      </c>
+      <c r="K76" s="3">
         <v>498200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>498700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>541300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>436400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>434300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>419600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>418400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>413700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>399000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>419700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>422300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>395600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>408600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>385400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>325700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>310300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="E81" s="3">
-        <v>7000</v>
+        <v>11900</v>
       </c>
       <c r="F81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>600</v>
+      </c>
+      <c r="R81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>600</v>
+      </c>
+      <c r="U81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>7400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-13800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>14900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>12700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>17900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51700</v>
+        <v>54500</v>
       </c>
       <c r="E83" s="3">
-        <v>55200</v>
+        <v>52400</v>
       </c>
       <c r="F83" s="3">
-        <v>50600</v>
+        <v>54500</v>
       </c>
       <c r="G83" s="3">
+        <v>58200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>53300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>52400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>50300</v>
+      </c>
+      <c r="L83" s="3">
         <v>49700</v>
       </c>
-      <c r="H83" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>50300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>49700</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>52900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>54500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>58000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>54400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>53200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>40900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>39600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>39400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>38500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>38900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>37000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>36100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>37400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>38500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47400</v>
+        <v>80600</v>
       </c>
       <c r="E89" s="3">
-        <v>65100</v>
+        <v>72600</v>
       </c>
       <c r="F89" s="3">
-        <v>52000</v>
+        <v>49900</v>
       </c>
       <c r="G89" s="3">
-        <v>60500</v>
+        <v>68600</v>
       </c>
       <c r="H89" s="3">
-        <v>52900</v>
+        <v>54800</v>
       </c>
       <c r="I89" s="3">
+        <v>63700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K89" s="3">
         <v>60200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>56100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>64600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>54800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>71000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>65000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>64100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>35600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>53600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>46400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>45800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>48600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>92400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>70400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>57800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>87400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50900</v>
+        <v>-47500</v>
       </c>
       <c r="E91" s="3">
-        <v>-39500</v>
+        <v>-35500</v>
       </c>
       <c r="F91" s="3">
-        <v>-28800</v>
+        <v>-53600</v>
       </c>
       <c r="G91" s="3">
-        <v>-31700</v>
+        <v>-41700</v>
       </c>
       <c r="H91" s="3">
-        <v>-33700</v>
+        <v>-30300</v>
       </c>
       <c r="I91" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-29400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-23800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-34800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-25900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-40400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-31600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-42700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-21100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-20100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-28600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-21200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-16600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-11600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-42200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-13100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-91000</v>
+        <v>49600</v>
       </c>
       <c r="E94" s="3">
-        <v>-51400</v>
+        <v>-69200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5500</v>
+        <v>-95900</v>
       </c>
       <c r="G94" s="3">
-        <v>-63400</v>
+        <v>-54200</v>
       </c>
       <c r="H94" s="3">
-        <v>-17700</v>
+        <v>-5800</v>
       </c>
       <c r="I94" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-57500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>20300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-124200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-161100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-27800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-24100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-146800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>43500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-33600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-27700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-83500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-31200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-78100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>52400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>37400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-138500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>54600</v>
+        <v>-92800</v>
       </c>
       <c r="E100" s="3">
-        <v>-16600</v>
+        <v>-17500</v>
       </c>
       <c r="F100" s="3">
-        <v>-55500</v>
+        <v>57600</v>
       </c>
       <c r="G100" s="3">
-        <v>-16000</v>
+        <v>-17500</v>
       </c>
       <c r="H100" s="3">
-        <v>-31700</v>
+        <v>-58500</v>
       </c>
       <c r="I100" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-15700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-57000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>73200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>41000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-17300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>46300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-21400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-29500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-97800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-56800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>16800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-159500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-7500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-67600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11000</v>
+        <v>37400</v>
       </c>
       <c r="E102" s="3">
-        <v>-2900</v>
+        <v>-14100</v>
       </c>
       <c r="F102" s="3">
-        <v>-9000</v>
+        <v>11600</v>
       </c>
       <c r="G102" s="3">
-        <v>-18900</v>
+        <v>-3100</v>
       </c>
       <c r="H102" s="3">
-        <v>3500</v>
+        <v>-9500</v>
       </c>
       <c r="I102" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-13100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>19500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>13600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-65300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>25900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>39700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-36400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>16200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-10800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-135400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-39500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>31200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-33100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>84100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-118700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>62800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTNR_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>263100</v>
+        <v>247400</v>
       </c>
       <c r="E8" s="3">
-        <v>261600</v>
+        <v>245900</v>
       </c>
       <c r="F8" s="3">
-        <v>261300</v>
+        <v>245700</v>
       </c>
       <c r="G8" s="3">
-        <v>256400</v>
+        <v>241000</v>
       </c>
       <c r="H8" s="3">
-        <v>257300</v>
+        <v>241900</v>
       </c>
       <c r="I8" s="3">
-        <v>255100</v>
+        <v>239900</v>
       </c>
       <c r="J8" s="3">
-        <v>247500</v>
+        <v>232700</v>
       </c>
       <c r="K8" s="3">
         <v>232500</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200900</v>
+        <v>188900</v>
       </c>
       <c r="E9" s="3">
-        <v>203700</v>
+        <v>191500</v>
       </c>
       <c r="F9" s="3">
-        <v>207700</v>
+        <v>195300</v>
       </c>
       <c r="G9" s="3">
-        <v>204300</v>
+        <v>192100</v>
       </c>
       <c r="H9" s="3">
-        <v>213200</v>
+        <v>200400</v>
       </c>
       <c r="I9" s="3">
-        <v>211600</v>
+        <v>199000</v>
       </c>
       <c r="J9" s="3">
-        <v>208000</v>
+        <v>195500</v>
       </c>
       <c r="K9" s="3">
         <v>196800</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62200</v>
+        <v>58500</v>
       </c>
       <c r="E10" s="3">
-        <v>57900</v>
+        <v>54400</v>
       </c>
       <c r="F10" s="3">
-        <v>53600</v>
+        <v>50400</v>
       </c>
       <c r="G10" s="3">
-        <v>52100</v>
+        <v>49000</v>
       </c>
       <c r="H10" s="3">
-        <v>44100</v>
+        <v>41500</v>
       </c>
       <c r="I10" s="3">
-        <v>43500</v>
+        <v>40900</v>
       </c>
       <c r="J10" s="3">
-        <v>39500</v>
+        <v>37200</v>
       </c>
       <c r="K10" s="3">
         <v>35700</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>237100</v>
+        <v>222900</v>
       </c>
       <c r="E17" s="3">
-        <v>239500</v>
+        <v>225200</v>
       </c>
       <c r="F17" s="3">
-        <v>244100</v>
+        <v>229500</v>
       </c>
       <c r="G17" s="3">
-        <v>241300</v>
+        <v>226900</v>
       </c>
       <c r="H17" s="3">
-        <v>248100</v>
+        <v>233300</v>
       </c>
       <c r="I17" s="3">
-        <v>246600</v>
+        <v>231800</v>
       </c>
       <c r="J17" s="3">
-        <v>241300</v>
+        <v>226900</v>
       </c>
       <c r="K17" s="3">
         <v>226700</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="E18" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="F18" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="G18" s="3">
-        <v>15000</v>
+        <v>14100</v>
       </c>
       <c r="H18" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="I18" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="J18" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="K18" s="3">
         <v>5800</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="E20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-5500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-5800</v>
-      </c>
       <c r="J20" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="K20" s="3">
         <v>-7000</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74100</v>
+        <v>69700</v>
       </c>
       <c r="E21" s="3">
-        <v>68900</v>
+        <v>64800</v>
       </c>
       <c r="F21" s="3">
-        <v>67400</v>
+        <v>63400</v>
       </c>
       <c r="G21" s="3">
-        <v>68600</v>
+        <v>64500</v>
       </c>
       <c r="H21" s="3">
-        <v>57600</v>
+        <v>54100</v>
       </c>
       <c r="I21" s="3">
-        <v>55100</v>
+        <v>51800</v>
       </c>
       <c r="J21" s="3">
-        <v>54800</v>
+        <v>51600</v>
       </c>
       <c r="K21" s="3">
         <v>49100</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>19600</v>
+        <v>18400</v>
       </c>
       <c r="E23" s="3">
-        <v>16500</v>
+        <v>15600</v>
       </c>
       <c r="F23" s="3">
-        <v>12900</v>
+        <v>12100</v>
       </c>
       <c r="G23" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="H23" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="I23" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J23" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K23" s="3">
         <v>-1200</v>
@@ -1863,19 +1863,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="E24" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="F24" s="3">
-        <v>-10700</v>
+        <v>-10100</v>
       </c>
       <c r="G24" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H24" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I24" s="3">
         <v>1200</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="E26" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="F26" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="G26" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="H26" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I26" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J26" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K26" s="3">
         <v>-1500</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="E27" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="F27" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="G27" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="H27" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I27" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J27" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K27" s="3">
         <v>-1500</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I32" s="3">
         <v>5500</v>
       </c>
-      <c r="F32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>5800</v>
-      </c>
       <c r="J32" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="K32" s="3">
         <v>7000</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="E33" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="F33" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="G33" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="H33" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I33" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J33" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K33" s="3">
         <v>-1500</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="E35" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="F35" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="G35" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="H35" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I35" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J35" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K35" s="3">
         <v>-1500</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>117600</v>
+        <v>110600</v>
       </c>
       <c r="E41" s="3">
-        <v>80200</v>
+        <v>75500</v>
       </c>
       <c r="F41" s="3">
-        <v>94300</v>
+        <v>88700</v>
       </c>
       <c r="G41" s="3">
-        <v>82700</v>
+        <v>77800</v>
       </c>
       <c r="H41" s="3">
-        <v>85800</v>
+        <v>80600</v>
       </c>
       <c r="I41" s="3">
-        <v>95300</v>
+        <v>89600</v>
       </c>
       <c r="J41" s="3">
-        <v>115200</v>
+        <v>108300</v>
       </c>
       <c r="K41" s="3">
         <v>105800</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>106000</v>
+        <v>99600</v>
       </c>
       <c r="E42" s="3">
-        <v>147000</v>
+        <v>138200</v>
       </c>
       <c r="F42" s="3">
-        <v>105400</v>
+        <v>99100</v>
       </c>
       <c r="G42" s="3">
-        <v>159600</v>
+        <v>150000</v>
       </c>
       <c r="H42" s="3">
-        <v>158000</v>
+        <v>148600</v>
       </c>
       <c r="I42" s="3">
-        <v>147300</v>
+        <v>138500</v>
       </c>
       <c r="J42" s="3">
-        <v>125900</v>
+        <v>118400</v>
       </c>
       <c r="K42" s="3">
         <v>191200</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>208300</v>
+        <v>195800</v>
       </c>
       <c r="E43" s="3">
-        <v>219000</v>
+        <v>205900</v>
       </c>
       <c r="F43" s="3">
-        <v>221400</v>
+        <v>208200</v>
       </c>
       <c r="G43" s="3">
-        <v>185600</v>
+        <v>174500</v>
       </c>
       <c r="H43" s="3">
-        <v>187400</v>
+        <v>176200</v>
       </c>
       <c r="I43" s="3">
-        <v>194200</v>
+        <v>182600</v>
       </c>
       <c r="J43" s="3">
-        <v>185600</v>
+        <v>174500</v>
       </c>
       <c r="K43" s="3">
         <v>179000</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37700</v>
+        <v>35400</v>
       </c>
       <c r="E44" s="3">
-        <v>31500</v>
+        <v>29700</v>
       </c>
       <c r="F44" s="3">
-        <v>26600</v>
+        <v>25100</v>
       </c>
       <c r="G44" s="3">
-        <v>27900</v>
+        <v>26200</v>
       </c>
       <c r="H44" s="3">
-        <v>29100</v>
+        <v>27400</v>
       </c>
       <c r="I44" s="3">
-        <v>32200</v>
+        <v>30200</v>
       </c>
       <c r="J44" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="K44" s="3">
         <v>31700</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="F45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="G45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="H45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="I45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="J45" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="K45" s="3">
         <v>8100</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>479000</v>
+        <v>450400</v>
       </c>
       <c r="E46" s="3">
-        <v>486100</v>
+        <v>457000</v>
       </c>
       <c r="F46" s="3">
-        <v>456100</v>
+        <v>428800</v>
       </c>
       <c r="G46" s="3">
-        <v>464000</v>
+        <v>436300</v>
       </c>
       <c r="H46" s="3">
-        <v>468600</v>
+        <v>440600</v>
       </c>
       <c r="I46" s="3">
-        <v>477200</v>
+        <v>448700</v>
       </c>
       <c r="J46" s="3">
-        <v>458200</v>
+        <v>430800</v>
       </c>
       <c r="K46" s="3">
         <v>515900</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68900</v>
+        <v>64800</v>
       </c>
       <c r="E47" s="3">
-        <v>72600</v>
+        <v>68300</v>
       </c>
       <c r="F47" s="3">
-        <v>75000</v>
+        <v>70600</v>
       </c>
       <c r="G47" s="3">
-        <v>74100</v>
+        <v>69700</v>
       </c>
       <c r="H47" s="3">
-        <v>73800</v>
+        <v>69400</v>
       </c>
       <c r="I47" s="3">
-        <v>72900</v>
+        <v>68500</v>
       </c>
       <c r="J47" s="3">
-        <v>71100</v>
+        <v>66800</v>
       </c>
       <c r="K47" s="3">
         <v>68300</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>736900</v>
+        <v>692900</v>
       </c>
       <c r="E48" s="3">
-        <v>716700</v>
+        <v>673900</v>
       </c>
       <c r="F48" s="3">
-        <v>711500</v>
+        <v>669000</v>
       </c>
       <c r="G48" s="3">
-        <v>681200</v>
+        <v>640500</v>
       </c>
       <c r="H48" s="3">
-        <v>687300</v>
+        <v>646200</v>
       </c>
       <c r="I48" s="3">
-        <v>666500</v>
+        <v>626700</v>
       </c>
       <c r="J48" s="3">
-        <v>661000</v>
+        <v>621500</v>
       </c>
       <c r="K48" s="3">
         <v>588300</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>261900</v>
+        <v>246200</v>
       </c>
       <c r="E49" s="3">
-        <v>270400</v>
+        <v>254300</v>
       </c>
       <c r="F49" s="3">
-        <v>269200</v>
+        <v>253100</v>
       </c>
       <c r="G49" s="3">
-        <v>272900</v>
+        <v>256600</v>
       </c>
       <c r="H49" s="3">
-        <v>277500</v>
+        <v>260900</v>
       </c>
       <c r="I49" s="3">
-        <v>281500</v>
+        <v>264700</v>
       </c>
       <c r="J49" s="3">
-        <v>284200</v>
+        <v>267300</v>
       </c>
       <c r="K49" s="3">
         <v>272600</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>55100</v>
+        <v>51800</v>
       </c>
       <c r="E52" s="3">
-        <v>116400</v>
+        <v>109400</v>
       </c>
       <c r="F52" s="3">
-        <v>140000</v>
+        <v>131600</v>
       </c>
       <c r="G52" s="3">
-        <v>57900</v>
+        <v>54400</v>
       </c>
       <c r="H52" s="3">
-        <v>49600</v>
+        <v>46700</v>
       </c>
       <c r="I52" s="3">
-        <v>95900</v>
+        <v>90100</v>
       </c>
       <c r="J52" s="3">
-        <v>95300</v>
+        <v>89600</v>
       </c>
       <c r="K52" s="3">
         <v>45000</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1601800</v>
+        <v>1506200</v>
       </c>
       <c r="E54" s="3">
-        <v>1662200</v>
+        <v>1562900</v>
       </c>
       <c r="F54" s="3">
-        <v>1651800</v>
+        <v>1553100</v>
       </c>
       <c r="G54" s="3">
-        <v>1550100</v>
+        <v>1457500</v>
       </c>
       <c r="H54" s="3">
-        <v>1556800</v>
+        <v>1463900</v>
       </c>
       <c r="I54" s="3">
-        <v>1593900</v>
+        <v>1498700</v>
       </c>
       <c r="J54" s="3">
-        <v>1569700</v>
+        <v>1475900</v>
       </c>
       <c r="K54" s="3">
         <v>1490100</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>211300</v>
+        <v>198700</v>
       </c>
       <c r="E57" s="3">
-        <v>222400</v>
+        <v>209100</v>
       </c>
       <c r="F57" s="3">
-        <v>215900</v>
+        <v>203000</v>
       </c>
       <c r="G57" s="3">
-        <v>200000</v>
+        <v>188100</v>
       </c>
       <c r="H57" s="3">
-        <v>221700</v>
+        <v>208500</v>
       </c>
       <c r="I57" s="3">
-        <v>215300</v>
+        <v>202500</v>
       </c>
       <c r="J57" s="3">
-        <v>204000</v>
+        <v>191800</v>
       </c>
       <c r="K57" s="3">
         <v>201400</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>116100</v>
+        <v>109100</v>
       </c>
       <c r="E58" s="3">
-        <v>118200</v>
+        <v>111200</v>
       </c>
       <c r="F58" s="3">
-        <v>120400</v>
+        <v>113200</v>
       </c>
       <c r="G58" s="3">
-        <v>154700</v>
+        <v>145400</v>
       </c>
       <c r="H58" s="3">
-        <v>153400</v>
+        <v>144300</v>
       </c>
       <c r="I58" s="3">
-        <v>124700</v>
+        <v>117200</v>
       </c>
       <c r="J58" s="3">
-        <v>125600</v>
+        <v>118100</v>
       </c>
       <c r="K58" s="3">
         <v>121200</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>103200</v>
+        <v>97100</v>
       </c>
       <c r="E59" s="3">
-        <v>99800</v>
+        <v>93900</v>
       </c>
       <c r="F59" s="3">
-        <v>99200</v>
+        <v>93300</v>
       </c>
       <c r="G59" s="3">
-        <v>102600</v>
+        <v>96500</v>
       </c>
       <c r="H59" s="3">
-        <v>81500</v>
+        <v>76600</v>
       </c>
       <c r="I59" s="3">
-        <v>95600</v>
+        <v>89900</v>
       </c>
       <c r="J59" s="3">
-        <v>79000</v>
+        <v>74300</v>
       </c>
       <c r="K59" s="3">
         <v>77000</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>430600</v>
+        <v>404900</v>
       </c>
       <c r="E60" s="3">
-        <v>440400</v>
+        <v>414100</v>
       </c>
       <c r="F60" s="3">
-        <v>435500</v>
+        <v>409500</v>
       </c>
       <c r="G60" s="3">
-        <v>457300</v>
+        <v>430000</v>
       </c>
       <c r="H60" s="3">
-        <v>456700</v>
+        <v>429400</v>
       </c>
       <c r="I60" s="3">
-        <v>435500</v>
+        <v>409500</v>
       </c>
       <c r="J60" s="3">
-        <v>408600</v>
+        <v>384200</v>
       </c>
       <c r="K60" s="3">
         <v>399600</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>544300</v>
+        <v>511800</v>
       </c>
       <c r="E61" s="3">
-        <v>608000</v>
+        <v>571700</v>
       </c>
       <c r="F61" s="3">
-        <v>613500</v>
+        <v>576800</v>
       </c>
       <c r="G61" s="3">
-        <v>512100</v>
+        <v>481500</v>
       </c>
       <c r="H61" s="3">
-        <v>517000</v>
+        <v>486100</v>
       </c>
       <c r="I61" s="3">
-        <v>575800</v>
+        <v>541400</v>
       </c>
       <c r="J61" s="3">
-        <v>578000</v>
+        <v>543400</v>
       </c>
       <c r="K61" s="3">
         <v>534200</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27300</v>
+        <v>25600</v>
       </c>
       <c r="E62" s="3">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="F62" s="3">
-        <v>33400</v>
+        <v>31400</v>
       </c>
       <c r="G62" s="3">
-        <v>38900</v>
+        <v>36600</v>
       </c>
       <c r="H62" s="3">
-        <v>49900</v>
+        <v>46900</v>
       </c>
       <c r="I62" s="3">
-        <v>52700</v>
+        <v>49500</v>
       </c>
       <c r="J62" s="3">
-        <v>55400</v>
+        <v>52100</v>
       </c>
       <c r="K62" s="3">
         <v>58100</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1002100</v>
+        <v>942300</v>
       </c>
       <c r="E66" s="3">
-        <v>1079000</v>
+        <v>1014600</v>
       </c>
       <c r="F66" s="3">
-        <v>1082400</v>
+        <v>1017800</v>
       </c>
       <c r="G66" s="3">
-        <v>1008300</v>
+        <v>948100</v>
       </c>
       <c r="H66" s="3">
-        <v>1023600</v>
+        <v>962500</v>
       </c>
       <c r="I66" s="3">
-        <v>1064000</v>
+        <v>1000500</v>
       </c>
       <c r="J66" s="3">
-        <v>1042000</v>
+        <v>979700</v>
       </c>
       <c r="K66" s="3">
         <v>992000</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>257600</v>
+        <v>242200</v>
       </c>
       <c r="E72" s="3">
-        <v>241000</v>
+        <v>226600</v>
       </c>
       <c r="F72" s="3">
-        <v>227300</v>
+        <v>213700</v>
       </c>
       <c r="G72" s="3">
-        <v>199700</v>
+        <v>187800</v>
       </c>
       <c r="H72" s="3">
-        <v>191100</v>
+        <v>179700</v>
       </c>
       <c r="I72" s="3">
-        <v>187700</v>
+        <v>176500</v>
       </c>
       <c r="J72" s="3">
-        <v>185600</v>
+        <v>174500</v>
       </c>
       <c r="K72" s="3">
         <v>173500</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>599700</v>
+        <v>563900</v>
       </c>
       <c r="E76" s="3">
-        <v>583200</v>
+        <v>548300</v>
       </c>
       <c r="F76" s="3">
-        <v>569400</v>
+        <v>535400</v>
       </c>
       <c r="G76" s="3">
-        <v>541800</v>
+        <v>509500</v>
       </c>
       <c r="H76" s="3">
-        <v>533200</v>
+        <v>501400</v>
       </c>
       <c r="I76" s="3">
-        <v>529900</v>
+        <v>498200</v>
       </c>
       <c r="J76" s="3">
-        <v>527700</v>
+        <v>496200</v>
       </c>
       <c r="K76" s="3">
         <v>498200</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="E81" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="F81" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="G81" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="H81" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I81" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J81" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K81" s="3">
         <v>-1500</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54500</v>
+        <v>51300</v>
       </c>
       <c r="E83" s="3">
-        <v>52400</v>
+        <v>49200</v>
       </c>
       <c r="F83" s="3">
-        <v>54500</v>
+        <v>51300</v>
       </c>
       <c r="G83" s="3">
-        <v>58200</v>
+        <v>54700</v>
       </c>
       <c r="H83" s="3">
-        <v>53300</v>
+        <v>50100</v>
       </c>
       <c r="I83" s="3">
-        <v>52400</v>
+        <v>49200</v>
       </c>
       <c r="J83" s="3">
-        <v>52700</v>
+        <v>49500</v>
       </c>
       <c r="K83" s="3">
         <v>50300</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>80600</v>
+        <v>75700</v>
       </c>
       <c r="E89" s="3">
-        <v>72600</v>
+        <v>68300</v>
       </c>
       <c r="F89" s="3">
-        <v>49900</v>
+        <v>46900</v>
       </c>
       <c r="G89" s="3">
-        <v>68600</v>
+        <v>64500</v>
       </c>
       <c r="H89" s="3">
-        <v>54800</v>
+        <v>51600</v>
       </c>
       <c r="I89" s="3">
-        <v>63700</v>
+        <v>59900</v>
       </c>
       <c r="J89" s="3">
-        <v>55700</v>
+        <v>52400</v>
       </c>
       <c r="K89" s="3">
         <v>60200</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-47500</v>
+        <v>-44600</v>
       </c>
       <c r="E91" s="3">
-        <v>-35500</v>
+        <v>-33400</v>
       </c>
       <c r="F91" s="3">
-        <v>-53600</v>
+        <v>-50400</v>
       </c>
       <c r="G91" s="3">
-        <v>-41700</v>
+        <v>-39200</v>
       </c>
       <c r="H91" s="3">
-        <v>-30300</v>
+        <v>-28500</v>
       </c>
       <c r="I91" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-33400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-35500</v>
       </c>
       <c r="K91" s="3">
         <v>-29400</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>49600</v>
+        <v>46700</v>
       </c>
       <c r="E94" s="3">
-        <v>-69200</v>
+        <v>-65100</v>
       </c>
       <c r="F94" s="3">
-        <v>-95900</v>
+        <v>-90100</v>
       </c>
       <c r="G94" s="3">
-        <v>-54200</v>
+        <v>-51000</v>
       </c>
       <c r="H94" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="I94" s="3">
-        <v>-66800</v>
+        <v>-62800</v>
       </c>
       <c r="J94" s="3">
-        <v>-18700</v>
+        <v>-17600</v>
       </c>
       <c r="K94" s="3">
         <v>-57500</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-92800</v>
+        <v>-87300</v>
       </c>
       <c r="E100" s="3">
-        <v>-17500</v>
+        <v>-16400</v>
       </c>
       <c r="F100" s="3">
-        <v>57600</v>
+        <v>54100</v>
       </c>
       <c r="G100" s="3">
-        <v>-17500</v>
+        <v>-16400</v>
       </c>
       <c r="H100" s="3">
-        <v>-58500</v>
+        <v>-55000</v>
       </c>
       <c r="I100" s="3">
-        <v>-16800</v>
+        <v>-15800</v>
       </c>
       <c r="J100" s="3">
-        <v>-33400</v>
+        <v>-31400</v>
       </c>
       <c r="K100" s="3">
         <v>-15700</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37400</v>
+        <v>35100</v>
       </c>
       <c r="E102" s="3">
-        <v>-14100</v>
+        <v>-13200</v>
       </c>
       <c r="F102" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="G102" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="H102" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="I102" s="3">
-        <v>-19900</v>
+        <v>-18700</v>
       </c>
       <c r="J102" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K102" s="3">
         <v>-13100</v>
